--- a/inst/Research tracker - template - V4.xlsx
+++ b/inst/Research tracker - template - V4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16032" windowHeight="9048" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16032" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="EMILIE POISSON - Personal View" guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="3"/>
+    <customWorkbookView name="Elisabeth Vikman - Personal View" guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-16" yWindow="-16" windowWidth="3232" windowHeight="1732" activeSheetId="1"/>
     <customWorkbookView name="Martin Barner - Personal View" guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3" showComments="commIndAndComment"/>
-    <customWorkbookView name="Elisabeth Vikman - Personal View" guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-16" yWindow="-16" windowWidth="3232" windowHeight="1732" activeSheetId="1"/>
-    <customWorkbookView name="EMILIE POISSON - Personal View" guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>Unit</t>
   </si>
@@ -250,27 +250,6 @@
     <t>How?:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Why?: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>The purpose of the Research Tracker is to centralise updates on research cycles and associated files between field teams and the HQ Research Department</t>
-    </r>
-  </si>
-  <si>
     <t>[COUNTRY] Research Tracker [MONTH YEAR]</t>
   </si>
   <si>
@@ -348,9 +327,6 @@
     <t>--&gt; Research Department to prefill with known information (from TORs / previous updates)</t>
   </si>
   <si>
-    <t xml:space="preserve">--&gt; CFP to review the "HQ update request" column (G) and enter requested updates in the following columns (H-P) </t>
-  </si>
-  <si>
     <t>--&gt; CFP to insert row(s) to add files not already listed / prefilled</t>
   </si>
   <si>
@@ -371,7 +347,34 @@
     <t>with Field (after HQ review)</t>
   </si>
   <si>
-    <t>How to turn on Track Changes in Excel</t>
+    <t>--&gt; 1 x file = one row, except for maps which are listed in sets (1 x set of maps = one row)</t>
+  </si>
+  <si>
+    <t>Research TOR status</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Why?: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The purpose of the Research Tracker is to centralise updates on research cycles and associated files between field teams and the HQ Research Department. </t>
+    </r>
   </si>
   <si>
     <r>
@@ -423,12 +426,12 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">for each open research cycle) </t>
+      <t xml:space="preserve">for each open research cycle), based on what is known at HQ level. </t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">--&gt; The Research Tracker is submitted by the Research Department via email to the CFP once a month. 
+      <t xml:space="preserve">A.The full Research Tracker for each country is submitted by the Research Department via email to the CFPs once a month. 
 </t>
     </r>
     <r>
@@ -442,46 +445,217 @@
     </r>
   </si>
   <si>
-    <t>--&gt; The CFP updates the tracker, ensuring "Track changes" function remains switched on &gt;&gt;&gt; see instructions here &gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>--&gt; The CFP returns the Research Tracker via email to the Research Department: research@impact-initiatives.org</t>
+    <r>
+      <t xml:space="preserve">B. The CFP ensures the tracker is updated. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Choose one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of two ways to update the tracker:</t>
+    </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">***Please submit this first tracker to the Research Department </t>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <i/>
         <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Online / google docs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you may at any time upload a tracker you receive from HQ to google docs (both Sheet 02 and Sheet 02 please!) and populate it there on an ongoing basis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Review the tracker extracts received from HQ and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add the requested updates in your online tracker (see specific instructions for sheet 01 and 02 below)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>b.    Don't forget to message research@impact-initiatives.org to confirm when your tracker is up-to-date, so we know when to pull the info from it.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Offline / by email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for those of you who prefer to share your updates via each individual new extract that is shared by HQ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a.       Review the tracker extracts received from HQ and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add your updates into that specific tracker extract.</t>
+    </r>
+  </si>
+  <si>
+    <t>b.       Return the updated tracker extract to research@impact-initiatives.org .</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deleting rows: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">by 1 September 2019; </t>
+      <t>Do not delete rows. If a Research Cycle is cancelled please explain in the comments and the row will be marked as "cancelled" in HQ records have been updated.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>--&gt; CFP to review the</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>subsequent trackers will be circulated for updates to coincide with the monthly submission of the MCR***</t>
+      <t xml:space="preserve"> "HQ update request" column (G) </t>
     </r>
-  </si>
-  <si>
-    <t>--&gt; 1 x file = one row, except for maps which are listed in sets (1 x set of maps = one row)</t>
-  </si>
-  <si>
-    <t>https://edu.gcfglobal.org/en/excel2016/track-changes-and-comments/1/</t>
-  </si>
-  <si>
-    <t>Research TOR status</t>
-  </si>
-  <si>
-    <t>Round</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">enter requested updates in the following columns (H-P) </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -491,7 +665,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,13 +797,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -643,6 +810,36 @@
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -845,9 +1042,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -958,12 +1155,9 @@
     <xf numFmtId="164" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -972,7 +1166,7 @@
     <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1001,6 +1195,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1082,7 +1288,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
+            <a14:shadowObscured xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1131,7 +1337,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
+            <a14:shadowObscured xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns=""/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1185,7 +1391,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
+            <a14:shadowObscured xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1234,7 +1440,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
+            <a14:shadowObscured xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1517,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1538,151 +1744,169 @@
     </row>
     <row r="2" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>70</v>
-      </c>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>77</v>
-      </c>
+      <c r="C3" s="55"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>52</v>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>53</v>
+    <row r="25" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" scale="90">
-      <selection activeCell="A13" sqref="A13"/>
+    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" scale="120">
+      <selection activeCell="A21" sqref="A21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
+      <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" scale="90">
       <selection activeCell="A13" sqref="A13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" scale="120">
-      <selection activeCell="A21" sqref="A21"/>
+    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" scale="90">
+      <selection activeCell="A13" sqref="A13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId4" display="https://edu.gcfglobal.org/en/excel2016/track-changes-and-comments/1/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1714,7 +1938,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -1728,7 +1952,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -1749,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>9</v>
@@ -1765,7 +1989,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1785,7 +2009,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1795,7 +2019,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1805,7 +2029,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1815,7 +2039,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1825,7 +2049,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="59"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1835,7 +2059,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2"/>
@@ -1847,7 +2071,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1857,7 +2081,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1879,7 +2103,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2"/>
@@ -1891,7 +2115,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1901,7 +2125,7 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1911,7 +2135,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1921,7 +2145,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1931,7 +2155,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1941,7 +2165,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1951,7 +2175,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1961,7 +2185,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1971,7 +2195,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1982,20 +2206,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
-      <selection activeCell="D26" sqref="D26"/>
+    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" showGridLines="0" fitToPage="1">
+      <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup scale="80" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+      <pageSetup scale="82" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
       <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup scale="80" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" showGridLines="0" fitToPage="1">
-      <selection activeCell="E5" sqref="E5"/>
+    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1">
+      <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup scale="82" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId3"/>
+      <pageSetup scale="80" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -2016,7 +2240,7 @@
   </sheetPr>
   <dimension ref="A1:M1431"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -2038,18 +2262,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="63" t="s">
-        <v>56</v>
+      <c r="B1" s="62" t="s">
+        <v>55</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
@@ -2058,14 +2282,14 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="48" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2098,10 +2322,10 @@
         <v>48</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>38</v>
@@ -2120,7 +2344,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -2129,7 +2353,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="43"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="51"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
@@ -2143,7 +2367,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="43"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="51"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
@@ -2157,8 +2381,8 @@
       <c r="I7" s="27"/>
       <c r="J7" s="43"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
@@ -2172,7 +2396,7 @@
       <c r="I8" s="27"/>
       <c r="J8" s="43"/>
       <c r="K8" s="17"/>
-      <c r="M8" s="51"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
@@ -2352,7 +2576,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="44"/>
-      <c r="K21" s="53"/>
+      <c r="K21" s="52"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2366,7 +2590,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="44"/>
-      <c r="K22" s="53"/>
+      <c r="K22" s="52"/>
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2380,7 +2604,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="44"/>
-      <c r="K23" s="53"/>
+      <c r="K23" s="52"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2394,7 +2618,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="44"/>
-      <c r="K24" s="53"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2408,7 +2632,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="44"/>
-      <c r="K25" s="53"/>
+      <c r="K25" s="52"/>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2422,7 +2646,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="44"/>
-      <c r="K26" s="53"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2436,7 +2660,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="44"/>
-      <c r="K27" s="53"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2450,7 +2674,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="44"/>
-      <c r="K28" s="53"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2464,7 +2688,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="44"/>
-      <c r="K29" s="53"/>
+      <c r="K29" s="52"/>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2478,7 +2702,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="44"/>
-      <c r="K30" s="53"/>
+      <c r="K30" s="52"/>
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2492,7 +2716,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="44"/>
-      <c r="K31" s="53"/>
+      <c r="K31" s="52"/>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2506,7 +2730,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="44"/>
-      <c r="K32" s="53"/>
+      <c r="K32" s="52"/>
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2520,7 +2744,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="44"/>
-      <c r="K33" s="53"/>
+      <c r="K33" s="52"/>
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2534,7 +2758,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="44"/>
-      <c r="K34" s="53"/>
+      <c r="K34" s="52"/>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2548,7 +2772,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="44"/>
-      <c r="K35" s="53"/>
+      <c r="K35" s="52"/>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2562,7 +2786,7 @@
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="44"/>
-      <c r="K36" s="53"/>
+      <c r="K36" s="52"/>
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2576,7 +2800,7 @@
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="44"/>
-      <c r="K37" s="53"/>
+      <c r="K37" s="52"/>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2590,7 +2814,7 @@
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="44"/>
-      <c r="K38" s="53"/>
+      <c r="K38" s="52"/>
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2604,7 +2828,7 @@
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="44"/>
-      <c r="K39" s="53"/>
+      <c r="K39" s="52"/>
       <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2618,7 +2842,7 @@
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="44"/>
-      <c r="K40" s="53"/>
+      <c r="K40" s="52"/>
       <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2632,7 +2856,7 @@
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="44"/>
-      <c r="K41" s="53"/>
+      <c r="K41" s="52"/>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2646,7 +2870,7 @@
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="44"/>
-      <c r="K42" s="53"/>
+      <c r="K42" s="52"/>
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2660,7 +2884,7 @@
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="44"/>
-      <c r="K43" s="53"/>
+      <c r="K43" s="52"/>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2674,7 +2898,7 @@
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="44"/>
-      <c r="K44" s="53"/>
+      <c r="K44" s="52"/>
       <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2688,7 +2912,7 @@
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="44"/>
-      <c r="K45" s="53"/>
+      <c r="K45" s="52"/>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2702,7 +2926,7 @@
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="44"/>
-      <c r="K46" s="53"/>
+      <c r="K46" s="52"/>
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2716,7 +2940,7 @@
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="44"/>
-      <c r="K47" s="53"/>
+      <c r="K47" s="52"/>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2730,7 +2954,7 @@
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="44"/>
-      <c r="K48" s="53"/>
+      <c r="K48" s="52"/>
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2744,7 +2968,7 @@
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="44"/>
-      <c r="K49" s="53"/>
+      <c r="K49" s="52"/>
       <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2758,7 +2982,7 @@
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
       <c r="J50" s="44"/>
-      <c r="K50" s="53"/>
+      <c r="K50" s="52"/>
       <c r="L50" s="8"/>
     </row>
     <row r="51" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2772,7 +2996,7 @@
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="44"/>
-      <c r="K51" s="53"/>
+      <c r="K51" s="52"/>
       <c r="L51" s="8"/>
     </row>
     <row r="52" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2786,7 +3010,7 @@
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
       <c r="J52" s="44"/>
-      <c r="K52" s="53"/>
+      <c r="K52" s="52"/>
       <c r="L52" s="8"/>
     </row>
     <row r="53" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2800,7 +3024,7 @@
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
       <c r="J53" s="44"/>
-      <c r="K53" s="53"/>
+      <c r="K53" s="52"/>
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2814,7 +3038,7 @@
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
       <c r="J54" s="44"/>
-      <c r="K54" s="53"/>
+      <c r="K54" s="52"/>
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2828,7 +3052,7 @@
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
       <c r="J55" s="44"/>
-      <c r="K55" s="53"/>
+      <c r="K55" s="52"/>
       <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2842,7 +3066,7 @@
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
       <c r="J56" s="44"/>
-      <c r="K56" s="53"/>
+      <c r="K56" s="52"/>
       <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2856,7 +3080,7 @@
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
       <c r="J57" s="44"/>
-      <c r="K57" s="53"/>
+      <c r="K57" s="52"/>
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2870,7 +3094,7 @@
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
       <c r="J58" s="44"/>
-      <c r="K58" s="53"/>
+      <c r="K58" s="52"/>
       <c r="L58" s="8"/>
     </row>
     <row r="59" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2884,7 +3108,7 @@
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
       <c r="J59" s="45"/>
-      <c r="K59" s="54"/>
+      <c r="K59" s="53"/>
     </row>
     <row r="60" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
@@ -2897,7 +3121,7 @@
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
       <c r="J60" s="45"/>
-      <c r="K60" s="54"/>
+      <c r="K60" s="53"/>
     </row>
     <row r="61" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
@@ -2910,7 +3134,7 @@
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
       <c r="J61" s="45"/>
-      <c r="K61" s="54"/>
+      <c r="K61" s="53"/>
     </row>
     <row r="62" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
@@ -2923,7 +3147,7 @@
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
       <c r="J62" s="45"/>
-      <c r="K62" s="54"/>
+      <c r="K62" s="53"/>
     </row>
     <row r="63" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
@@ -2936,7 +3160,7 @@
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
       <c r="J63" s="45"/>
-      <c r="K63" s="54"/>
+      <c r="K63" s="53"/>
     </row>
     <row r="64" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
@@ -2949,7 +3173,7 @@
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
       <c r="J64" s="45"/>
-      <c r="K64" s="54"/>
+      <c r="K64" s="53"/>
     </row>
     <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
@@ -2962,7 +3186,7 @@
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
       <c r="J65" s="45"/>
-      <c r="K65" s="54"/>
+      <c r="K65" s="53"/>
     </row>
     <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
@@ -2975,7 +3199,7 @@
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
       <c r="J66" s="45"/>
-      <c r="K66" s="54"/>
+      <c r="K66" s="53"/>
     </row>
     <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
@@ -2988,7 +3212,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="45"/>
-      <c r="K67" s="54"/>
+      <c r="K67" s="53"/>
     </row>
     <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
@@ -3001,7 +3225,7 @@
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
       <c r="J68" s="45"/>
-      <c r="K68" s="54"/>
+      <c r="K68" s="53"/>
     </row>
     <row r="69" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
@@ -3014,7 +3238,7 @@
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
       <c r="J69" s="45"/>
-      <c r="K69" s="54"/>
+      <c r="K69" s="53"/>
     </row>
     <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
@@ -3027,7 +3251,7 @@
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="45"/>
-      <c r="K70" s="54"/>
+      <c r="K70" s="53"/>
     </row>
     <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
@@ -3040,7 +3264,7 @@
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="45"/>
-      <c r="K71" s="54"/>
+      <c r="K71" s="53"/>
     </row>
     <row r="72" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
@@ -3053,7 +3277,7 @@
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
       <c r="J72" s="45"/>
-      <c r="K72" s="54"/>
+      <c r="K72" s="53"/>
     </row>
     <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
@@ -3066,7 +3290,7 @@
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
       <c r="J73" s="45"/>
-      <c r="K73" s="54"/>
+      <c r="K73" s="53"/>
     </row>
     <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
@@ -3079,7 +3303,7 @@
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
       <c r="J74" s="45"/>
-      <c r="K74" s="54"/>
+      <c r="K74" s="53"/>
     </row>
     <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
@@ -3092,7 +3316,7 @@
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
       <c r="J75" s="45"/>
-      <c r="K75" s="54"/>
+      <c r="K75" s="53"/>
     </row>
     <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
@@ -3105,7 +3329,7 @@
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="45"/>
-      <c r="K76" s="54"/>
+      <c r="K76" s="53"/>
     </row>
     <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
@@ -3118,7 +3342,7 @@
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
       <c r="J77" s="45"/>
-      <c r="K77" s="54"/>
+      <c r="K77" s="53"/>
     </row>
     <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
@@ -3131,7 +3355,7 @@
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
       <c r="J78" s="45"/>
-      <c r="K78" s="54"/>
+      <c r="K78" s="53"/>
     </row>
     <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
@@ -3144,7 +3368,7 @@
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
       <c r="J79" s="45"/>
-      <c r="K79" s="54"/>
+      <c r="K79" s="53"/>
     </row>
     <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
@@ -3157,7 +3381,7 @@
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
       <c r="J80" s="45"/>
-      <c r="K80" s="54"/>
+      <c r="K80" s="53"/>
     </row>
     <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
@@ -3170,7 +3394,7 @@
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
       <c r="J81" s="45"/>
-      <c r="K81" s="54"/>
+      <c r="K81" s="53"/>
     </row>
     <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
@@ -3183,7 +3407,7 @@
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
       <c r="J82" s="45"/>
-      <c r="K82" s="54"/>
+      <c r="K82" s="53"/>
     </row>
     <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
@@ -3196,7 +3420,7 @@
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
       <c r="J83" s="45"/>
-      <c r="K83" s="54"/>
+      <c r="K83" s="53"/>
     </row>
     <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
@@ -3209,7 +3433,7 @@
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
       <c r="J84" s="45"/>
-      <c r="K84" s="54"/>
+      <c r="K84" s="53"/>
     </row>
     <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
@@ -3222,7 +3446,7 @@
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
       <c r="J85" s="45"/>
-      <c r="K85" s="54"/>
+      <c r="K85" s="53"/>
     </row>
     <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
@@ -3235,7 +3459,7 @@
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
       <c r="J86" s="45"/>
-      <c r="K86" s="54"/>
+      <c r="K86" s="53"/>
     </row>
     <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
@@ -3248,7 +3472,7 @@
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
       <c r="J87" s="45"/>
-      <c r="K87" s="54"/>
+      <c r="K87" s="53"/>
     </row>
     <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
@@ -3261,7 +3485,7 @@
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
       <c r="J88" s="45"/>
-      <c r="K88" s="54"/>
+      <c r="K88" s="53"/>
     </row>
     <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
@@ -3274,7 +3498,7 @@
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
       <c r="J89" s="45"/>
-      <c r="K89" s="54"/>
+      <c r="K89" s="53"/>
     </row>
     <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
@@ -3287,7 +3511,7 @@
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
       <c r="J90" s="45"/>
-      <c r="K90" s="54"/>
+      <c r="K90" s="53"/>
     </row>
     <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
@@ -3300,7 +3524,7 @@
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
       <c r="J91" s="45"/>
-      <c r="K91" s="54"/>
+      <c r="K91" s="53"/>
     </row>
     <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
@@ -3313,7 +3537,7 @@
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
       <c r="J92" s="45"/>
-      <c r="K92" s="54"/>
+      <c r="K92" s="53"/>
     </row>
     <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
@@ -3326,7 +3550,7 @@
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
       <c r="J93" s="45"/>
-      <c r="K93" s="54"/>
+      <c r="K93" s="53"/>
     </row>
     <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
@@ -3339,7 +3563,7 @@
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
       <c r="J94" s="45"/>
-      <c r="K94" s="54"/>
+      <c r="K94" s="53"/>
     </row>
     <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
@@ -3352,7 +3576,7 @@
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
       <c r="J95" s="45"/>
-      <c r="K95" s="54"/>
+      <c r="K95" s="53"/>
     </row>
     <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
@@ -3365,7 +3589,7 @@
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
       <c r="J96" s="45"/>
-      <c r="K96" s="54"/>
+      <c r="K96" s="53"/>
     </row>
     <row r="97" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
@@ -3378,7 +3602,7 @@
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
       <c r="J97" s="45"/>
-      <c r="K97" s="54"/>
+      <c r="K97" s="53"/>
     </row>
     <row r="98" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
@@ -3391,7 +3615,7 @@
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
       <c r="J98" s="45"/>
-      <c r="K98" s="54"/>
+      <c r="K98" s="53"/>
     </row>
     <row r="99" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
@@ -3404,7 +3628,7 @@
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
       <c r="J99" s="45"/>
-      <c r="K99" s="54"/>
+      <c r="K99" s="53"/>
     </row>
     <row r="100" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
@@ -3417,7 +3641,7 @@
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
       <c r="J100" s="45"/>
-      <c r="K100" s="54"/>
+      <c r="K100" s="53"/>
     </row>
     <row r="101" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
@@ -3430,7 +3654,7 @@
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
       <c r="J101" s="45"/>
-      <c r="K101" s="54"/>
+      <c r="K101" s="53"/>
     </row>
     <row r="102" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
@@ -3443,7 +3667,7 @@
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
       <c r="J102" s="45"/>
-      <c r="K102" s="54"/>
+      <c r="K102" s="53"/>
     </row>
     <row r="103" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
@@ -3456,7 +3680,7 @@
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
       <c r="J103" s="45"/>
-      <c r="K103" s="54"/>
+      <c r="K103" s="53"/>
     </row>
     <row r="104" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
@@ -3469,7 +3693,7 @@
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
       <c r="J104" s="45"/>
-      <c r="K104" s="54"/>
+      <c r="K104" s="53"/>
     </row>
     <row r="105" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
@@ -3482,7 +3706,7 @@
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
       <c r="J105" s="45"/>
-      <c r="K105" s="54"/>
+      <c r="K105" s="53"/>
     </row>
     <row r="106" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
@@ -3495,7 +3719,7 @@
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
       <c r="J106" s="45"/>
-      <c r="K106" s="54"/>
+      <c r="K106" s="53"/>
     </row>
     <row r="107" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
@@ -3508,7 +3732,7 @@
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
       <c r="J107" s="45"/>
-      <c r="K107" s="54"/>
+      <c r="K107" s="53"/>
     </row>
     <row r="108" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
@@ -3521,7 +3745,7 @@
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
       <c r="J108" s="45"/>
-      <c r="K108" s="54"/>
+      <c r="K108" s="53"/>
     </row>
     <row r="109" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
@@ -3534,7 +3758,7 @@
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
       <c r="J109" s="45"/>
-      <c r="K109" s="54"/>
+      <c r="K109" s="53"/>
     </row>
     <row r="110" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
@@ -3547,7 +3771,7 @@
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
       <c r="J110" s="45"/>
-      <c r="K110" s="54"/>
+      <c r="K110" s="53"/>
     </row>
     <row r="111" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
@@ -3560,7 +3784,7 @@
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
       <c r="J111" s="45"/>
-      <c r="K111" s="54"/>
+      <c r="K111" s="53"/>
     </row>
     <row r="112" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
@@ -3573,7 +3797,7 @@
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
       <c r="J112" s="45"/>
-      <c r="K112" s="54"/>
+      <c r="K112" s="53"/>
     </row>
     <row r="113" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
@@ -3586,7 +3810,7 @@
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
       <c r="J113" s="45"/>
-      <c r="K113" s="54"/>
+      <c r="K113" s="53"/>
     </row>
     <row r="114" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
@@ -3599,7 +3823,7 @@
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
       <c r="J114" s="45"/>
-      <c r="K114" s="54"/>
+      <c r="K114" s="53"/>
     </row>
     <row r="115" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
@@ -3612,7 +3836,7 @@
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
       <c r="J115" s="45"/>
-      <c r="K115" s="54"/>
+      <c r="K115" s="53"/>
     </row>
     <row r="116" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
@@ -3625,7 +3849,7 @@
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
       <c r="J116" s="45"/>
-      <c r="K116" s="54"/>
+      <c r="K116" s="53"/>
     </row>
     <row r="117" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
@@ -3638,7 +3862,7 @@
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
       <c r="J117" s="45"/>
-      <c r="K117" s="54"/>
+      <c r="K117" s="53"/>
     </row>
     <row r="118" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
@@ -3651,7 +3875,7 @@
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
       <c r="J118" s="45"/>
-      <c r="K118" s="54"/>
+      <c r="K118" s="53"/>
     </row>
     <row r="119" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17"/>
@@ -3664,7 +3888,7 @@
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
       <c r="J119" s="45"/>
-      <c r="K119" s="54"/>
+      <c r="K119" s="53"/>
     </row>
     <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
@@ -3677,7 +3901,7 @@
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
       <c r="J120" s="45"/>
-      <c r="K120" s="54"/>
+      <c r="K120" s="53"/>
     </row>
     <row r="121" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
@@ -3690,7 +3914,7 @@
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
       <c r="J121" s="45"/>
-      <c r="K121" s="54"/>
+      <c r="K121" s="53"/>
     </row>
     <row r="122" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
@@ -3703,7 +3927,7 @@
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
       <c r="J122" s="45"/>
-      <c r="K122" s="54"/>
+      <c r="K122" s="53"/>
     </row>
     <row r="123" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
@@ -3716,7 +3940,7 @@
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
       <c r="J123" s="45"/>
-      <c r="K123" s="54"/>
+      <c r="K123" s="53"/>
     </row>
     <row r="124" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
@@ -3729,7 +3953,7 @@
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
       <c r="J124" s="45"/>
-      <c r="K124" s="54"/>
+      <c r="K124" s="53"/>
     </row>
     <row r="125" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
@@ -3742,7 +3966,7 @@
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
       <c r="J125" s="45"/>
-      <c r="K125" s="54"/>
+      <c r="K125" s="53"/>
     </row>
     <row r="126" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17"/>
@@ -3755,7 +3979,7 @@
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
       <c r="J126" s="45"/>
-      <c r="K126" s="54"/>
+      <c r="K126" s="53"/>
     </row>
     <row r="127" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
@@ -3768,7 +3992,7 @@
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
       <c r="J127" s="45"/>
-      <c r="K127" s="54"/>
+      <c r="K127" s="53"/>
     </row>
     <row r="128" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
@@ -3781,7 +4005,7 @@
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
       <c r="J128" s="45"/>
-      <c r="K128" s="54"/>
+      <c r="K128" s="53"/>
     </row>
     <row r="129" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
@@ -3794,7 +4018,7 @@
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
       <c r="J129" s="45"/>
-      <c r="K129" s="54"/>
+      <c r="K129" s="53"/>
     </row>
     <row r="130" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
@@ -3807,7 +4031,7 @@
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
       <c r="J130" s="45"/>
-      <c r="K130" s="54"/>
+      <c r="K130" s="53"/>
     </row>
     <row r="131" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
@@ -3820,7 +4044,7 @@
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
       <c r="J131" s="45"/>
-      <c r="K131" s="54"/>
+      <c r="K131" s="53"/>
     </row>
     <row r="132" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
@@ -3833,7 +4057,7 @@
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
       <c r="J132" s="45"/>
-      <c r="K132" s="54"/>
+      <c r="K132" s="53"/>
     </row>
     <row r="133" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
@@ -3846,7 +4070,7 @@
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
       <c r="J133" s="45"/>
-      <c r="K133" s="54"/>
+      <c r="K133" s="53"/>
     </row>
     <row r="134" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
@@ -3859,7 +4083,7 @@
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
       <c r="J134" s="45"/>
-      <c r="K134" s="54"/>
+      <c r="K134" s="53"/>
     </row>
     <row r="135" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
@@ -3872,7 +4096,7 @@
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
       <c r="J135" s="45"/>
-      <c r="K135" s="54"/>
+      <c r="K135" s="53"/>
     </row>
     <row r="136" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17"/>
@@ -3885,7 +4109,7 @@
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
       <c r="J136" s="45"/>
-      <c r="K136" s="54"/>
+      <c r="K136" s="53"/>
     </row>
     <row r="137" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
@@ -3898,7 +4122,7 @@
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
       <c r="J137" s="45"/>
-      <c r="K137" s="54"/>
+      <c r="K137" s="53"/>
     </row>
     <row r="138" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
@@ -3911,7 +4135,7 @@
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
       <c r="J138" s="45"/>
-      <c r="K138" s="54"/>
+      <c r="K138" s="53"/>
     </row>
     <row r="139" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
@@ -3924,7 +4148,7 @@
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
       <c r="J139" s="45"/>
-      <c r="K139" s="54"/>
+      <c r="K139" s="53"/>
     </row>
     <row r="140" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
@@ -3937,7 +4161,7 @@
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
       <c r="J140" s="45"/>
-      <c r="K140" s="54"/>
+      <c r="K140" s="53"/>
     </row>
     <row r="141" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
@@ -3950,7 +4174,7 @@
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
       <c r="J141" s="45"/>
-      <c r="K141" s="54"/>
+      <c r="K141" s="53"/>
     </row>
     <row r="142" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
@@ -3963,7 +4187,7 @@
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
       <c r="J142" s="45"/>
-      <c r="K142" s="54"/>
+      <c r="K142" s="53"/>
     </row>
     <row r="143" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
@@ -3976,7 +4200,7 @@
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
       <c r="J143" s="45"/>
-      <c r="K143" s="54"/>
+      <c r="K143" s="53"/>
     </row>
     <row r="144" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
@@ -3989,7 +4213,7 @@
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
       <c r="J144" s="45"/>
-      <c r="K144" s="54"/>
+      <c r="K144" s="53"/>
     </row>
     <row r="145" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
@@ -4002,7 +4226,7 @@
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
       <c r="J145" s="45"/>
-      <c r="K145" s="54"/>
+      <c r="K145" s="53"/>
     </row>
     <row r="146" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
@@ -4015,7 +4239,7 @@
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
       <c r="J146" s="45"/>
-      <c r="K146" s="54"/>
+      <c r="K146" s="53"/>
     </row>
     <row r="147" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
@@ -4028,7 +4252,7 @@
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
       <c r="J147" s="45"/>
-      <c r="K147" s="54"/>
+      <c r="K147" s="53"/>
     </row>
     <row r="148" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
@@ -4041,7 +4265,7 @@
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
       <c r="J148" s="45"/>
-      <c r="K148" s="54"/>
+      <c r="K148" s="53"/>
     </row>
     <row r="149" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
@@ -4054,7 +4278,7 @@
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
       <c r="J149" s="45"/>
-      <c r="K149" s="54"/>
+      <c r="K149" s="53"/>
     </row>
     <row r="150" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
@@ -4067,7 +4291,7 @@
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
       <c r="J150" s="45"/>
-      <c r="K150" s="54"/>
+      <c r="K150" s="53"/>
     </row>
     <row r="151" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17"/>
@@ -4080,7 +4304,7 @@
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
       <c r="J151" s="45"/>
-      <c r="K151" s="54"/>
+      <c r="K151" s="53"/>
     </row>
     <row r="152" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
@@ -4093,7 +4317,7 @@
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
       <c r="J152" s="45"/>
-      <c r="K152" s="54"/>
+      <c r="K152" s="53"/>
     </row>
     <row r="153" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="17"/>
@@ -4106,7 +4330,7 @@
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
       <c r="J153" s="45"/>
-      <c r="K153" s="54"/>
+      <c r="K153" s="53"/>
     </row>
     <row r="154" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
@@ -4119,7 +4343,7 @@
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
       <c r="J154" s="45"/>
-      <c r="K154" s="54"/>
+      <c r="K154" s="53"/>
     </row>
     <row r="155" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
@@ -4132,7 +4356,7 @@
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
       <c r="J155" s="45"/>
-      <c r="K155" s="54"/>
+      <c r="K155" s="53"/>
     </row>
     <row r="156" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
@@ -4145,7 +4369,7 @@
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
       <c r="J156" s="45"/>
-      <c r="K156" s="54"/>
+      <c r="K156" s="53"/>
     </row>
     <row r="157" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
@@ -4158,7 +4382,7 @@
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
       <c r="J157" s="45"/>
-      <c r="K157" s="54"/>
+      <c r="K157" s="53"/>
     </row>
     <row r="158" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
@@ -4171,7 +4395,7 @@
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
       <c r="J158" s="45"/>
-      <c r="K158" s="54"/>
+      <c r="K158" s="53"/>
     </row>
     <row r="159" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
@@ -4184,7 +4408,7 @@
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
       <c r="J159" s="45"/>
-      <c r="K159" s="54"/>
+      <c r="K159" s="53"/>
     </row>
     <row r="160" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
@@ -4197,7 +4421,7 @@
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
       <c r="J160" s="45"/>
-      <c r="K160" s="54"/>
+      <c r="K160" s="53"/>
     </row>
     <row r="161" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
@@ -4210,7 +4434,7 @@
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
       <c r="J161" s="45"/>
-      <c r="K161" s="54"/>
+      <c r="K161" s="53"/>
     </row>
     <row r="162" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
@@ -4223,7 +4447,7 @@
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
       <c r="J162" s="45"/>
-      <c r="K162" s="54"/>
+      <c r="K162" s="53"/>
     </row>
     <row r="163" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
@@ -4236,7 +4460,7 @@
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
       <c r="J163" s="45"/>
-      <c r="K163" s="54"/>
+      <c r="K163" s="53"/>
     </row>
     <row r="164" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
@@ -4249,7 +4473,7 @@
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
       <c r="J164" s="45"/>
-      <c r="K164" s="54"/>
+      <c r="K164" s="53"/>
     </row>
     <row r="165" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
@@ -4262,7 +4486,7 @@
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
       <c r="J165" s="45"/>
-      <c r="K165" s="54"/>
+      <c r="K165" s="53"/>
     </row>
     <row r="166" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
@@ -4275,7 +4499,7 @@
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
       <c r="J166" s="45"/>
-      <c r="K166" s="54"/>
+      <c r="K166" s="53"/>
     </row>
     <row r="167" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="17"/>
@@ -4288,7 +4512,7 @@
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
       <c r="J167" s="45"/>
-      <c r="K167" s="54"/>
+      <c r="K167" s="53"/>
     </row>
     <row r="168" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
@@ -4301,7 +4525,7 @@
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
       <c r="J168" s="45"/>
-      <c r="K168" s="54"/>
+      <c r="K168" s="53"/>
     </row>
     <row r="169" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
@@ -4314,7 +4538,7 @@
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
       <c r="J169" s="45"/>
-      <c r="K169" s="54"/>
+      <c r="K169" s="53"/>
     </row>
     <row r="170" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
@@ -4327,7 +4551,7 @@
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
       <c r="J170" s="45"/>
-      <c r="K170" s="54"/>
+      <c r="K170" s="53"/>
     </row>
     <row r="171" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
@@ -4340,7 +4564,7 @@
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
       <c r="J171" s="45"/>
-      <c r="K171" s="54"/>
+      <c r="K171" s="53"/>
     </row>
     <row r="172" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
@@ -4353,7 +4577,7 @@
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
       <c r="J172" s="45"/>
-      <c r="K172" s="54"/>
+      <c r="K172" s="53"/>
     </row>
     <row r="173" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
@@ -4366,7 +4590,7 @@
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
       <c r="J173" s="45"/>
-      <c r="K173" s="54"/>
+      <c r="K173" s="53"/>
     </row>
     <row r="174" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
@@ -4379,7 +4603,7 @@
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
       <c r="J174" s="45"/>
-      <c r="K174" s="54"/>
+      <c r="K174" s="53"/>
     </row>
     <row r="175" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
@@ -4392,7 +4616,7 @@
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
       <c r="J175" s="45"/>
-      <c r="K175" s="54"/>
+      <c r="K175" s="53"/>
     </row>
     <row r="176" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
@@ -4405,7 +4629,7 @@
       <c r="H176" s="27"/>
       <c r="I176" s="27"/>
       <c r="J176" s="45"/>
-      <c r="K176" s="54"/>
+      <c r="K176" s="53"/>
     </row>
     <row r="177" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
@@ -4418,7 +4642,7 @@
       <c r="H177" s="27"/>
       <c r="I177" s="27"/>
       <c r="J177" s="45"/>
-      <c r="K177" s="54"/>
+      <c r="K177" s="53"/>
     </row>
     <row r="178" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="17"/>
@@ -4431,7 +4655,7 @@
       <c r="H178" s="27"/>
       <c r="I178" s="27"/>
       <c r="J178" s="45"/>
-      <c r="K178" s="54"/>
+      <c r="K178" s="53"/>
     </row>
     <row r="179" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
@@ -4444,7 +4668,7 @@
       <c r="H179" s="27"/>
       <c r="I179" s="27"/>
       <c r="J179" s="45"/>
-      <c r="K179" s="54"/>
+      <c r="K179" s="53"/>
     </row>
     <row r="180" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
@@ -4457,7 +4681,7 @@
       <c r="H180" s="27"/>
       <c r="I180" s="27"/>
       <c r="J180" s="45"/>
-      <c r="K180" s="54"/>
+      <c r="K180" s="53"/>
     </row>
     <row r="181" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
@@ -4470,7 +4694,7 @@
       <c r="H181" s="27"/>
       <c r="I181" s="27"/>
       <c r="J181" s="45"/>
-      <c r="K181" s="54"/>
+      <c r="K181" s="53"/>
     </row>
     <row r="182" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
@@ -4483,7 +4707,7 @@
       <c r="H182" s="27"/>
       <c r="I182" s="27"/>
       <c r="J182" s="45"/>
-      <c r="K182" s="54"/>
+      <c r="K182" s="53"/>
     </row>
     <row r="183" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="17"/>
@@ -4496,7 +4720,7 @@
       <c r="H183" s="27"/>
       <c r="I183" s="27"/>
       <c r="J183" s="45"/>
-      <c r="K183" s="54"/>
+      <c r="K183" s="53"/>
     </row>
     <row r="184" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
@@ -4509,7 +4733,7 @@
       <c r="H184" s="27"/>
       <c r="I184" s="27"/>
       <c r="J184" s="45"/>
-      <c r="K184" s="54"/>
+      <c r="K184" s="53"/>
     </row>
     <row r="185" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
@@ -4522,7 +4746,7 @@
       <c r="H185" s="27"/>
       <c r="I185" s="27"/>
       <c r="J185" s="45"/>
-      <c r="K185" s="54"/>
+      <c r="K185" s="53"/>
     </row>
     <row r="186" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
@@ -4535,7 +4759,7 @@
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
       <c r="J186" s="45"/>
-      <c r="K186" s="54"/>
+      <c r="K186" s="53"/>
     </row>
     <row r="187" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
@@ -4548,7 +4772,7 @@
       <c r="H187" s="27"/>
       <c r="I187" s="27"/>
       <c r="J187" s="45"/>
-      <c r="K187" s="54"/>
+      <c r="K187" s="53"/>
     </row>
     <row r="188" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="17"/>
@@ -4561,7 +4785,7 @@
       <c r="H188" s="27"/>
       <c r="I188" s="27"/>
       <c r="J188" s="45"/>
-      <c r="K188" s="54"/>
+      <c r="K188" s="53"/>
     </row>
     <row r="189" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
@@ -4574,7 +4798,7 @@
       <c r="H189" s="27"/>
       <c r="I189" s="27"/>
       <c r="J189" s="45"/>
-      <c r="K189" s="54"/>
+      <c r="K189" s="53"/>
     </row>
     <row r="190" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
@@ -4587,7 +4811,7 @@
       <c r="H190" s="27"/>
       <c r="I190" s="27"/>
       <c r="J190" s="45"/>
-      <c r="K190" s="54"/>
+      <c r="K190" s="53"/>
     </row>
     <row r="191" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="17"/>
@@ -4600,7 +4824,7 @@
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
       <c r="J191" s="45"/>
-      <c r="K191" s="54"/>
+      <c r="K191" s="53"/>
     </row>
     <row r="192" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
@@ -4613,7 +4837,7 @@
       <c r="H192" s="27"/>
       <c r="I192" s="27"/>
       <c r="J192" s="45"/>
-      <c r="K192" s="54"/>
+      <c r="K192" s="53"/>
     </row>
     <row r="193" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
@@ -4626,7 +4850,7 @@
       <c r="H193" s="27"/>
       <c r="I193" s="27"/>
       <c r="J193" s="45"/>
-      <c r="K193" s="54"/>
+      <c r="K193" s="53"/>
     </row>
     <row r="194" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
@@ -4639,7 +4863,7 @@
       <c r="H194" s="27"/>
       <c r="I194" s="27"/>
       <c r="J194" s="45"/>
-      <c r="K194" s="54"/>
+      <c r="K194" s="53"/>
     </row>
     <row r="195" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
@@ -4652,7 +4876,7 @@
       <c r="H195" s="27"/>
       <c r="I195" s="27"/>
       <c r="J195" s="45"/>
-      <c r="K195" s="54"/>
+      <c r="K195" s="53"/>
     </row>
     <row r="196" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
@@ -4665,7 +4889,7 @@
       <c r="H196" s="27"/>
       <c r="I196" s="27"/>
       <c r="J196" s="45"/>
-      <c r="K196" s="54"/>
+      <c r="K196" s="53"/>
     </row>
     <row r="197" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="17"/>
@@ -4678,7 +4902,7 @@
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
       <c r="J197" s="45"/>
-      <c r="K197" s="54"/>
+      <c r="K197" s="53"/>
     </row>
     <row r="198" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
@@ -4691,7 +4915,7 @@
       <c r="H198" s="27"/>
       <c r="I198" s="27"/>
       <c r="J198" s="45"/>
-      <c r="K198" s="54"/>
+      <c r="K198" s="53"/>
     </row>
     <row r="199" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
@@ -4704,7 +4928,7 @@
       <c r="H199" s="27"/>
       <c r="I199" s="27"/>
       <c r="J199" s="45"/>
-      <c r="K199" s="54"/>
+      <c r="K199" s="53"/>
     </row>
     <row r="200" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
@@ -4717,7 +4941,7 @@
       <c r="H200" s="27"/>
       <c r="I200" s="27"/>
       <c r="J200" s="45"/>
-      <c r="K200" s="54"/>
+      <c r="K200" s="53"/>
     </row>
     <row r="201" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
@@ -4730,7 +4954,7 @@
       <c r="H201" s="27"/>
       <c r="I201" s="27"/>
       <c r="J201" s="45"/>
-      <c r="K201" s="54"/>
+      <c r="K201" s="53"/>
     </row>
     <row r="202" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
@@ -4743,7 +4967,7 @@
       <c r="H202" s="27"/>
       <c r="I202" s="27"/>
       <c r="J202" s="45"/>
-      <c r="K202" s="54"/>
+      <c r="K202" s="53"/>
     </row>
     <row r="203" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
@@ -4756,7 +4980,7 @@
       <c r="H203" s="27"/>
       <c r="I203" s="27"/>
       <c r="J203" s="45"/>
-      <c r="K203" s="54"/>
+      <c r="K203" s="53"/>
     </row>
     <row r="204" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
@@ -4769,7 +4993,7 @@
       <c r="H204" s="27"/>
       <c r="I204" s="27"/>
       <c r="J204" s="45"/>
-      <c r="K204" s="54"/>
+      <c r="K204" s="53"/>
     </row>
     <row r="205" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
@@ -4782,7 +5006,7 @@
       <c r="H205" s="27"/>
       <c r="I205" s="27"/>
       <c r="J205" s="45"/>
-      <c r="K205" s="54"/>
+      <c r="K205" s="53"/>
     </row>
     <row r="206" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
@@ -4795,7 +5019,7 @@
       <c r="H206" s="27"/>
       <c r="I206" s="27"/>
       <c r="J206" s="45"/>
-      <c r="K206" s="54"/>
+      <c r="K206" s="53"/>
     </row>
     <row r="207" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="17"/>
@@ -4808,7 +5032,7 @@
       <c r="H207" s="27"/>
       <c r="I207" s="27"/>
       <c r="J207" s="45"/>
-      <c r="K207" s="54"/>
+      <c r="K207" s="53"/>
     </row>
     <row r="208" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
@@ -4821,7 +5045,7 @@
       <c r="H208" s="27"/>
       <c r="I208" s="27"/>
       <c r="J208" s="45"/>
-      <c r="K208" s="54"/>
+      <c r="K208" s="53"/>
     </row>
     <row r="209" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
@@ -4834,7 +5058,7 @@
       <c r="H209" s="27"/>
       <c r="I209" s="27"/>
       <c r="J209" s="45"/>
-      <c r="K209" s="54"/>
+      <c r="K209" s="53"/>
     </row>
     <row r="210" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
@@ -4847,7 +5071,7 @@
       <c r="H210" s="27"/>
       <c r="I210" s="27"/>
       <c r="J210" s="45"/>
-      <c r="K210" s="54"/>
+      <c r="K210" s="53"/>
     </row>
     <row r="211" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
@@ -4860,7 +5084,7 @@
       <c r="H211" s="27"/>
       <c r="I211" s="27"/>
       <c r="J211" s="45"/>
-      <c r="K211" s="54"/>
+      <c r="K211" s="53"/>
     </row>
     <row r="212" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
@@ -4873,7 +5097,7 @@
       <c r="H212" s="27"/>
       <c r="I212" s="27"/>
       <c r="J212" s="45"/>
-      <c r="K212" s="54"/>
+      <c r="K212" s="53"/>
     </row>
     <row r="213" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
@@ -4886,7 +5110,7 @@
       <c r="H213" s="27"/>
       <c r="I213" s="27"/>
       <c r="J213" s="45"/>
-      <c r="K213" s="54"/>
+      <c r="K213" s="53"/>
     </row>
     <row r="214" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
@@ -4899,7 +5123,7 @@
       <c r="H214" s="27"/>
       <c r="I214" s="27"/>
       <c r="J214" s="45"/>
-      <c r="K214" s="54"/>
+      <c r="K214" s="53"/>
     </row>
     <row r="215" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
@@ -4912,7 +5136,7 @@
       <c r="H215" s="27"/>
       <c r="I215" s="27"/>
       <c r="J215" s="45"/>
-      <c r="K215" s="54"/>
+      <c r="K215" s="53"/>
     </row>
     <row r="216" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
@@ -4925,7 +5149,7 @@
       <c r="H216" s="27"/>
       <c r="I216" s="27"/>
       <c r="J216" s="45"/>
-      <c r="K216" s="54"/>
+      <c r="K216" s="53"/>
     </row>
     <row r="217" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="17"/>
@@ -4938,7 +5162,7 @@
       <c r="H217" s="27"/>
       <c r="I217" s="27"/>
       <c r="J217" s="45"/>
-      <c r="K217" s="54"/>
+      <c r="K217" s="53"/>
     </row>
     <row r="218" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
@@ -4951,7 +5175,7 @@
       <c r="H218" s="27"/>
       <c r="I218" s="27"/>
       <c r="J218" s="45"/>
-      <c r="K218" s="54"/>
+      <c r="K218" s="53"/>
     </row>
     <row r="219" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
@@ -4964,7 +5188,7 @@
       <c r="H219" s="27"/>
       <c r="I219" s="27"/>
       <c r="J219" s="45"/>
-      <c r="K219" s="54"/>
+      <c r="K219" s="53"/>
     </row>
     <row r="220" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
@@ -4977,7 +5201,7 @@
       <c r="H220" s="27"/>
       <c r="I220" s="27"/>
       <c r="J220" s="45"/>
-      <c r="K220" s="54"/>
+      <c r="K220" s="53"/>
     </row>
     <row r="221" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
@@ -4990,7 +5214,7 @@
       <c r="H221" s="27"/>
       <c r="I221" s="27"/>
       <c r="J221" s="45"/>
-      <c r="K221" s="54"/>
+      <c r="K221" s="53"/>
     </row>
     <row r="222" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
@@ -5003,7 +5227,7 @@
       <c r="H222" s="27"/>
       <c r="I222" s="27"/>
       <c r="J222" s="45"/>
-      <c r="K222" s="54"/>
+      <c r="K222" s="53"/>
     </row>
     <row r="223" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
@@ -5016,7 +5240,7 @@
       <c r="H223" s="27"/>
       <c r="I223" s="27"/>
       <c r="J223" s="45"/>
-      <c r="K223" s="54"/>
+      <c r="K223" s="53"/>
     </row>
     <row r="224" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
@@ -5029,7 +5253,7 @@
       <c r="H224" s="27"/>
       <c r="I224" s="27"/>
       <c r="J224" s="45"/>
-      <c r="K224" s="54"/>
+      <c r="K224" s="53"/>
     </row>
     <row r="225" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
@@ -5042,7 +5266,7 @@
       <c r="H225" s="27"/>
       <c r="I225" s="27"/>
       <c r="J225" s="45"/>
-      <c r="K225" s="54"/>
+      <c r="K225" s="53"/>
     </row>
     <row r="226" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
@@ -5055,7 +5279,7 @@
       <c r="H226" s="27"/>
       <c r="I226" s="27"/>
       <c r="J226" s="45"/>
-      <c r="K226" s="54"/>
+      <c r="K226" s="53"/>
     </row>
     <row r="227" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
@@ -5068,7 +5292,7 @@
       <c r="H227" s="27"/>
       <c r="I227" s="27"/>
       <c r="J227" s="45"/>
-      <c r="K227" s="54"/>
+      <c r="K227" s="53"/>
     </row>
     <row r="228" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
@@ -5081,7 +5305,7 @@
       <c r="H228" s="27"/>
       <c r="I228" s="27"/>
       <c r="J228" s="45"/>
-      <c r="K228" s="54"/>
+      <c r="K228" s="53"/>
     </row>
     <row r="229" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
@@ -5094,7 +5318,7 @@
       <c r="H229" s="27"/>
       <c r="I229" s="27"/>
       <c r="J229" s="45"/>
-      <c r="K229" s="54"/>
+      <c r="K229" s="53"/>
     </row>
     <row r="230" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
@@ -5107,7 +5331,7 @@
       <c r="H230" s="27"/>
       <c r="I230" s="27"/>
       <c r="J230" s="45"/>
-      <c r="K230" s="54"/>
+      <c r="K230" s="53"/>
     </row>
     <row r="231" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
@@ -5120,7 +5344,7 @@
       <c r="H231" s="27"/>
       <c r="I231" s="27"/>
       <c r="J231" s="45"/>
-      <c r="K231" s="54"/>
+      <c r="K231" s="53"/>
     </row>
     <row r="232" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
@@ -5133,7 +5357,7 @@
       <c r="H232" s="27"/>
       <c r="I232" s="27"/>
       <c r="J232" s="45"/>
-      <c r="K232" s="54"/>
+      <c r="K232" s="53"/>
     </row>
     <row r="233" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
@@ -5146,7 +5370,7 @@
       <c r="H233" s="27"/>
       <c r="I233" s="27"/>
       <c r="J233" s="45"/>
-      <c r="K233" s="54"/>
+      <c r="K233" s="53"/>
     </row>
     <row r="234" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="17"/>
@@ -5159,7 +5383,7 @@
       <c r="H234" s="27"/>
       <c r="I234" s="27"/>
       <c r="J234" s="45"/>
-      <c r="K234" s="54"/>
+      <c r="K234" s="53"/>
     </row>
     <row r="235" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
@@ -5172,7 +5396,7 @@
       <c r="H235" s="27"/>
       <c r="I235" s="27"/>
       <c r="J235" s="45"/>
-      <c r="K235" s="54"/>
+      <c r="K235" s="53"/>
     </row>
     <row r="236" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
@@ -5185,7 +5409,7 @@
       <c r="H236" s="27"/>
       <c r="I236" s="27"/>
       <c r="J236" s="45"/>
-      <c r="K236" s="54"/>
+      <c r="K236" s="53"/>
     </row>
     <row r="237" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
@@ -5198,7 +5422,7 @@
       <c r="H237" s="27"/>
       <c r="I237" s="27"/>
       <c r="J237" s="45"/>
-      <c r="K237" s="54"/>
+      <c r="K237" s="53"/>
     </row>
     <row r="238" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
@@ -5211,7 +5435,7 @@
       <c r="H238" s="27"/>
       <c r="I238" s="27"/>
       <c r="J238" s="45"/>
-      <c r="K238" s="54"/>
+      <c r="K238" s="53"/>
     </row>
     <row r="239" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
@@ -5224,7 +5448,7 @@
       <c r="H239" s="27"/>
       <c r="I239" s="27"/>
       <c r="J239" s="45"/>
-      <c r="K239" s="54"/>
+      <c r="K239" s="53"/>
     </row>
     <row r="240" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
@@ -5237,7 +5461,7 @@
       <c r="H240" s="27"/>
       <c r="I240" s="27"/>
       <c r="J240" s="45"/>
-      <c r="K240" s="54"/>
+      <c r="K240" s="53"/>
     </row>
     <row r="241" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
@@ -5250,7 +5474,7 @@
       <c r="H241" s="27"/>
       <c r="I241" s="27"/>
       <c r="J241" s="45"/>
-      <c r="K241" s="54"/>
+      <c r="K241" s="53"/>
     </row>
     <row r="242" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
@@ -5263,7 +5487,7 @@
       <c r="H242" s="27"/>
       <c r="I242" s="27"/>
       <c r="J242" s="45"/>
-      <c r="K242" s="54"/>
+      <c r="K242" s="53"/>
     </row>
     <row r="243" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
@@ -5276,7 +5500,7 @@
       <c r="H243" s="27"/>
       <c r="I243" s="27"/>
       <c r="J243" s="45"/>
-      <c r="K243" s="54"/>
+      <c r="K243" s="53"/>
     </row>
     <row r="244" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
@@ -5289,7 +5513,7 @@
       <c r="H244" s="27"/>
       <c r="I244" s="27"/>
       <c r="J244" s="45"/>
-      <c r="K244" s="54"/>
+      <c r="K244" s="53"/>
     </row>
     <row r="245" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
@@ -5302,7 +5526,7 @@
       <c r="H245" s="27"/>
       <c r="I245" s="27"/>
       <c r="J245" s="45"/>
-      <c r="K245" s="54"/>
+      <c r="K245" s="53"/>
     </row>
     <row r="246" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
@@ -5315,7 +5539,7 @@
       <c r="H246" s="27"/>
       <c r="I246" s="27"/>
       <c r="J246" s="45"/>
-      <c r="K246" s="54"/>
+      <c r="K246" s="53"/>
     </row>
     <row r="247" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
@@ -5328,7 +5552,7 @@
       <c r="H247" s="27"/>
       <c r="I247" s="27"/>
       <c r="J247" s="45"/>
-      <c r="K247" s="54"/>
+      <c r="K247" s="53"/>
     </row>
     <row r="248" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
@@ -5341,7 +5565,7 @@
       <c r="H248" s="27"/>
       <c r="I248" s="27"/>
       <c r="J248" s="45"/>
-      <c r="K248" s="54"/>
+      <c r="K248" s="53"/>
     </row>
     <row r="249" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
@@ -5354,7 +5578,7 @@
       <c r="H249" s="27"/>
       <c r="I249" s="27"/>
       <c r="J249" s="45"/>
-      <c r="K249" s="54"/>
+      <c r="K249" s="53"/>
     </row>
     <row r="250" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
@@ -5367,7 +5591,7 @@
       <c r="H250" s="27"/>
       <c r="I250" s="27"/>
       <c r="J250" s="45"/>
-      <c r="K250" s="54"/>
+      <c r="K250" s="53"/>
     </row>
     <row r="251" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="17"/>
@@ -5380,7 +5604,7 @@
       <c r="H251" s="27"/>
       <c r="I251" s="27"/>
       <c r="J251" s="45"/>
-      <c r="K251" s="54"/>
+      <c r="K251" s="53"/>
     </row>
     <row r="252" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
@@ -5393,7 +5617,7 @@
       <c r="H252" s="27"/>
       <c r="I252" s="27"/>
       <c r="J252" s="45"/>
-      <c r="K252" s="54"/>
+      <c r="K252" s="53"/>
     </row>
     <row r="253" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
@@ -5406,7 +5630,7 @@
       <c r="H253" s="27"/>
       <c r="I253" s="27"/>
       <c r="J253" s="45"/>
-      <c r="K253" s="54"/>
+      <c r="K253" s="53"/>
     </row>
     <row r="254" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
@@ -5419,7 +5643,7 @@
       <c r="H254" s="27"/>
       <c r="I254" s="27"/>
       <c r="J254" s="45"/>
-      <c r="K254" s="54"/>
+      <c r="K254" s="53"/>
     </row>
     <row r="255" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
@@ -5432,7 +5656,7 @@
       <c r="H255" s="27"/>
       <c r="I255" s="27"/>
       <c r="J255" s="45"/>
-      <c r="K255" s="54"/>
+      <c r="K255" s="53"/>
     </row>
     <row r="256" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
@@ -5445,7 +5669,7 @@
       <c r="H256" s="27"/>
       <c r="I256" s="27"/>
       <c r="J256" s="45"/>
-      <c r="K256" s="54"/>
+      <c r="K256" s="53"/>
     </row>
     <row r="257" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="17"/>
@@ -5458,7 +5682,7 @@
       <c r="H257" s="27"/>
       <c r="I257" s="27"/>
       <c r="J257" s="45"/>
-      <c r="K257" s="54"/>
+      <c r="K257" s="53"/>
     </row>
     <row r="258" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
@@ -5471,7 +5695,7 @@
       <c r="H258" s="27"/>
       <c r="I258" s="27"/>
       <c r="J258" s="45"/>
-      <c r="K258" s="54"/>
+      <c r="K258" s="53"/>
     </row>
     <row r="259" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
@@ -5484,7 +5708,7 @@
       <c r="H259" s="27"/>
       <c r="I259" s="27"/>
       <c r="J259" s="45"/>
-      <c r="K259" s="54"/>
+      <c r="K259" s="53"/>
     </row>
     <row r="260" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="17"/>
@@ -5497,7 +5721,7 @@
       <c r="H260" s="27"/>
       <c r="I260" s="27"/>
       <c r="J260" s="45"/>
-      <c r="K260" s="54"/>
+      <c r="K260" s="53"/>
     </row>
     <row r="261" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="17"/>
@@ -5510,7 +5734,7 @@
       <c r="H261" s="27"/>
       <c r="I261" s="27"/>
       <c r="J261" s="45"/>
-      <c r="K261" s="54"/>
+      <c r="K261" s="53"/>
     </row>
     <row r="262" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="17"/>
@@ -5523,7 +5747,7 @@
       <c r="H262" s="27"/>
       <c r="I262" s="27"/>
       <c r="J262" s="45"/>
-      <c r="K262" s="54"/>
+      <c r="K262" s="53"/>
     </row>
     <row r="263" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
@@ -5536,7 +5760,7 @@
       <c r="H263" s="27"/>
       <c r="I263" s="27"/>
       <c r="J263" s="45"/>
-      <c r="K263" s="54"/>
+      <c r="K263" s="53"/>
     </row>
     <row r="264" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
@@ -5549,7 +5773,7 @@
       <c r="H264" s="27"/>
       <c r="I264" s="27"/>
       <c r="J264" s="45"/>
-      <c r="K264" s="54"/>
+      <c r="K264" s="53"/>
     </row>
     <row r="265" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
@@ -5562,7 +5786,7 @@
       <c r="H265" s="27"/>
       <c r="I265" s="27"/>
       <c r="J265" s="45"/>
-      <c r="K265" s="54"/>
+      <c r="K265" s="53"/>
     </row>
     <row r="266" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
@@ -5575,7 +5799,7 @@
       <c r="H266" s="27"/>
       <c r="I266" s="27"/>
       <c r="J266" s="45"/>
-      <c r="K266" s="54"/>
+      <c r="K266" s="53"/>
     </row>
     <row r="267" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
@@ -5588,7 +5812,7 @@
       <c r="H267" s="27"/>
       <c r="I267" s="27"/>
       <c r="J267" s="45"/>
-      <c r="K267" s="54"/>
+      <c r="K267" s="53"/>
     </row>
     <row r="268" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
@@ -5601,7 +5825,7 @@
       <c r="H268" s="27"/>
       <c r="I268" s="27"/>
       <c r="J268" s="45"/>
-      <c r="K268" s="54"/>
+      <c r="K268" s="53"/>
     </row>
     <row r="269" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
@@ -5614,7 +5838,7 @@
       <c r="H269" s="27"/>
       <c r="I269" s="27"/>
       <c r="J269" s="45"/>
-      <c r="K269" s="54"/>
+      <c r="K269" s="53"/>
     </row>
     <row r="270" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
@@ -5627,7 +5851,7 @@
       <c r="H270" s="27"/>
       <c r="I270" s="27"/>
       <c r="J270" s="45"/>
-      <c r="K270" s="54"/>
+      <c r="K270" s="53"/>
     </row>
     <row r="271" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
@@ -5640,7 +5864,7 @@
       <c r="H271" s="27"/>
       <c r="I271" s="27"/>
       <c r="J271" s="45"/>
-      <c r="K271" s="54"/>
+      <c r="K271" s="53"/>
     </row>
     <row r="272" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
@@ -5653,7 +5877,7 @@
       <c r="H272" s="27"/>
       <c r="I272" s="27"/>
       <c r="J272" s="45"/>
-      <c r="K272" s="54"/>
+      <c r="K272" s="53"/>
     </row>
     <row r="273" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
@@ -5666,7 +5890,7 @@
       <c r="H273" s="27"/>
       <c r="I273" s="27"/>
       <c r="J273" s="45"/>
-      <c r="K273" s="54"/>
+      <c r="K273" s="53"/>
     </row>
     <row r="274" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="17"/>
@@ -5679,7 +5903,7 @@
       <c r="H274" s="27"/>
       <c r="I274" s="27"/>
       <c r="J274" s="45"/>
-      <c r="K274" s="54"/>
+      <c r="K274" s="53"/>
     </row>
     <row r="275" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
@@ -5692,7 +5916,7 @@
       <c r="H275" s="27"/>
       <c r="I275" s="27"/>
       <c r="J275" s="45"/>
-      <c r="K275" s="54"/>
+      <c r="K275" s="53"/>
     </row>
     <row r="276" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="17"/>
@@ -5705,7 +5929,7 @@
       <c r="H276" s="27"/>
       <c r="I276" s="27"/>
       <c r="J276" s="45"/>
-      <c r="K276" s="54"/>
+      <c r="K276" s="53"/>
     </row>
     <row r="277" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
@@ -5718,7 +5942,7 @@
       <c r="H277" s="27"/>
       <c r="I277" s="27"/>
       <c r="J277" s="45"/>
-      <c r="K277" s="54"/>
+      <c r="K277" s="53"/>
     </row>
     <row r="278" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
@@ -5731,7 +5955,7 @@
       <c r="H278" s="27"/>
       <c r="I278" s="27"/>
       <c r="J278" s="45"/>
-      <c r="K278" s="54"/>
+      <c r="K278" s="53"/>
     </row>
     <row r="279" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
@@ -5744,7 +5968,7 @@
       <c r="H279" s="27"/>
       <c r="I279" s="27"/>
       <c r="J279" s="45"/>
-      <c r="K279" s="54"/>
+      <c r="K279" s="53"/>
     </row>
     <row r="280" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
@@ -5757,7 +5981,7 @@
       <c r="H280" s="27"/>
       <c r="I280" s="27"/>
       <c r="J280" s="45"/>
-      <c r="K280" s="54"/>
+      <c r="K280" s="53"/>
     </row>
     <row r="281" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
@@ -5770,7 +5994,7 @@
       <c r="H281" s="27"/>
       <c r="I281" s="27"/>
       <c r="J281" s="45"/>
-      <c r="K281" s="54"/>
+      <c r="K281" s="53"/>
     </row>
     <row r="282" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
@@ -5783,7 +6007,7 @@
       <c r="H282" s="27"/>
       <c r="I282" s="27"/>
       <c r="J282" s="45"/>
-      <c r="K282" s="54"/>
+      <c r="K282" s="53"/>
     </row>
     <row r="283" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
@@ -5796,7 +6020,7 @@
       <c r="H283" s="27"/>
       <c r="I283" s="27"/>
       <c r="J283" s="45"/>
-      <c r="K283" s="54"/>
+      <c r="K283" s="53"/>
     </row>
     <row r="284" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
@@ -5809,7 +6033,7 @@
       <c r="H284" s="27"/>
       <c r="I284" s="27"/>
       <c r="J284" s="45"/>
-      <c r="K284" s="54"/>
+      <c r="K284" s="53"/>
     </row>
     <row r="285" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
@@ -5822,7 +6046,7 @@
       <c r="H285" s="27"/>
       <c r="I285" s="27"/>
       <c r="J285" s="45"/>
-      <c r="K285" s="54"/>
+      <c r="K285" s="53"/>
     </row>
     <row r="286" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
@@ -5835,7 +6059,7 @@
       <c r="H286" s="27"/>
       <c r="I286" s="27"/>
       <c r="J286" s="45"/>
-      <c r="K286" s="54"/>
+      <c r="K286" s="53"/>
     </row>
     <row r="287" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
@@ -5848,7 +6072,7 @@
       <c r="H287" s="27"/>
       <c r="I287" s="27"/>
       <c r="J287" s="45"/>
-      <c r="K287" s="54"/>
+      <c r="K287" s="53"/>
     </row>
     <row r="288" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="17"/>
@@ -5861,7 +6085,7 @@
       <c r="H288" s="27"/>
       <c r="I288" s="27"/>
       <c r="J288" s="45"/>
-      <c r="K288" s="54"/>
+      <c r="K288" s="53"/>
     </row>
     <row r="289" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
@@ -5874,7 +6098,7 @@
       <c r="H289" s="27"/>
       <c r="I289" s="27"/>
       <c r="J289" s="45"/>
-      <c r="K289" s="54"/>
+      <c r="K289" s="53"/>
     </row>
     <row r="290" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="17"/>
@@ -5887,7 +6111,7 @@
       <c r="H290" s="27"/>
       <c r="I290" s="27"/>
       <c r="J290" s="45"/>
-      <c r="K290" s="54"/>
+      <c r="K290" s="53"/>
     </row>
     <row r="291" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
@@ -5900,7 +6124,7 @@
       <c r="H291" s="27"/>
       <c r="I291" s="27"/>
       <c r="J291" s="45"/>
-      <c r="K291" s="54"/>
+      <c r="K291" s="53"/>
     </row>
     <row r="292" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="17"/>
@@ -5913,7 +6137,7 @@
       <c r="H292" s="27"/>
       <c r="I292" s="27"/>
       <c r="J292" s="45"/>
-      <c r="K292" s="54"/>
+      <c r="K292" s="53"/>
     </row>
     <row r="293" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
@@ -5926,7 +6150,7 @@
       <c r="H293" s="27"/>
       <c r="I293" s="27"/>
       <c r="J293" s="45"/>
-      <c r="K293" s="54"/>
+      <c r="K293" s="53"/>
     </row>
     <row r="294" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="17"/>
@@ -5939,7 +6163,7 @@
       <c r="H294" s="27"/>
       <c r="I294" s="27"/>
       <c r="J294" s="45"/>
-      <c r="K294" s="54"/>
+      <c r="K294" s="53"/>
     </row>
     <row r="295" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
@@ -5952,7 +6176,7 @@
       <c r="H295" s="27"/>
       <c r="I295" s="27"/>
       <c r="J295" s="45"/>
-      <c r="K295" s="54"/>
+      <c r="K295" s="53"/>
     </row>
     <row r="296" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="17"/>
@@ -5965,7 +6189,7 @@
       <c r="H296" s="27"/>
       <c r="I296" s="27"/>
       <c r="J296" s="45"/>
-      <c r="K296" s="54"/>
+      <c r="K296" s="53"/>
     </row>
     <row r="297" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
@@ -5978,7 +6202,7 @@
       <c r="H297" s="27"/>
       <c r="I297" s="27"/>
       <c r="J297" s="45"/>
-      <c r="K297" s="54"/>
+      <c r="K297" s="53"/>
     </row>
     <row r="298" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="17"/>
@@ -5991,7 +6215,7 @@
       <c r="H298" s="27"/>
       <c r="I298" s="27"/>
       <c r="J298" s="45"/>
-      <c r="K298" s="54"/>
+      <c r="K298" s="53"/>
     </row>
     <row r="299" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
@@ -6004,7 +6228,7 @@
       <c r="H299" s="27"/>
       <c r="I299" s="27"/>
       <c r="J299" s="45"/>
-      <c r="K299" s="54"/>
+      <c r="K299" s="53"/>
     </row>
     <row r="300" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
@@ -6017,7 +6241,7 @@
       <c r="H300" s="27"/>
       <c r="I300" s="27"/>
       <c r="J300" s="45"/>
-      <c r="K300" s="54"/>
+      <c r="K300" s="53"/>
     </row>
     <row r="301" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
@@ -6030,7 +6254,7 @@
       <c r="H301" s="27"/>
       <c r="I301" s="27"/>
       <c r="J301" s="45"/>
-      <c r="K301" s="54"/>
+      <c r="K301" s="53"/>
     </row>
     <row r="302" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
@@ -6043,7 +6267,7 @@
       <c r="H302" s="27"/>
       <c r="I302" s="27"/>
       <c r="J302" s="45"/>
-      <c r="K302" s="54"/>
+      <c r="K302" s="53"/>
     </row>
     <row r="303" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
@@ -6056,7 +6280,7 @@
       <c r="H303" s="27"/>
       <c r="I303" s="27"/>
       <c r="J303" s="45"/>
-      <c r="K303" s="54"/>
+      <c r="K303" s="53"/>
     </row>
     <row r="304" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
@@ -6069,7 +6293,7 @@
       <c r="H304" s="27"/>
       <c r="I304" s="27"/>
       <c r="J304" s="45"/>
-      <c r="K304" s="54"/>
+      <c r="K304" s="53"/>
     </row>
     <row r="305" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
@@ -6082,7 +6306,7 @@
       <c r="H305" s="27"/>
       <c r="I305" s="27"/>
       <c r="J305" s="45"/>
-      <c r="K305" s="54"/>
+      <c r="K305" s="53"/>
     </row>
     <row r="306" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
@@ -6095,7 +6319,7 @@
       <c r="H306" s="27"/>
       <c r="I306" s="27"/>
       <c r="J306" s="45"/>
-      <c r="K306" s="54"/>
+      <c r="K306" s="53"/>
     </row>
     <row r="307" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
@@ -6108,7 +6332,7 @@
       <c r="H307" s="27"/>
       <c r="I307" s="27"/>
       <c r="J307" s="45"/>
-      <c r="K307" s="54"/>
+      <c r="K307" s="53"/>
     </row>
     <row r="308" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="17"/>
@@ -6121,7 +6345,7 @@
       <c r="H308" s="27"/>
       <c r="I308" s="27"/>
       <c r="J308" s="45"/>
-      <c r="K308" s="54"/>
+      <c r="K308" s="53"/>
     </row>
     <row r="309" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
@@ -6134,7 +6358,7 @@
       <c r="H309" s="27"/>
       <c r="I309" s="27"/>
       <c r="J309" s="45"/>
-      <c r="K309" s="54"/>
+      <c r="K309" s="53"/>
     </row>
     <row r="310" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
@@ -6147,7 +6371,7 @@
       <c r="H310" s="27"/>
       <c r="I310" s="27"/>
       <c r="J310" s="45"/>
-      <c r="K310" s="54"/>
+      <c r="K310" s="53"/>
     </row>
     <row r="311" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
@@ -6160,7 +6384,7 @@
       <c r="H311" s="27"/>
       <c r="I311" s="27"/>
       <c r="J311" s="45"/>
-      <c r="K311" s="54"/>
+      <c r="K311" s="53"/>
     </row>
     <row r="312" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
@@ -6173,7 +6397,7 @@
       <c r="H312" s="27"/>
       <c r="I312" s="27"/>
       <c r="J312" s="45"/>
-      <c r="K312" s="54"/>
+      <c r="K312" s="53"/>
     </row>
     <row r="313" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="17"/>
@@ -6186,7 +6410,7 @@
       <c r="H313" s="27"/>
       <c r="I313" s="27"/>
       <c r="J313" s="45"/>
-      <c r="K313" s="54"/>
+      <c r="K313" s="53"/>
     </row>
     <row r="314" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
@@ -6199,7 +6423,7 @@
       <c r="H314" s="27"/>
       <c r="I314" s="27"/>
       <c r="J314" s="45"/>
-      <c r="K314" s="54"/>
+      <c r="K314" s="53"/>
     </row>
     <row r="315" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
@@ -6212,7 +6436,7 @@
       <c r="H315" s="27"/>
       <c r="I315" s="27"/>
       <c r="J315" s="45"/>
-      <c r="K315" s="54"/>
+      <c r="K315" s="53"/>
     </row>
     <row r="316" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
@@ -6225,7 +6449,7 @@
       <c r="H316" s="27"/>
       <c r="I316" s="27"/>
       <c r="J316" s="45"/>
-      <c r="K316" s="54"/>
+      <c r="K316" s="53"/>
     </row>
     <row r="317" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="17"/>
@@ -6238,7 +6462,7 @@
       <c r="H317" s="27"/>
       <c r="I317" s="27"/>
       <c r="J317" s="45"/>
-      <c r="K317" s="54"/>
+      <c r="K317" s="53"/>
     </row>
     <row r="318" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
@@ -6251,7 +6475,7 @@
       <c r="H318" s="27"/>
       <c r="I318" s="27"/>
       <c r="J318" s="45"/>
-      <c r="K318" s="54"/>
+      <c r="K318" s="53"/>
     </row>
     <row r="319" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
@@ -6264,7 +6488,7 @@
       <c r="H319" s="27"/>
       <c r="I319" s="27"/>
       <c r="J319" s="45"/>
-      <c r="K319" s="54"/>
+      <c r="K319" s="53"/>
     </row>
     <row r="320" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="17"/>
@@ -6277,7 +6501,7 @@
       <c r="H320" s="27"/>
       <c r="I320" s="27"/>
       <c r="J320" s="45"/>
-      <c r="K320" s="54"/>
+      <c r="K320" s="53"/>
     </row>
     <row r="321" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
@@ -6290,7 +6514,7 @@
       <c r="H321" s="27"/>
       <c r="I321" s="27"/>
       <c r="J321" s="45"/>
-      <c r="K321" s="54"/>
+      <c r="K321" s="53"/>
     </row>
     <row r="322" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
@@ -6303,7 +6527,7 @@
       <c r="H322" s="27"/>
       <c r="I322" s="27"/>
       <c r="J322" s="45"/>
-      <c r="K322" s="54"/>
+      <c r="K322" s="53"/>
     </row>
     <row r="323" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
@@ -6316,7 +6540,7 @@
       <c r="H323" s="27"/>
       <c r="I323" s="27"/>
       <c r="J323" s="45"/>
-      <c r="K323" s="54"/>
+      <c r="K323" s="53"/>
     </row>
     <row r="324" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="17"/>
@@ -6329,7 +6553,7 @@
       <c r="H324" s="27"/>
       <c r="I324" s="27"/>
       <c r="J324" s="45"/>
-      <c r="K324" s="54"/>
+      <c r="K324" s="53"/>
     </row>
     <row r="325" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="17"/>
@@ -6342,7 +6566,7 @@
       <c r="H325" s="27"/>
       <c r="I325" s="27"/>
       <c r="J325" s="45"/>
-      <c r="K325" s="54"/>
+      <c r="K325" s="53"/>
     </row>
     <row r="326" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
@@ -6355,7 +6579,7 @@
       <c r="H326" s="27"/>
       <c r="I326" s="27"/>
       <c r="J326" s="45"/>
-      <c r="K326" s="54"/>
+      <c r="K326" s="53"/>
     </row>
     <row r="327" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
@@ -6368,7 +6592,7 @@
       <c r="H327" s="27"/>
       <c r="I327" s="27"/>
       <c r="J327" s="45"/>
-      <c r="K327" s="54"/>
+      <c r="K327" s="53"/>
     </row>
     <row r="328" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="17"/>
@@ -6381,7 +6605,7 @@
       <c r="H328" s="27"/>
       <c r="I328" s="27"/>
       <c r="J328" s="45"/>
-      <c r="K328" s="54"/>
+      <c r="K328" s="53"/>
     </row>
     <row r="329" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="17"/>
@@ -6394,7 +6618,7 @@
       <c r="H329" s="27"/>
       <c r="I329" s="27"/>
       <c r="J329" s="45"/>
-      <c r="K329" s="54"/>
+      <c r="K329" s="53"/>
     </row>
     <row r="330" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="17"/>
@@ -6407,7 +6631,7 @@
       <c r="H330" s="27"/>
       <c r="I330" s="27"/>
       <c r="J330" s="45"/>
-      <c r="K330" s="54"/>
+      <c r="K330" s="53"/>
     </row>
     <row r="331" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="17"/>
@@ -6420,7 +6644,7 @@
       <c r="H331" s="27"/>
       <c r="I331" s="27"/>
       <c r="J331" s="45"/>
-      <c r="K331" s="54"/>
+      <c r="K331" s="53"/>
     </row>
     <row r="332" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="17"/>
@@ -6433,7 +6657,7 @@
       <c r="H332" s="27"/>
       <c r="I332" s="27"/>
       <c r="J332" s="45"/>
-      <c r="K332" s="54"/>
+      <c r="K332" s="53"/>
     </row>
     <row r="333" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="17"/>
@@ -6446,7 +6670,7 @@
       <c r="H333" s="27"/>
       <c r="I333" s="27"/>
       <c r="J333" s="45"/>
-      <c r="K333" s="54"/>
+      <c r="K333" s="53"/>
     </row>
     <row r="334" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="17"/>
@@ -6459,7 +6683,7 @@
       <c r="H334" s="27"/>
       <c r="I334" s="27"/>
       <c r="J334" s="45"/>
-      <c r="K334" s="54"/>
+      <c r="K334" s="53"/>
     </row>
     <row r="335" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
@@ -6472,7 +6696,7 @@
       <c r="H335" s="27"/>
       <c r="I335" s="27"/>
       <c r="J335" s="45"/>
-      <c r="K335" s="54"/>
+      <c r="K335" s="53"/>
     </row>
     <row r="336" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="17"/>
@@ -6485,7 +6709,7 @@
       <c r="H336" s="27"/>
       <c r="I336" s="27"/>
       <c r="J336" s="45"/>
-      <c r="K336" s="54"/>
+      <c r="K336" s="53"/>
     </row>
     <row r="337" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="17"/>
@@ -6498,7 +6722,7 @@
       <c r="H337" s="27"/>
       <c r="I337" s="27"/>
       <c r="J337" s="45"/>
-      <c r="K337" s="54"/>
+      <c r="K337" s="53"/>
     </row>
     <row r="338" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="17"/>
@@ -6511,7 +6735,7 @@
       <c r="H338" s="27"/>
       <c r="I338" s="27"/>
       <c r="J338" s="45"/>
-      <c r="K338" s="54"/>
+      <c r="K338" s="53"/>
     </row>
     <row r="339" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="17"/>
@@ -6524,7 +6748,7 @@
       <c r="H339" s="27"/>
       <c r="I339" s="27"/>
       <c r="J339" s="45"/>
-      <c r="K339" s="54"/>
+      <c r="K339" s="53"/>
     </row>
     <row r="340" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="17"/>
@@ -6537,7 +6761,7 @@
       <c r="H340" s="27"/>
       <c r="I340" s="27"/>
       <c r="J340" s="45"/>
-      <c r="K340" s="54"/>
+      <c r="K340" s="53"/>
     </row>
     <row r="341" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="17"/>
@@ -6550,7 +6774,7 @@
       <c r="H341" s="27"/>
       <c r="I341" s="27"/>
       <c r="J341" s="45"/>
-      <c r="K341" s="54"/>
+      <c r="K341" s="53"/>
     </row>
     <row r="342" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="17"/>
@@ -6563,7 +6787,7 @@
       <c r="H342" s="27"/>
       <c r="I342" s="27"/>
       <c r="J342" s="45"/>
-      <c r="K342" s="54"/>
+      <c r="K342" s="53"/>
     </row>
     <row r="343" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="17"/>
@@ -6576,7 +6800,7 @@
       <c r="H343" s="27"/>
       <c r="I343" s="27"/>
       <c r="J343" s="45"/>
-      <c r="K343" s="54"/>
+      <c r="K343" s="53"/>
     </row>
     <row r="344" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
@@ -6589,7 +6813,7 @@
       <c r="H344" s="27"/>
       <c r="I344" s="27"/>
       <c r="J344" s="45"/>
-      <c r="K344" s="54"/>
+      <c r="K344" s="53"/>
     </row>
     <row r="345" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="17"/>
@@ -6602,7 +6826,7 @@
       <c r="H345" s="27"/>
       <c r="I345" s="27"/>
       <c r="J345" s="45"/>
-      <c r="K345" s="54"/>
+      <c r="K345" s="53"/>
     </row>
     <row r="346" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="17"/>
@@ -6615,7 +6839,7 @@
       <c r="H346" s="27"/>
       <c r="I346" s="27"/>
       <c r="J346" s="45"/>
-      <c r="K346" s="54"/>
+      <c r="K346" s="53"/>
     </row>
     <row r="347" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="17"/>
@@ -6628,7 +6852,7 @@
       <c r="H347" s="27"/>
       <c r="I347" s="27"/>
       <c r="J347" s="45"/>
-      <c r="K347" s="54"/>
+      <c r="K347" s="53"/>
     </row>
     <row r="348" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="17"/>
@@ -6641,7 +6865,7 @@
       <c r="H348" s="27"/>
       <c r="I348" s="27"/>
       <c r="J348" s="45"/>
-      <c r="K348" s="54"/>
+      <c r="K348" s="53"/>
     </row>
     <row r="349" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="17"/>
@@ -6654,7 +6878,7 @@
       <c r="H349" s="27"/>
       <c r="I349" s="27"/>
       <c r="J349" s="45"/>
-      <c r="K349" s="54"/>
+      <c r="K349" s="53"/>
     </row>
     <row r="350" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="17"/>
@@ -6667,7 +6891,7 @@
       <c r="H350" s="27"/>
       <c r="I350" s="27"/>
       <c r="J350" s="45"/>
-      <c r="K350" s="54"/>
+      <c r="K350" s="53"/>
     </row>
     <row r="351" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="17"/>
@@ -6680,7 +6904,7 @@
       <c r="H351" s="27"/>
       <c r="I351" s="27"/>
       <c r="J351" s="45"/>
-      <c r="K351" s="54"/>
+      <c r="K351" s="53"/>
     </row>
     <row r="352" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="17"/>
@@ -6693,7 +6917,7 @@
       <c r="H352" s="27"/>
       <c r="I352" s="27"/>
       <c r="J352" s="45"/>
-      <c r="K352" s="54"/>
+      <c r="K352" s="53"/>
     </row>
     <row r="353" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="17"/>
@@ -6706,7 +6930,7 @@
       <c r="H353" s="27"/>
       <c r="I353" s="27"/>
       <c r="J353" s="45"/>
-      <c r="K353" s="54"/>
+      <c r="K353" s="53"/>
     </row>
     <row r="354" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="17"/>
@@ -6719,7 +6943,7 @@
       <c r="H354" s="27"/>
       <c r="I354" s="27"/>
       <c r="J354" s="45"/>
-      <c r="K354" s="54"/>
+      <c r="K354" s="53"/>
     </row>
     <row r="355" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="17"/>
@@ -6732,7 +6956,7 @@
       <c r="H355" s="27"/>
       <c r="I355" s="27"/>
       <c r="J355" s="45"/>
-      <c r="K355" s="54"/>
+      <c r="K355" s="53"/>
     </row>
     <row r="356" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="17"/>
@@ -6745,7 +6969,7 @@
       <c r="H356" s="27"/>
       <c r="I356" s="27"/>
       <c r="J356" s="45"/>
-      <c r="K356" s="54"/>
+      <c r="K356" s="53"/>
     </row>
     <row r="357" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="17"/>
@@ -6758,7 +6982,7 @@
       <c r="H357" s="27"/>
       <c r="I357" s="27"/>
       <c r="J357" s="45"/>
-      <c r="K357" s="54"/>
+      <c r="K357" s="53"/>
     </row>
     <row r="358" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="17"/>
@@ -6771,7 +6995,7 @@
       <c r="H358" s="27"/>
       <c r="I358" s="27"/>
       <c r="J358" s="45"/>
-      <c r="K358" s="54"/>
+      <c r="K358" s="53"/>
     </row>
     <row r="359" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="17"/>
@@ -6784,7 +7008,7 @@
       <c r="H359" s="27"/>
       <c r="I359" s="27"/>
       <c r="J359" s="45"/>
-      <c r="K359" s="54"/>
+      <c r="K359" s="53"/>
     </row>
     <row r="360" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="17"/>
@@ -6797,7 +7021,7 @@
       <c r="H360" s="27"/>
       <c r="I360" s="27"/>
       <c r="J360" s="45"/>
-      <c r="K360" s="54"/>
+      <c r="K360" s="53"/>
     </row>
     <row r="361" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="17"/>
@@ -6810,7 +7034,7 @@
       <c r="H361" s="27"/>
       <c r="I361" s="27"/>
       <c r="J361" s="45"/>
-      <c r="K361" s="54"/>
+      <c r="K361" s="53"/>
     </row>
     <row r="362" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
@@ -6823,7 +7047,7 @@
       <c r="H362" s="27"/>
       <c r="I362" s="27"/>
       <c r="J362" s="45"/>
-      <c r="K362" s="54"/>
+      <c r="K362" s="53"/>
     </row>
     <row r="363" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="17"/>
@@ -6836,7 +7060,7 @@
       <c r="H363" s="27"/>
       <c r="I363" s="27"/>
       <c r="J363" s="45"/>
-      <c r="K363" s="54"/>
+      <c r="K363" s="53"/>
     </row>
     <row r="364" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="17"/>
@@ -6849,7 +7073,7 @@
       <c r="H364" s="27"/>
       <c r="I364" s="27"/>
       <c r="J364" s="45"/>
-      <c r="K364" s="54"/>
+      <c r="K364" s="53"/>
     </row>
     <row r="365" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="17"/>
@@ -6862,7 +7086,7 @@
       <c r="H365" s="27"/>
       <c r="I365" s="27"/>
       <c r="J365" s="45"/>
-      <c r="K365" s="54"/>
+      <c r="K365" s="53"/>
     </row>
     <row r="366" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="17"/>
@@ -6875,7 +7099,7 @@
       <c r="H366" s="27"/>
       <c r="I366" s="27"/>
       <c r="J366" s="45"/>
-      <c r="K366" s="54"/>
+      <c r="K366" s="53"/>
     </row>
     <row r="367" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="17"/>
@@ -6888,7 +7112,7 @@
       <c r="H367" s="27"/>
       <c r="I367" s="27"/>
       <c r="J367" s="45"/>
-      <c r="K367" s="54"/>
+      <c r="K367" s="53"/>
     </row>
     <row r="368" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="17"/>
@@ -6901,7 +7125,7 @@
       <c r="H368" s="27"/>
       <c r="I368" s="27"/>
       <c r="J368" s="45"/>
-      <c r="K368" s="54"/>
+      <c r="K368" s="53"/>
     </row>
     <row r="369" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="17"/>
@@ -6914,7 +7138,7 @@
       <c r="H369" s="27"/>
       <c r="I369" s="27"/>
       <c r="J369" s="45"/>
-      <c r="K369" s="54"/>
+      <c r="K369" s="53"/>
     </row>
     <row r="370" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="17"/>
@@ -6927,7 +7151,7 @@
       <c r="H370" s="27"/>
       <c r="I370" s="27"/>
       <c r="J370" s="45"/>
-      <c r="K370" s="54"/>
+      <c r="K370" s="53"/>
     </row>
     <row r="371" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="17"/>
@@ -6940,7 +7164,7 @@
       <c r="H371" s="27"/>
       <c r="I371" s="27"/>
       <c r="J371" s="45"/>
-      <c r="K371" s="54"/>
+      <c r="K371" s="53"/>
     </row>
     <row r="372" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="17"/>
@@ -6953,7 +7177,7 @@
       <c r="H372" s="27"/>
       <c r="I372" s="27"/>
       <c r="J372" s="45"/>
-      <c r="K372" s="54"/>
+      <c r="K372" s="53"/>
     </row>
     <row r="373" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="17"/>
@@ -6966,7 +7190,7 @@
       <c r="H373" s="27"/>
       <c r="I373" s="27"/>
       <c r="J373" s="45"/>
-      <c r="K373" s="54"/>
+      <c r="K373" s="53"/>
     </row>
     <row r="374" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="17"/>
@@ -6979,7 +7203,7 @@
       <c r="H374" s="27"/>
       <c r="I374" s="27"/>
       <c r="J374" s="45"/>
-      <c r="K374" s="54"/>
+      <c r="K374" s="53"/>
     </row>
     <row r="375" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="17"/>
@@ -6992,7 +7216,7 @@
       <c r="H375" s="27"/>
       <c r="I375" s="27"/>
       <c r="J375" s="45"/>
-      <c r="K375" s="54"/>
+      <c r="K375" s="53"/>
     </row>
     <row r="376" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="17"/>
@@ -7005,7 +7229,7 @@
       <c r="H376" s="27"/>
       <c r="I376" s="27"/>
       <c r="J376" s="45"/>
-      <c r="K376" s="54"/>
+      <c r="K376" s="53"/>
     </row>
     <row r="377" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="17"/>
@@ -7018,7 +7242,7 @@
       <c r="H377" s="27"/>
       <c r="I377" s="27"/>
       <c r="J377" s="45"/>
-      <c r="K377" s="54"/>
+      <c r="K377" s="53"/>
     </row>
     <row r="378" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="17"/>
@@ -7031,7 +7255,7 @@
       <c r="H378" s="27"/>
       <c r="I378" s="27"/>
       <c r="J378" s="45"/>
-      <c r="K378" s="54"/>
+      <c r="K378" s="53"/>
     </row>
     <row r="379" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="17"/>
@@ -7044,7 +7268,7 @@
       <c r="H379" s="27"/>
       <c r="I379" s="27"/>
       <c r="J379" s="45"/>
-      <c r="K379" s="54"/>
+      <c r="K379" s="53"/>
     </row>
     <row r="380" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="17"/>
@@ -7057,7 +7281,7 @@
       <c r="H380" s="27"/>
       <c r="I380" s="27"/>
       <c r="J380" s="45"/>
-      <c r="K380" s="54"/>
+      <c r="K380" s="53"/>
     </row>
     <row r="381" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="17"/>
@@ -7070,7 +7294,7 @@
       <c r="H381" s="27"/>
       <c r="I381" s="27"/>
       <c r="J381" s="45"/>
-      <c r="K381" s="54"/>
+      <c r="K381" s="53"/>
     </row>
     <row r="382" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="17"/>
@@ -7083,7 +7307,7 @@
       <c r="H382" s="27"/>
       <c r="I382" s="27"/>
       <c r="J382" s="45"/>
-      <c r="K382" s="54"/>
+      <c r="K382" s="53"/>
     </row>
     <row r="383" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="17"/>
@@ -7096,7 +7320,7 @@
       <c r="H383" s="27"/>
       <c r="I383" s="27"/>
       <c r="J383" s="45"/>
-      <c r="K383" s="54"/>
+      <c r="K383" s="53"/>
     </row>
     <row r="384" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="17"/>
@@ -7109,7 +7333,7 @@
       <c r="H384" s="27"/>
       <c r="I384" s="27"/>
       <c r="J384" s="45"/>
-      <c r="K384" s="54"/>
+      <c r="K384" s="53"/>
     </row>
     <row r="385" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="17"/>
@@ -7122,7 +7346,7 @@
       <c r="H385" s="27"/>
       <c r="I385" s="27"/>
       <c r="J385" s="45"/>
-      <c r="K385" s="54"/>
+      <c r="K385" s="53"/>
     </row>
     <row r="386" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="17"/>
@@ -7135,7 +7359,7 @@
       <c r="H386" s="27"/>
       <c r="I386" s="27"/>
       <c r="J386" s="45"/>
-      <c r="K386" s="54"/>
+      <c r="K386" s="53"/>
     </row>
     <row r="387" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="17"/>
@@ -7148,7 +7372,7 @@
       <c r="H387" s="27"/>
       <c r="I387" s="27"/>
       <c r="J387" s="45"/>
-      <c r="K387" s="54"/>
+      <c r="K387" s="53"/>
     </row>
     <row r="388" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="17"/>
@@ -7161,7 +7385,7 @@
       <c r="H388" s="27"/>
       <c r="I388" s="27"/>
       <c r="J388" s="45"/>
-      <c r="K388" s="54"/>
+      <c r="K388" s="53"/>
     </row>
     <row r="389" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="17"/>
@@ -7174,7 +7398,7 @@
       <c r="H389" s="27"/>
       <c r="I389" s="27"/>
       <c r="J389" s="45"/>
-      <c r="K389" s="54"/>
+      <c r="K389" s="53"/>
     </row>
     <row r="390" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="17"/>
@@ -7187,7 +7411,7 @@
       <c r="H390" s="27"/>
       <c r="I390" s="27"/>
       <c r="J390" s="45"/>
-      <c r="K390" s="54"/>
+      <c r="K390" s="53"/>
     </row>
     <row r="391" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="17"/>
@@ -7200,7 +7424,7 @@
       <c r="H391" s="27"/>
       <c r="I391" s="27"/>
       <c r="J391" s="45"/>
-      <c r="K391" s="54"/>
+      <c r="K391" s="53"/>
     </row>
     <row r="392" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="17"/>
@@ -7213,7 +7437,7 @@
       <c r="H392" s="27"/>
       <c r="I392" s="27"/>
       <c r="J392" s="45"/>
-      <c r="K392" s="54"/>
+      <c r="K392" s="53"/>
     </row>
     <row r="393" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="17"/>
@@ -7226,7 +7450,7 @@
       <c r="H393" s="27"/>
       <c r="I393" s="27"/>
       <c r="J393" s="45"/>
-      <c r="K393" s="54"/>
+      <c r="K393" s="53"/>
     </row>
     <row r="394" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="17"/>
@@ -7239,7 +7463,7 @@
       <c r="H394" s="27"/>
       <c r="I394" s="27"/>
       <c r="J394" s="45"/>
-      <c r="K394" s="54"/>
+      <c r="K394" s="53"/>
     </row>
     <row r="395" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="17"/>
@@ -7252,7 +7476,7 @@
       <c r="H395" s="27"/>
       <c r="I395" s="27"/>
       <c r="J395" s="45"/>
-      <c r="K395" s="54"/>
+      <c r="K395" s="53"/>
     </row>
     <row r="396" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="17"/>
@@ -7265,7 +7489,7 @@
       <c r="H396" s="27"/>
       <c r="I396" s="27"/>
       <c r="J396" s="45"/>
-      <c r="K396" s="54"/>
+      <c r="K396" s="53"/>
     </row>
     <row r="397" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="17"/>
@@ -7278,7 +7502,7 @@
       <c r="H397" s="27"/>
       <c r="I397" s="27"/>
       <c r="J397" s="45"/>
-      <c r="K397" s="54"/>
+      <c r="K397" s="53"/>
     </row>
     <row r="398" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="17"/>
@@ -7291,7 +7515,7 @@
       <c r="H398" s="27"/>
       <c r="I398" s="27"/>
       <c r="J398" s="45"/>
-      <c r="K398" s="54"/>
+      <c r="K398" s="53"/>
     </row>
     <row r="399" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="17"/>
@@ -7304,7 +7528,7 @@
       <c r="H399" s="27"/>
       <c r="I399" s="27"/>
       <c r="J399" s="45"/>
-      <c r="K399" s="54"/>
+      <c r="K399" s="53"/>
     </row>
     <row r="400" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="17"/>
@@ -7317,7 +7541,7 @@
       <c r="H400" s="27"/>
       <c r="I400" s="27"/>
       <c r="J400" s="45"/>
-      <c r="K400" s="54"/>
+      <c r="K400" s="53"/>
     </row>
     <row r="401" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="17"/>
@@ -7330,7 +7554,7 @@
       <c r="H401" s="27"/>
       <c r="I401" s="27"/>
       <c r="J401" s="45"/>
-      <c r="K401" s="54"/>
+      <c r="K401" s="53"/>
     </row>
     <row r="402" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="17"/>
@@ -7343,7 +7567,7 @@
       <c r="H402" s="27"/>
       <c r="I402" s="27"/>
       <c r="J402" s="45"/>
-      <c r="K402" s="54"/>
+      <c r="K402" s="53"/>
     </row>
     <row r="403" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="17"/>
@@ -7356,7 +7580,7 @@
       <c r="H403" s="27"/>
       <c r="I403" s="27"/>
       <c r="J403" s="45"/>
-      <c r="K403" s="54"/>
+      <c r="K403" s="53"/>
     </row>
     <row r="404" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="17"/>
@@ -7369,7 +7593,7 @@
       <c r="H404" s="27"/>
       <c r="I404" s="27"/>
       <c r="J404" s="45"/>
-      <c r="K404" s="54"/>
+      <c r="K404" s="53"/>
     </row>
     <row r="405" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="17"/>
@@ -7382,7 +7606,7 @@
       <c r="H405" s="27"/>
       <c r="I405" s="27"/>
       <c r="J405" s="45"/>
-      <c r="K405" s="54"/>
+      <c r="K405" s="53"/>
     </row>
     <row r="406" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="17"/>
@@ -7395,7 +7619,7 @@
       <c r="H406" s="27"/>
       <c r="I406" s="27"/>
       <c r="J406" s="45"/>
-      <c r="K406" s="54"/>
+      <c r="K406" s="53"/>
     </row>
     <row r="407" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="17"/>
@@ -7408,7 +7632,7 @@
       <c r="H407" s="27"/>
       <c r="I407" s="27"/>
       <c r="J407" s="45"/>
-      <c r="K407" s="54"/>
+      <c r="K407" s="53"/>
     </row>
     <row r="408" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="17"/>
@@ -7421,7 +7645,7 @@
       <c r="H408" s="27"/>
       <c r="I408" s="27"/>
       <c r="J408" s="45"/>
-      <c r="K408" s="54"/>
+      <c r="K408" s="53"/>
     </row>
     <row r="409" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="17"/>
@@ -7434,7 +7658,7 @@
       <c r="H409" s="27"/>
       <c r="I409" s="27"/>
       <c r="J409" s="45"/>
-      <c r="K409" s="54"/>
+      <c r="K409" s="53"/>
     </row>
     <row r="410" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="17"/>
@@ -7447,7 +7671,7 @@
       <c r="H410" s="27"/>
       <c r="I410" s="27"/>
       <c r="J410" s="45"/>
-      <c r="K410" s="54"/>
+      <c r="K410" s="53"/>
     </row>
     <row r="411" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="17"/>
@@ -7460,7 +7684,7 @@
       <c r="H411" s="27"/>
       <c r="I411" s="27"/>
       <c r="J411" s="45"/>
-      <c r="K411" s="54"/>
+      <c r="K411" s="53"/>
     </row>
     <row r="412" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="17"/>
@@ -7473,7 +7697,7 @@
       <c r="H412" s="27"/>
       <c r="I412" s="27"/>
       <c r="J412" s="45"/>
-      <c r="K412" s="54"/>
+      <c r="K412" s="53"/>
     </row>
     <row r="413" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="17"/>
@@ -7486,7 +7710,7 @@
       <c r="H413" s="27"/>
       <c r="I413" s="27"/>
       <c r="J413" s="45"/>
-      <c r="K413" s="54"/>
+      <c r="K413" s="53"/>
     </row>
     <row r="414" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="17"/>
@@ -7499,7 +7723,7 @@
       <c r="H414" s="27"/>
       <c r="I414" s="27"/>
       <c r="J414" s="45"/>
-      <c r="K414" s="54"/>
+      <c r="K414" s="53"/>
     </row>
     <row r="415" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="17"/>
@@ -7512,7 +7736,7 @@
       <c r="H415" s="27"/>
       <c r="I415" s="27"/>
       <c r="J415" s="45"/>
-      <c r="K415" s="54"/>
+      <c r="K415" s="53"/>
     </row>
     <row r="416" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="17"/>
@@ -7525,7 +7749,7 @@
       <c r="H416" s="27"/>
       <c r="I416" s="27"/>
       <c r="J416" s="45"/>
-      <c r="K416" s="54"/>
+      <c r="K416" s="53"/>
     </row>
     <row r="417" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="17"/>
@@ -7538,7 +7762,7 @@
       <c r="H417" s="27"/>
       <c r="I417" s="27"/>
       <c r="J417" s="45"/>
-      <c r="K417" s="54"/>
+      <c r="K417" s="53"/>
     </row>
     <row r="418" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="17"/>
@@ -7551,7 +7775,7 @@
       <c r="H418" s="27"/>
       <c r="I418" s="27"/>
       <c r="J418" s="45"/>
-      <c r="K418" s="54"/>
+      <c r="K418" s="53"/>
     </row>
     <row r="419" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="17"/>
@@ -7564,7 +7788,7 @@
       <c r="H419" s="27"/>
       <c r="I419" s="27"/>
       <c r="J419" s="45"/>
-      <c r="K419" s="54"/>
+      <c r="K419" s="53"/>
     </row>
     <row r="420" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="17"/>
@@ -7577,7 +7801,7 @@
       <c r="H420" s="27"/>
       <c r="I420" s="27"/>
       <c r="J420" s="45"/>
-      <c r="K420" s="54"/>
+      <c r="K420" s="53"/>
     </row>
     <row r="421" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="17"/>
@@ -7590,7 +7814,7 @@
       <c r="H421" s="27"/>
       <c r="I421" s="27"/>
       <c r="J421" s="45"/>
-      <c r="K421" s="54"/>
+      <c r="K421" s="53"/>
     </row>
     <row r="422" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="17"/>
@@ -7603,7 +7827,7 @@
       <c r="H422" s="27"/>
       <c r="I422" s="27"/>
       <c r="J422" s="45"/>
-      <c r="K422" s="54"/>
+      <c r="K422" s="53"/>
     </row>
     <row r="423" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="17"/>
@@ -7616,7 +7840,7 @@
       <c r="H423" s="27"/>
       <c r="I423" s="27"/>
       <c r="J423" s="45"/>
-      <c r="K423" s="54"/>
+      <c r="K423" s="53"/>
     </row>
     <row r="424" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="17"/>
@@ -7629,7 +7853,7 @@
       <c r="H424" s="27"/>
       <c r="I424" s="27"/>
       <c r="J424" s="45"/>
-      <c r="K424" s="54"/>
+      <c r="K424" s="53"/>
     </row>
     <row r="425" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="17"/>
@@ -7642,7 +7866,7 @@
       <c r="H425" s="27"/>
       <c r="I425" s="27"/>
       <c r="J425" s="45"/>
-      <c r="K425" s="54"/>
+      <c r="K425" s="53"/>
     </row>
     <row r="426" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="17"/>
@@ -7655,7 +7879,7 @@
       <c r="H426" s="27"/>
       <c r="I426" s="27"/>
       <c r="J426" s="45"/>
-      <c r="K426" s="54"/>
+      <c r="K426" s="53"/>
     </row>
     <row r="427" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="17"/>
@@ -7668,7 +7892,7 @@
       <c r="H427" s="27"/>
       <c r="I427" s="27"/>
       <c r="J427" s="45"/>
-      <c r="K427" s="54"/>
+      <c r="K427" s="53"/>
     </row>
     <row r="428" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="17"/>
@@ -7681,7 +7905,7 @@
       <c r="H428" s="27"/>
       <c r="I428" s="27"/>
       <c r="J428" s="45"/>
-      <c r="K428" s="54"/>
+      <c r="K428" s="53"/>
     </row>
     <row r="429" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="17"/>
@@ -7694,7 +7918,7 @@
       <c r="H429" s="27"/>
       <c r="I429" s="27"/>
       <c r="J429" s="45"/>
-      <c r="K429" s="54"/>
+      <c r="K429" s="53"/>
     </row>
     <row r="430" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="17"/>
@@ -7707,7 +7931,7 @@
       <c r="H430" s="27"/>
       <c r="I430" s="27"/>
       <c r="J430" s="45"/>
-      <c r="K430" s="54"/>
+      <c r="K430" s="53"/>
     </row>
     <row r="431" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="17"/>
@@ -7720,7 +7944,7 @@
       <c r="H431" s="27"/>
       <c r="I431" s="27"/>
       <c r="J431" s="45"/>
-      <c r="K431" s="54"/>
+      <c r="K431" s="53"/>
     </row>
     <row r="432" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="17"/>
@@ -7733,7 +7957,7 @@
       <c r="H432" s="27"/>
       <c r="I432" s="27"/>
       <c r="J432" s="45"/>
-      <c r="K432" s="54"/>
+      <c r="K432" s="53"/>
     </row>
     <row r="433" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="17"/>
@@ -7746,7 +7970,7 @@
       <c r="H433" s="27"/>
       <c r="I433" s="27"/>
       <c r="J433" s="45"/>
-      <c r="K433" s="54"/>
+      <c r="K433" s="53"/>
     </row>
     <row r="434" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="17"/>
@@ -7759,7 +7983,7 @@
       <c r="H434" s="27"/>
       <c r="I434" s="27"/>
       <c r="J434" s="45"/>
-      <c r="K434" s="54"/>
+      <c r="K434" s="53"/>
     </row>
     <row r="435" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="17"/>
@@ -7772,7 +7996,7 @@
       <c r="H435" s="27"/>
       <c r="I435" s="27"/>
       <c r="J435" s="45"/>
-      <c r="K435" s="54"/>
+      <c r="K435" s="53"/>
     </row>
     <row r="436" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="17"/>
@@ -7785,7 +8009,7 @@
       <c r="H436" s="27"/>
       <c r="I436" s="27"/>
       <c r="J436" s="45"/>
-      <c r="K436" s="54"/>
+      <c r="K436" s="53"/>
     </row>
     <row r="437" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="17"/>
@@ -7798,7 +8022,7 @@
       <c r="H437" s="27"/>
       <c r="I437" s="27"/>
       <c r="J437" s="45"/>
-      <c r="K437" s="54"/>
+      <c r="K437" s="53"/>
     </row>
     <row r="438" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="17"/>
@@ -7811,7 +8035,7 @@
       <c r="H438" s="27"/>
       <c r="I438" s="27"/>
       <c r="J438" s="45"/>
-      <c r="K438" s="54"/>
+      <c r="K438" s="53"/>
     </row>
     <row r="439" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="17"/>
@@ -7824,7 +8048,7 @@
       <c r="H439" s="27"/>
       <c r="I439" s="27"/>
       <c r="J439" s="45"/>
-      <c r="K439" s="54"/>
+      <c r="K439" s="53"/>
     </row>
     <row r="440" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="17"/>
@@ -7837,7 +8061,7 @@
       <c r="H440" s="27"/>
       <c r="I440" s="27"/>
       <c r="J440" s="45"/>
-      <c r="K440" s="54"/>
+      <c r="K440" s="53"/>
     </row>
     <row r="441" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="17"/>
@@ -7850,7 +8074,7 @@
       <c r="H441" s="27"/>
       <c r="I441" s="27"/>
       <c r="J441" s="45"/>
-      <c r="K441" s="54"/>
+      <c r="K441" s="53"/>
     </row>
     <row r="442" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="17"/>
@@ -7863,7 +8087,7 @@
       <c r="H442" s="27"/>
       <c r="I442" s="27"/>
       <c r="J442" s="45"/>
-      <c r="K442" s="54"/>
+      <c r="K442" s="53"/>
     </row>
     <row r="443" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="17"/>
@@ -7876,7 +8100,7 @@
       <c r="H443" s="27"/>
       <c r="I443" s="27"/>
       <c r="J443" s="45"/>
-      <c r="K443" s="54"/>
+      <c r="K443" s="53"/>
     </row>
     <row r="444" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="17"/>
@@ -7889,7 +8113,7 @@
       <c r="H444" s="27"/>
       <c r="I444" s="27"/>
       <c r="J444" s="45"/>
-      <c r="K444" s="54"/>
+      <c r="K444" s="53"/>
     </row>
     <row r="445" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="17"/>
@@ -7902,7 +8126,7 @@
       <c r="H445" s="27"/>
       <c r="I445" s="27"/>
       <c r="J445" s="45"/>
-      <c r="K445" s="54"/>
+      <c r="K445" s="53"/>
     </row>
     <row r="446" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="17"/>
@@ -7915,7 +8139,7 @@
       <c r="H446" s="27"/>
       <c r="I446" s="27"/>
       <c r="J446" s="45"/>
-      <c r="K446" s="54"/>
+      <c r="K446" s="53"/>
     </row>
     <row r="447" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="17"/>
@@ -7928,7 +8152,7 @@
       <c r="H447" s="27"/>
       <c r="I447" s="27"/>
       <c r="J447" s="45"/>
-      <c r="K447" s="54"/>
+      <c r="K447" s="53"/>
     </row>
     <row r="448" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="17"/>
@@ -7941,7 +8165,7 @@
       <c r="H448" s="27"/>
       <c r="I448" s="27"/>
       <c r="J448" s="45"/>
-      <c r="K448" s="54"/>
+      <c r="K448" s="53"/>
     </row>
     <row r="449" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="17"/>
@@ -7954,7 +8178,7 @@
       <c r="H449" s="27"/>
       <c r="I449" s="27"/>
       <c r="J449" s="45"/>
-      <c r="K449" s="54"/>
+      <c r="K449" s="53"/>
     </row>
     <row r="450" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="17"/>
@@ -7967,7 +8191,7 @@
       <c r="H450" s="27"/>
       <c r="I450" s="27"/>
       <c r="J450" s="45"/>
-      <c r="K450" s="54"/>
+      <c r="K450" s="53"/>
     </row>
     <row r="451" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="17"/>
@@ -7980,7 +8204,7 @@
       <c r="H451" s="27"/>
       <c r="I451" s="27"/>
       <c r="J451" s="45"/>
-      <c r="K451" s="54"/>
+      <c r="K451" s="53"/>
     </row>
     <row r="452" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="17"/>
@@ -7993,7 +8217,7 @@
       <c r="H452" s="27"/>
       <c r="I452" s="27"/>
       <c r="J452" s="45"/>
-      <c r="K452" s="54"/>
+      <c r="K452" s="53"/>
     </row>
     <row r="453" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="17"/>
@@ -8006,7 +8230,7 @@
       <c r="H453" s="27"/>
       <c r="I453" s="27"/>
       <c r="J453" s="45"/>
-      <c r="K453" s="54"/>
+      <c r="K453" s="53"/>
     </row>
     <row r="454" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="17"/>
@@ -8019,7 +8243,7 @@
       <c r="H454" s="27"/>
       <c r="I454" s="27"/>
       <c r="J454" s="45"/>
-      <c r="K454" s="54"/>
+      <c r="K454" s="53"/>
     </row>
     <row r="455" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="17"/>
@@ -8032,7 +8256,7 @@
       <c r="H455" s="27"/>
       <c r="I455" s="27"/>
       <c r="J455" s="45"/>
-      <c r="K455" s="54"/>
+      <c r="K455" s="53"/>
     </row>
     <row r="456" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="17"/>
@@ -8045,7 +8269,7 @@
       <c r="H456" s="27"/>
       <c r="I456" s="27"/>
       <c r="J456" s="45"/>
-      <c r="K456" s="54"/>
+      <c r="K456" s="53"/>
     </row>
     <row r="457" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="17"/>
@@ -8058,7 +8282,7 @@
       <c r="H457" s="27"/>
       <c r="I457" s="27"/>
       <c r="J457" s="45"/>
-      <c r="K457" s="54"/>
+      <c r="K457" s="53"/>
     </row>
     <row r="458" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="17"/>
@@ -8071,7 +8295,7 @@
       <c r="H458" s="27"/>
       <c r="I458" s="27"/>
       <c r="J458" s="45"/>
-      <c r="K458" s="54"/>
+      <c r="K458" s="53"/>
     </row>
     <row r="459" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="17"/>
@@ -8084,7 +8308,7 @@
       <c r="H459" s="27"/>
       <c r="I459" s="27"/>
       <c r="J459" s="45"/>
-      <c r="K459" s="54"/>
+      <c r="K459" s="53"/>
     </row>
     <row r="460" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="17"/>
@@ -8097,7 +8321,7 @@
       <c r="H460" s="27"/>
       <c r="I460" s="27"/>
       <c r="J460" s="45"/>
-      <c r="K460" s="54"/>
+      <c r="K460" s="53"/>
     </row>
     <row r="461" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="17"/>
@@ -8110,7 +8334,7 @@
       <c r="H461" s="27"/>
       <c r="I461" s="27"/>
       <c r="J461" s="45"/>
-      <c r="K461" s="54"/>
+      <c r="K461" s="53"/>
     </row>
     <row r="462" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A462" s="17"/>
@@ -8123,7 +8347,7 @@
       <c r="H462" s="27"/>
       <c r="I462" s="27"/>
       <c r="J462" s="45"/>
-      <c r="K462" s="54"/>
+      <c r="K462" s="53"/>
     </row>
     <row r="463" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="17"/>
@@ -8136,7 +8360,7 @@
       <c r="H463" s="27"/>
       <c r="I463" s="27"/>
       <c r="J463" s="45"/>
-      <c r="K463" s="54"/>
+      <c r="K463" s="53"/>
     </row>
     <row r="464" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="17"/>
@@ -8149,7 +8373,7 @@
       <c r="H464" s="27"/>
       <c r="I464" s="27"/>
       <c r="J464" s="45"/>
-      <c r="K464" s="54"/>
+      <c r="K464" s="53"/>
     </row>
     <row r="465" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="17"/>
@@ -8162,7 +8386,7 @@
       <c r="H465" s="27"/>
       <c r="I465" s="27"/>
       <c r="J465" s="45"/>
-      <c r="K465" s="54"/>
+      <c r="K465" s="53"/>
     </row>
     <row r="466" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="17"/>
@@ -8175,7 +8399,7 @@
       <c r="H466" s="27"/>
       <c r="I466" s="27"/>
       <c r="J466" s="45"/>
-      <c r="K466" s="54"/>
+      <c r="K466" s="53"/>
     </row>
     <row r="467" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="17"/>
@@ -8188,7 +8412,7 @@
       <c r="H467" s="27"/>
       <c r="I467" s="27"/>
       <c r="J467" s="45"/>
-      <c r="K467" s="54"/>
+      <c r="K467" s="53"/>
     </row>
     <row r="468" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="17"/>
@@ -8201,7 +8425,7 @@
       <c r="H468" s="27"/>
       <c r="I468" s="27"/>
       <c r="J468" s="45"/>
-      <c r="K468" s="54"/>
+      <c r="K468" s="53"/>
     </row>
     <row r="469" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="17"/>
@@ -8214,7 +8438,7 @@
       <c r="H469" s="27"/>
       <c r="I469" s="27"/>
       <c r="J469" s="45"/>
-      <c r="K469" s="54"/>
+      <c r="K469" s="53"/>
     </row>
     <row r="470" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="17"/>
@@ -8227,7 +8451,7 @@
       <c r="H470" s="27"/>
       <c r="I470" s="27"/>
       <c r="J470" s="45"/>
-      <c r="K470" s="54"/>
+      <c r="K470" s="53"/>
     </row>
     <row r="471" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" s="17"/>
@@ -8240,7 +8464,7 @@
       <c r="H471" s="27"/>
       <c r="I471" s="27"/>
       <c r="J471" s="45"/>
-      <c r="K471" s="54"/>
+      <c r="K471" s="53"/>
     </row>
     <row r="472" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" s="17"/>
@@ -8253,7 +8477,7 @@
       <c r="H472" s="27"/>
       <c r="I472" s="27"/>
       <c r="J472" s="45"/>
-      <c r="K472" s="54"/>
+      <c r="K472" s="53"/>
     </row>
     <row r="473" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="17"/>
@@ -8266,7 +8490,7 @@
       <c r="H473" s="27"/>
       <c r="I473" s="27"/>
       <c r="J473" s="45"/>
-      <c r="K473" s="54"/>
+      <c r="K473" s="53"/>
     </row>
     <row r="474" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A474" s="17"/>
@@ -8279,7 +8503,7 @@
       <c r="H474" s="27"/>
       <c r="I474" s="27"/>
       <c r="J474" s="45"/>
-      <c r="K474" s="54"/>
+      <c r="K474" s="53"/>
     </row>
     <row r="475" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="17"/>
@@ -8292,7 +8516,7 @@
       <c r="H475" s="27"/>
       <c r="I475" s="27"/>
       <c r="J475" s="45"/>
-      <c r="K475" s="54"/>
+      <c r="K475" s="53"/>
     </row>
     <row r="476" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="17"/>
@@ -8305,7 +8529,7 @@
       <c r="H476" s="27"/>
       <c r="I476" s="27"/>
       <c r="J476" s="45"/>
-      <c r="K476" s="54"/>
+      <c r="K476" s="53"/>
     </row>
     <row r="477" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="17"/>
@@ -8318,7 +8542,7 @@
       <c r="H477" s="27"/>
       <c r="I477" s="27"/>
       <c r="J477" s="45"/>
-      <c r="K477" s="54"/>
+      <c r="K477" s="53"/>
     </row>
     <row r="478" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="17"/>
@@ -8331,7 +8555,7 @@
       <c r="H478" s="27"/>
       <c r="I478" s="27"/>
       <c r="J478" s="45"/>
-      <c r="K478" s="54"/>
+      <c r="K478" s="53"/>
     </row>
     <row r="479" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="17"/>
@@ -8344,7 +8568,7 @@
       <c r="H479" s="27"/>
       <c r="I479" s="27"/>
       <c r="J479" s="45"/>
-      <c r="K479" s="54"/>
+      <c r="K479" s="53"/>
     </row>
     <row r="480" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="17"/>
@@ -8357,7 +8581,7 @@
       <c r="H480" s="27"/>
       <c r="I480" s="27"/>
       <c r="J480" s="45"/>
-      <c r="K480" s="54"/>
+      <c r="K480" s="53"/>
     </row>
     <row r="481" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="17"/>
@@ -8370,7 +8594,7 @@
       <c r="H481" s="27"/>
       <c r="I481" s="27"/>
       <c r="J481" s="45"/>
-      <c r="K481" s="54"/>
+      <c r="K481" s="53"/>
     </row>
     <row r="482" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="17"/>
@@ -8383,7 +8607,7 @@
       <c r="H482" s="27"/>
       <c r="I482" s="27"/>
       <c r="J482" s="45"/>
-      <c r="K482" s="54"/>
+      <c r="K482" s="53"/>
     </row>
     <row r="483" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="17"/>
@@ -8396,7 +8620,7 @@
       <c r="H483" s="27"/>
       <c r="I483" s="27"/>
       <c r="J483" s="45"/>
-      <c r="K483" s="54"/>
+      <c r="K483" s="53"/>
     </row>
     <row r="484" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="17"/>
@@ -8409,7 +8633,7 @@
       <c r="H484" s="27"/>
       <c r="I484" s="27"/>
       <c r="J484" s="45"/>
-      <c r="K484" s="54"/>
+      <c r="K484" s="53"/>
     </row>
     <row r="485" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="17"/>
@@ -8422,7 +8646,7 @@
       <c r="H485" s="27"/>
       <c r="I485" s="27"/>
       <c r="J485" s="45"/>
-      <c r="K485" s="54"/>
+      <c r="K485" s="53"/>
     </row>
     <row r="486" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="17"/>
@@ -8435,7 +8659,7 @@
       <c r="H486" s="27"/>
       <c r="I486" s="27"/>
       <c r="J486" s="45"/>
-      <c r="K486" s="54"/>
+      <c r="K486" s="53"/>
     </row>
     <row r="487" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="17"/>
@@ -8448,7 +8672,7 @@
       <c r="H487" s="27"/>
       <c r="I487" s="27"/>
       <c r="J487" s="45"/>
-      <c r="K487" s="54"/>
+      <c r="K487" s="53"/>
     </row>
     <row r="488" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="17"/>
@@ -8461,7 +8685,7 @@
       <c r="H488" s="27"/>
       <c r="I488" s="27"/>
       <c r="J488" s="45"/>
-      <c r="K488" s="54"/>
+      <c r="K488" s="53"/>
     </row>
     <row r="489" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="17"/>
@@ -8474,7 +8698,7 @@
       <c r="H489" s="27"/>
       <c r="I489" s="27"/>
       <c r="J489" s="45"/>
-      <c r="K489" s="54"/>
+      <c r="K489" s="53"/>
     </row>
     <row r="490" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="17"/>
@@ -8487,7 +8711,7 @@
       <c r="H490" s="27"/>
       <c r="I490" s="27"/>
       <c r="J490" s="45"/>
-      <c r="K490" s="54"/>
+      <c r="K490" s="53"/>
     </row>
     <row r="491" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="17"/>
@@ -8500,7 +8724,7 @@
       <c r="H491" s="27"/>
       <c r="I491" s="27"/>
       <c r="J491" s="45"/>
-      <c r="K491" s="54"/>
+      <c r="K491" s="53"/>
     </row>
     <row r="492" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="17"/>
@@ -8513,7 +8737,7 @@
       <c r="H492" s="27"/>
       <c r="I492" s="27"/>
       <c r="J492" s="45"/>
-      <c r="K492" s="54"/>
+      <c r="K492" s="53"/>
     </row>
     <row r="493" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="17"/>
@@ -8526,7 +8750,7 @@
       <c r="H493" s="27"/>
       <c r="I493" s="27"/>
       <c r="J493" s="45"/>
-      <c r="K493" s="54"/>
+      <c r="K493" s="53"/>
     </row>
     <row r="494" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="17"/>
@@ -8539,7 +8763,7 @@
       <c r="H494" s="27"/>
       <c r="I494" s="27"/>
       <c r="J494" s="45"/>
-      <c r="K494" s="54"/>
+      <c r="K494" s="53"/>
     </row>
     <row r="495" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="17"/>
@@ -8552,7 +8776,7 @@
       <c r="H495" s="27"/>
       <c r="I495" s="27"/>
       <c r="J495" s="45"/>
-      <c r="K495" s="54"/>
+      <c r="K495" s="53"/>
     </row>
     <row r="496" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="17"/>
@@ -8565,7 +8789,7 @@
       <c r="H496" s="27"/>
       <c r="I496" s="27"/>
       <c r="J496" s="45"/>
-      <c r="K496" s="54"/>
+      <c r="K496" s="53"/>
     </row>
     <row r="497" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="17"/>
@@ -8578,7 +8802,7 @@
       <c r="H497" s="27"/>
       <c r="I497" s="27"/>
       <c r="J497" s="45"/>
-      <c r="K497" s="54"/>
+      <c r="K497" s="53"/>
     </row>
     <row r="498" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="17"/>
@@ -8591,7 +8815,7 @@
       <c r="H498" s="27"/>
       <c r="I498" s="27"/>
       <c r="J498" s="45"/>
-      <c r="K498" s="54"/>
+      <c r="K498" s="53"/>
     </row>
     <row r="499" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="17"/>
@@ -8604,7 +8828,7 @@
       <c r="H499" s="27"/>
       <c r="I499" s="27"/>
       <c r="J499" s="45"/>
-      <c r="K499" s="54"/>
+      <c r="K499" s="53"/>
     </row>
     <row r="500" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="17"/>
@@ -8617,7 +8841,7 @@
       <c r="H500" s="27"/>
       <c r="I500" s="27"/>
       <c r="J500" s="45"/>
-      <c r="K500" s="54"/>
+      <c r="K500" s="53"/>
     </row>
     <row r="501" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="17"/>
@@ -8630,7 +8854,7 @@
       <c r="H501" s="27"/>
       <c r="I501" s="27"/>
       <c r="J501" s="45"/>
-      <c r="K501" s="54"/>
+      <c r="K501" s="53"/>
     </row>
     <row r="502" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" s="17"/>
@@ -8643,7 +8867,7 @@
       <c r="H502" s="27"/>
       <c r="I502" s="27"/>
       <c r="J502" s="45"/>
-      <c r="K502" s="54"/>
+      <c r="K502" s="53"/>
     </row>
     <row r="503" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" s="17"/>
@@ -8656,7 +8880,7 @@
       <c r="H503" s="27"/>
       <c r="I503" s="27"/>
       <c r="J503" s="45"/>
-      <c r="K503" s="54"/>
+      <c r="K503" s="53"/>
     </row>
     <row r="504" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" s="17"/>
@@ -8669,7 +8893,7 @@
       <c r="H504" s="27"/>
       <c r="I504" s="27"/>
       <c r="J504" s="45"/>
-      <c r="K504" s="54"/>
+      <c r="K504" s="53"/>
     </row>
     <row r="505" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" s="17"/>
@@ -8682,7 +8906,7 @@
       <c r="H505" s="27"/>
       <c r="I505" s="27"/>
       <c r="J505" s="45"/>
-      <c r="K505" s="54"/>
+      <c r="K505" s="53"/>
     </row>
     <row r="506" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" s="17"/>
@@ -8695,7 +8919,7 @@
       <c r="H506" s="27"/>
       <c r="I506" s="27"/>
       <c r="J506" s="45"/>
-      <c r="K506" s="54"/>
+      <c r="K506" s="53"/>
     </row>
     <row r="507" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" s="17"/>
@@ -8708,7 +8932,7 @@
       <c r="H507" s="27"/>
       <c r="I507" s="27"/>
       <c r="J507" s="45"/>
-      <c r="K507" s="54"/>
+      <c r="K507" s="53"/>
     </row>
     <row r="508" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" s="17"/>
@@ -8721,7 +8945,7 @@
       <c r="H508" s="27"/>
       <c r="I508" s="27"/>
       <c r="J508" s="45"/>
-      <c r="K508" s="54"/>
+      <c r="K508" s="53"/>
     </row>
     <row r="509" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A509" s="17"/>
@@ -8734,7 +8958,7 @@
       <c r="H509" s="27"/>
       <c r="I509" s="27"/>
       <c r="J509" s="45"/>
-      <c r="K509" s="54"/>
+      <c r="K509" s="53"/>
     </row>
     <row r="510" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A510" s="17"/>
@@ -8747,7 +8971,7 @@
       <c r="H510" s="27"/>
       <c r="I510" s="27"/>
       <c r="J510" s="45"/>
-      <c r="K510" s="54"/>
+      <c r="K510" s="53"/>
     </row>
     <row r="511" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="17"/>
@@ -8760,7 +8984,7 @@
       <c r="H511" s="27"/>
       <c r="I511" s="27"/>
       <c r="J511" s="45"/>
-      <c r="K511" s="54"/>
+      <c r="K511" s="53"/>
     </row>
     <row r="512" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A512" s="17"/>
@@ -8773,7 +8997,7 @@
       <c r="H512" s="27"/>
       <c r="I512" s="27"/>
       <c r="J512" s="45"/>
-      <c r="K512" s="54"/>
+      <c r="K512" s="53"/>
     </row>
     <row r="513" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A513" s="17"/>
@@ -8786,7 +9010,7 @@
       <c r="H513" s="27"/>
       <c r="I513" s="27"/>
       <c r="J513" s="45"/>
-      <c r="K513" s="54"/>
+      <c r="K513" s="53"/>
     </row>
     <row r="514" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A514" s="17"/>
@@ -8799,7 +9023,7 @@
       <c r="H514" s="27"/>
       <c r="I514" s="27"/>
       <c r="J514" s="45"/>
-      <c r="K514" s="54"/>
+      <c r="K514" s="53"/>
     </row>
     <row r="515" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" s="17"/>
@@ -8812,7 +9036,7 @@
       <c r="H515" s="27"/>
       <c r="I515" s="27"/>
       <c r="J515" s="45"/>
-      <c r="K515" s="54"/>
+      <c r="K515" s="53"/>
     </row>
     <row r="516" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" s="17"/>
@@ -8825,7 +9049,7 @@
       <c r="H516" s="27"/>
       <c r="I516" s="27"/>
       <c r="J516" s="45"/>
-      <c r="K516" s="54"/>
+      <c r="K516" s="53"/>
     </row>
     <row r="517" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" s="17"/>
@@ -8838,7 +9062,7 @@
       <c r="H517" s="27"/>
       <c r="I517" s="27"/>
       <c r="J517" s="45"/>
-      <c r="K517" s="54"/>
+      <c r="K517" s="53"/>
     </row>
     <row r="518" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" s="17"/>
@@ -8851,7 +9075,7 @@
       <c r="H518" s="27"/>
       <c r="I518" s="27"/>
       <c r="J518" s="45"/>
-      <c r="K518" s="54"/>
+      <c r="K518" s="53"/>
     </row>
     <row r="519" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" s="17"/>
@@ -8864,7 +9088,7 @@
       <c r="H519" s="27"/>
       <c r="I519" s="27"/>
       <c r="J519" s="45"/>
-      <c r="K519" s="54"/>
+      <c r="K519" s="53"/>
     </row>
     <row r="520" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" s="17"/>
@@ -8877,7 +9101,7 @@
       <c r="H520" s="27"/>
       <c r="I520" s="27"/>
       <c r="J520" s="45"/>
-      <c r="K520" s="54"/>
+      <c r="K520" s="53"/>
     </row>
     <row r="521" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" s="17"/>
@@ -8890,7 +9114,7 @@
       <c r="H521" s="27"/>
       <c r="I521" s="27"/>
       <c r="J521" s="45"/>
-      <c r="K521" s="54"/>
+      <c r="K521" s="53"/>
     </row>
     <row r="522" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" s="17"/>
@@ -8903,7 +9127,7 @@
       <c r="H522" s="27"/>
       <c r="I522" s="27"/>
       <c r="J522" s="45"/>
-      <c r="K522" s="54"/>
+      <c r="K522" s="53"/>
     </row>
     <row r="523" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A523" s="17"/>
@@ -8916,7 +9140,7 @@
       <c r="H523" s="27"/>
       <c r="I523" s="27"/>
       <c r="J523" s="45"/>
-      <c r="K523" s="54"/>
+      <c r="K523" s="53"/>
     </row>
     <row r="524" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A524" s="17"/>
@@ -8929,7 +9153,7 @@
       <c r="H524" s="27"/>
       <c r="I524" s="27"/>
       <c r="J524" s="45"/>
-      <c r="K524" s="54"/>
+      <c r="K524" s="53"/>
     </row>
     <row r="525" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A525" s="17"/>
@@ -8942,7 +9166,7 @@
       <c r="H525" s="27"/>
       <c r="I525" s="27"/>
       <c r="J525" s="45"/>
-      <c r="K525" s="54"/>
+      <c r="K525" s="53"/>
     </row>
     <row r="526" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A526" s="17"/>
@@ -8955,7 +9179,7 @@
       <c r="H526" s="27"/>
       <c r="I526" s="27"/>
       <c r="J526" s="45"/>
-      <c r="K526" s="54"/>
+      <c r="K526" s="53"/>
     </row>
     <row r="527" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A527" s="17"/>
@@ -8968,7 +9192,7 @@
       <c r="H527" s="27"/>
       <c r="I527" s="27"/>
       <c r="J527" s="45"/>
-      <c r="K527" s="54"/>
+      <c r="K527" s="53"/>
     </row>
     <row r="528" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A528" s="17"/>
@@ -8981,7 +9205,7 @@
       <c r="H528" s="27"/>
       <c r="I528" s="27"/>
       <c r="J528" s="45"/>
-      <c r="K528" s="54"/>
+      <c r="K528" s="53"/>
     </row>
     <row r="529" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A529" s="17"/>
@@ -8994,7 +9218,7 @@
       <c r="H529" s="27"/>
       <c r="I529" s="27"/>
       <c r="J529" s="45"/>
-      <c r="K529" s="54"/>
+      <c r="K529" s="53"/>
     </row>
     <row r="530" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A530" s="17"/>
@@ -9007,7 +9231,7 @@
       <c r="H530" s="27"/>
       <c r="I530" s="27"/>
       <c r="J530" s="45"/>
-      <c r="K530" s="54"/>
+      <c r="K530" s="53"/>
     </row>
     <row r="531" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A531" s="17"/>
@@ -9020,7 +9244,7 @@
       <c r="H531" s="27"/>
       <c r="I531" s="27"/>
       <c r="J531" s="45"/>
-      <c r="K531" s="54"/>
+      <c r="K531" s="53"/>
     </row>
     <row r="532" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A532" s="17"/>
@@ -9033,7 +9257,7 @@
       <c r="H532" s="27"/>
       <c r="I532" s="27"/>
       <c r="J532" s="45"/>
-      <c r="K532" s="54"/>
+      <c r="K532" s="53"/>
     </row>
     <row r="533" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A533" s="17"/>
@@ -9046,7 +9270,7 @@
       <c r="H533" s="27"/>
       <c r="I533" s="27"/>
       <c r="J533" s="45"/>
-      <c r="K533" s="54"/>
+      <c r="K533" s="53"/>
     </row>
     <row r="534" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A534" s="17"/>
@@ -9059,7 +9283,7 @@
       <c r="H534" s="27"/>
       <c r="I534" s="27"/>
       <c r="J534" s="45"/>
-      <c r="K534" s="54"/>
+      <c r="K534" s="53"/>
     </row>
     <row r="535" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A535" s="17"/>
@@ -9072,7 +9296,7 @@
       <c r="H535" s="27"/>
       <c r="I535" s="27"/>
       <c r="J535" s="45"/>
-      <c r="K535" s="54"/>
+      <c r="K535" s="53"/>
     </row>
     <row r="536" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A536" s="17"/>
@@ -9085,7 +9309,7 @@
       <c r="H536" s="27"/>
       <c r="I536" s="27"/>
       <c r="J536" s="45"/>
-      <c r="K536" s="54"/>
+      <c r="K536" s="53"/>
     </row>
     <row r="537" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A537" s="17"/>
@@ -9098,7 +9322,7 @@
       <c r="H537" s="27"/>
       <c r="I537" s="27"/>
       <c r="J537" s="45"/>
-      <c r="K537" s="54"/>
+      <c r="K537" s="53"/>
     </row>
     <row r="538" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A538" s="17"/>
@@ -9111,7 +9335,7 @@
       <c r="H538" s="27"/>
       <c r="I538" s="27"/>
       <c r="J538" s="45"/>
-      <c r="K538" s="54"/>
+      <c r="K538" s="53"/>
     </row>
     <row r="539" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A539" s="17"/>
@@ -9124,7 +9348,7 @@
       <c r="H539" s="27"/>
       <c r="I539" s="27"/>
       <c r="J539" s="45"/>
-      <c r="K539" s="54"/>
+      <c r="K539" s="53"/>
     </row>
     <row r="540" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A540" s="17"/>
@@ -9137,7 +9361,7 @@
       <c r="H540" s="27"/>
       <c r="I540" s="27"/>
       <c r="J540" s="45"/>
-      <c r="K540" s="54"/>
+      <c r="K540" s="53"/>
     </row>
     <row r="541" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A541" s="17"/>
@@ -9150,7 +9374,7 @@
       <c r="H541" s="27"/>
       <c r="I541" s="27"/>
       <c r="J541" s="45"/>
-      <c r="K541" s="54"/>
+      <c r="K541" s="53"/>
     </row>
     <row r="542" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A542" s="17"/>
@@ -9163,7 +9387,7 @@
       <c r="H542" s="27"/>
       <c r="I542" s="27"/>
       <c r="J542" s="45"/>
-      <c r="K542" s="54"/>
+      <c r="K542" s="53"/>
     </row>
     <row r="543" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A543" s="17"/>
@@ -9176,7 +9400,7 @@
       <c r="H543" s="27"/>
       <c r="I543" s="27"/>
       <c r="J543" s="45"/>
-      <c r="K543" s="54"/>
+      <c r="K543" s="53"/>
     </row>
     <row r="544" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A544" s="17"/>
@@ -9189,7 +9413,7 @@
       <c r="H544" s="27"/>
       <c r="I544" s="27"/>
       <c r="J544" s="45"/>
-      <c r="K544" s="54"/>
+      <c r="K544" s="53"/>
     </row>
     <row r="545" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A545" s="17"/>
@@ -9202,7 +9426,7 @@
       <c r="H545" s="27"/>
       <c r="I545" s="27"/>
       <c r="J545" s="45"/>
-      <c r="K545" s="54"/>
+      <c r="K545" s="53"/>
     </row>
     <row r="546" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A546" s="17"/>
@@ -9215,7 +9439,7 @@
       <c r="H546" s="27"/>
       <c r="I546" s="27"/>
       <c r="J546" s="45"/>
-      <c r="K546" s="54"/>
+      <c r="K546" s="53"/>
     </row>
     <row r="547" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A547" s="17"/>
@@ -9228,7 +9452,7 @@
       <c r="H547" s="27"/>
       <c r="I547" s="27"/>
       <c r="J547" s="45"/>
-      <c r="K547" s="54"/>
+      <c r="K547" s="53"/>
     </row>
     <row r="548" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A548" s="17"/>
@@ -9241,7 +9465,7 @@
       <c r="H548" s="27"/>
       <c r="I548" s="27"/>
       <c r="J548" s="45"/>
-      <c r="K548" s="54"/>
+      <c r="K548" s="53"/>
     </row>
     <row r="549" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A549" s="17"/>
@@ -9254,7 +9478,7 @@
       <c r="H549" s="27"/>
       <c r="I549" s="27"/>
       <c r="J549" s="45"/>
-      <c r="K549" s="54"/>
+      <c r="K549" s="53"/>
     </row>
     <row r="550" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A550" s="17"/>
@@ -9267,7 +9491,7 @@
       <c r="H550" s="27"/>
       <c r="I550" s="27"/>
       <c r="J550" s="45"/>
-      <c r="K550" s="54"/>
+      <c r="K550" s="53"/>
     </row>
     <row r="551" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A551" s="17"/>
@@ -9280,7 +9504,7 @@
       <c r="H551" s="27"/>
       <c r="I551" s="27"/>
       <c r="J551" s="45"/>
-      <c r="K551" s="54"/>
+      <c r="K551" s="53"/>
     </row>
     <row r="552" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A552" s="17"/>
@@ -9293,7 +9517,7 @@
       <c r="H552" s="27"/>
       <c r="I552" s="27"/>
       <c r="J552" s="45"/>
-      <c r="K552" s="54"/>
+      <c r="K552" s="53"/>
     </row>
     <row r="553" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A553" s="17"/>
@@ -9306,7 +9530,7 @@
       <c r="H553" s="27"/>
       <c r="I553" s="27"/>
       <c r="J553" s="45"/>
-      <c r="K553" s="54"/>
+      <c r="K553" s="53"/>
     </row>
     <row r="554" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A554" s="17"/>
@@ -9319,7 +9543,7 @@
       <c r="H554" s="27"/>
       <c r="I554" s="27"/>
       <c r="J554" s="45"/>
-      <c r="K554" s="54"/>
+      <c r="K554" s="53"/>
     </row>
     <row r="555" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A555" s="17"/>
@@ -9332,7 +9556,7 @@
       <c r="H555" s="27"/>
       <c r="I555" s="27"/>
       <c r="J555" s="45"/>
-      <c r="K555" s="54"/>
+      <c r="K555" s="53"/>
     </row>
     <row r="556" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A556" s="17"/>
@@ -9345,7 +9569,7 @@
       <c r="H556" s="27"/>
       <c r="I556" s="27"/>
       <c r="J556" s="45"/>
-      <c r="K556" s="54"/>
+      <c r="K556" s="53"/>
     </row>
     <row r="557" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A557" s="17"/>
@@ -9358,7 +9582,7 @@
       <c r="H557" s="27"/>
       <c r="I557" s="27"/>
       <c r="J557" s="45"/>
-      <c r="K557" s="54"/>
+      <c r="K557" s="53"/>
     </row>
     <row r="558" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A558" s="17"/>
@@ -9371,7 +9595,7 @@
       <c r="H558" s="27"/>
       <c r="I558" s="27"/>
       <c r="J558" s="45"/>
-      <c r="K558" s="54"/>
+      <c r="K558" s="53"/>
     </row>
     <row r="559" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A559" s="17"/>
@@ -9384,7 +9608,7 @@
       <c r="H559" s="27"/>
       <c r="I559" s="27"/>
       <c r="J559" s="45"/>
-      <c r="K559" s="54"/>
+      <c r="K559" s="53"/>
     </row>
     <row r="560" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A560" s="17"/>
@@ -9397,7 +9621,7 @@
       <c r="H560" s="27"/>
       <c r="I560" s="27"/>
       <c r="J560" s="45"/>
-      <c r="K560" s="54"/>
+      <c r="K560" s="53"/>
     </row>
     <row r="561" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A561" s="17"/>
@@ -9410,7 +9634,7 @@
       <c r="H561" s="27"/>
       <c r="I561" s="27"/>
       <c r="J561" s="45"/>
-      <c r="K561" s="54"/>
+      <c r="K561" s="53"/>
     </row>
     <row r="562" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A562" s="17"/>
@@ -9423,7 +9647,7 @@
       <c r="H562" s="27"/>
       <c r="I562" s="27"/>
       <c r="J562" s="45"/>
-      <c r="K562" s="54"/>
+      <c r="K562" s="53"/>
     </row>
     <row r="563" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A563" s="17"/>
@@ -9436,7 +9660,7 @@
       <c r="H563" s="27"/>
       <c r="I563" s="27"/>
       <c r="J563" s="45"/>
-      <c r="K563" s="54"/>
+      <c r="K563" s="53"/>
     </row>
     <row r="564" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A564" s="17"/>
@@ -9449,7 +9673,7 @@
       <c r="H564" s="27"/>
       <c r="I564" s="27"/>
       <c r="J564" s="45"/>
-      <c r="K564" s="54"/>
+      <c r="K564" s="53"/>
     </row>
     <row r="565" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A565" s="17"/>
@@ -9462,7 +9686,7 @@
       <c r="H565" s="27"/>
       <c r="I565" s="27"/>
       <c r="J565" s="45"/>
-      <c r="K565" s="54"/>
+      <c r="K565" s="53"/>
     </row>
     <row r="566" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A566" s="17"/>
@@ -9475,7 +9699,7 @@
       <c r="H566" s="27"/>
       <c r="I566" s="27"/>
       <c r="J566" s="45"/>
-      <c r="K566" s="54"/>
+      <c r="K566" s="53"/>
     </row>
     <row r="567" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A567" s="17"/>
@@ -9488,7 +9712,7 @@
       <c r="H567" s="27"/>
       <c r="I567" s="27"/>
       <c r="J567" s="45"/>
-      <c r="K567" s="54"/>
+      <c r="K567" s="53"/>
     </row>
     <row r="568" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A568" s="17"/>
@@ -9501,7 +9725,7 @@
       <c r="H568" s="27"/>
       <c r="I568" s="27"/>
       <c r="J568" s="45"/>
-      <c r="K568" s="54"/>
+      <c r="K568" s="53"/>
     </row>
     <row r="569" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A569" s="17"/>
@@ -9514,7 +9738,7 @@
       <c r="H569" s="27"/>
       <c r="I569" s="27"/>
       <c r="J569" s="45"/>
-      <c r="K569" s="54"/>
+      <c r="K569" s="53"/>
     </row>
     <row r="570" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A570" s="17"/>
@@ -9527,7 +9751,7 @@
       <c r="H570" s="27"/>
       <c r="I570" s="27"/>
       <c r="J570" s="45"/>
-      <c r="K570" s="54"/>
+      <c r="K570" s="53"/>
     </row>
     <row r="571" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A571" s="17"/>
@@ -9540,7 +9764,7 @@
       <c r="H571" s="27"/>
       <c r="I571" s="27"/>
       <c r="J571" s="45"/>
-      <c r="K571" s="54"/>
+      <c r="K571" s="53"/>
     </row>
     <row r="572" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A572" s="17"/>
@@ -9553,7 +9777,7 @@
       <c r="H572" s="27"/>
       <c r="I572" s="27"/>
       <c r="J572" s="45"/>
-      <c r="K572" s="54"/>
+      <c r="K572" s="53"/>
     </row>
     <row r="573" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A573" s="17"/>
@@ -9566,7 +9790,7 @@
       <c r="H573" s="27"/>
       <c r="I573" s="27"/>
       <c r="J573" s="45"/>
-      <c r="K573" s="54"/>
+      <c r="K573" s="53"/>
     </row>
     <row r="574" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A574" s="17"/>
@@ -9579,7 +9803,7 @@
       <c r="H574" s="27"/>
       <c r="I574" s="27"/>
       <c r="J574" s="45"/>
-      <c r="K574" s="54"/>
+      <c r="K574" s="53"/>
     </row>
     <row r="575" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A575" s="17"/>
@@ -9592,7 +9816,7 @@
       <c r="H575" s="27"/>
       <c r="I575" s="27"/>
       <c r="J575" s="45"/>
-      <c r="K575" s="54"/>
+      <c r="K575" s="53"/>
     </row>
     <row r="576" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A576" s="17"/>
@@ -9605,7 +9829,7 @@
       <c r="H576" s="27"/>
       <c r="I576" s="27"/>
       <c r="J576" s="45"/>
-      <c r="K576" s="54"/>
+      <c r="K576" s="53"/>
     </row>
     <row r="577" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A577" s="17"/>
@@ -9618,7 +9842,7 @@
       <c r="H577" s="27"/>
       <c r="I577" s="27"/>
       <c r="J577" s="45"/>
-      <c r="K577" s="54"/>
+      <c r="K577" s="53"/>
     </row>
     <row r="578" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A578" s="17"/>
@@ -9631,7 +9855,7 @@
       <c r="H578" s="27"/>
       <c r="I578" s="27"/>
       <c r="J578" s="45"/>
-      <c r="K578" s="54"/>
+      <c r="K578" s="53"/>
     </row>
     <row r="579" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A579" s="17"/>
@@ -9644,7 +9868,7 @@
       <c r="H579" s="27"/>
       <c r="I579" s="27"/>
       <c r="J579" s="45"/>
-      <c r="K579" s="54"/>
+      <c r="K579" s="53"/>
     </row>
     <row r="580" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A580" s="17"/>
@@ -9657,7 +9881,7 @@
       <c r="H580" s="27"/>
       <c r="I580" s="27"/>
       <c r="J580" s="45"/>
-      <c r="K580" s="54"/>
+      <c r="K580" s="53"/>
     </row>
     <row r="581" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A581" s="17"/>
@@ -9670,7 +9894,7 @@
       <c r="H581" s="27"/>
       <c r="I581" s="27"/>
       <c r="J581" s="45"/>
-      <c r="K581" s="54"/>
+      <c r="K581" s="53"/>
     </row>
     <row r="582" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A582" s="17"/>
@@ -9683,7 +9907,7 @@
       <c r="H582" s="27"/>
       <c r="I582" s="27"/>
       <c r="J582" s="45"/>
-      <c r="K582" s="54"/>
+      <c r="K582" s="53"/>
     </row>
     <row r="583" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A583" s="17"/>
@@ -9696,7 +9920,7 @@
       <c r="H583" s="27"/>
       <c r="I583" s="27"/>
       <c r="J583" s="45"/>
-      <c r="K583" s="54"/>
+      <c r="K583" s="53"/>
     </row>
     <row r="584" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A584" s="17"/>
@@ -9709,7 +9933,7 @@
       <c r="H584" s="27"/>
       <c r="I584" s="27"/>
       <c r="J584" s="45"/>
-      <c r="K584" s="54"/>
+      <c r="K584" s="53"/>
     </row>
     <row r="585" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A585" s="17"/>
@@ -9722,7 +9946,7 @@
       <c r="H585" s="27"/>
       <c r="I585" s="27"/>
       <c r="J585" s="45"/>
-      <c r="K585" s="54"/>
+      <c r="K585" s="53"/>
     </row>
     <row r="586" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A586" s="17"/>
@@ -9735,7 +9959,7 @@
       <c r="H586" s="27"/>
       <c r="I586" s="27"/>
       <c r="J586" s="45"/>
-      <c r="K586" s="54"/>
+      <c r="K586" s="53"/>
     </row>
     <row r="587" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A587" s="17"/>
@@ -9748,7 +9972,7 @@
       <c r="H587" s="27"/>
       <c r="I587" s="27"/>
       <c r="J587" s="45"/>
-      <c r="K587" s="54"/>
+      <c r="K587" s="53"/>
     </row>
     <row r="588" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A588" s="17"/>
@@ -9761,7 +9985,7 @@
       <c r="H588" s="27"/>
       <c r="I588" s="27"/>
       <c r="J588" s="45"/>
-      <c r="K588" s="54"/>
+      <c r="K588" s="53"/>
     </row>
     <row r="589" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A589" s="17"/>
@@ -9774,7 +9998,7 @@
       <c r="H589" s="27"/>
       <c r="I589" s="27"/>
       <c r="J589" s="45"/>
-      <c r="K589" s="54"/>
+      <c r="K589" s="53"/>
     </row>
     <row r="590" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A590" s="17"/>
@@ -9787,7 +10011,7 @@
       <c r="H590" s="27"/>
       <c r="I590" s="27"/>
       <c r="J590" s="45"/>
-      <c r="K590" s="54"/>
+      <c r="K590" s="53"/>
     </row>
     <row r="591" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A591" s="17"/>
@@ -9800,7 +10024,7 @@
       <c r="H591" s="27"/>
       <c r="I591" s="27"/>
       <c r="J591" s="45"/>
-      <c r="K591" s="54"/>
+      <c r="K591" s="53"/>
     </row>
     <row r="592" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A592" s="17"/>
@@ -9813,7 +10037,7 @@
       <c r="H592" s="27"/>
       <c r="I592" s="27"/>
       <c r="J592" s="45"/>
-      <c r="K592" s="54"/>
+      <c r="K592" s="53"/>
     </row>
     <row r="593" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A593" s="17"/>
@@ -9826,7 +10050,7 @@
       <c r="H593" s="27"/>
       <c r="I593" s="27"/>
       <c r="J593" s="45"/>
-      <c r="K593" s="54"/>
+      <c r="K593" s="53"/>
     </row>
     <row r="594" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A594" s="17"/>
@@ -9839,7 +10063,7 @@
       <c r="H594" s="27"/>
       <c r="I594" s="27"/>
       <c r="J594" s="45"/>
-      <c r="K594" s="54"/>
+      <c r="K594" s="53"/>
     </row>
     <row r="595" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A595" s="17"/>
@@ -9852,7 +10076,7 @@
       <c r="H595" s="27"/>
       <c r="I595" s="27"/>
       <c r="J595" s="45"/>
-      <c r="K595" s="54"/>
+      <c r="K595" s="53"/>
     </row>
     <row r="596" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A596" s="17"/>
@@ -9865,7 +10089,7 @@
       <c r="H596" s="27"/>
       <c r="I596" s="27"/>
       <c r="J596" s="45"/>
-      <c r="K596" s="54"/>
+      <c r="K596" s="53"/>
     </row>
     <row r="597" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A597" s="17"/>
@@ -9878,7 +10102,7 @@
       <c r="H597" s="27"/>
       <c r="I597" s="27"/>
       <c r="J597" s="45"/>
-      <c r="K597" s="54"/>
+      <c r="K597" s="53"/>
     </row>
     <row r="598" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A598" s="17"/>
@@ -9891,7 +10115,7 @@
       <c r="H598" s="27"/>
       <c r="I598" s="27"/>
       <c r="J598" s="45"/>
-      <c r="K598" s="54"/>
+      <c r="K598" s="53"/>
     </row>
     <row r="599" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A599" s="17"/>
@@ -9904,7 +10128,7 @@
       <c r="H599" s="27"/>
       <c r="I599" s="27"/>
       <c r="J599" s="45"/>
-      <c r="K599" s="54"/>
+      <c r="K599" s="53"/>
     </row>
     <row r="600" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A600" s="17"/>
@@ -9917,7 +10141,7 @@
       <c r="H600" s="27"/>
       <c r="I600" s="27"/>
       <c r="J600" s="45"/>
-      <c r="K600" s="54"/>
+      <c r="K600" s="53"/>
     </row>
     <row r="601" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A601" s="17"/>
@@ -9930,7 +10154,7 @@
       <c r="H601" s="27"/>
       <c r="I601" s="27"/>
       <c r="J601" s="45"/>
-      <c r="K601" s="54"/>
+      <c r="K601" s="53"/>
     </row>
     <row r="602" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A602" s="17"/>
@@ -9943,7 +10167,7 @@
       <c r="H602" s="27"/>
       <c r="I602" s="27"/>
       <c r="J602" s="45"/>
-      <c r="K602" s="54"/>
+      <c r="K602" s="53"/>
     </row>
     <row r="603" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A603" s="17"/>
@@ -9956,7 +10180,7 @@
       <c r="H603" s="27"/>
       <c r="I603" s="27"/>
       <c r="J603" s="45"/>
-      <c r="K603" s="54"/>
+      <c r="K603" s="53"/>
     </row>
     <row r="604" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A604" s="17"/>
@@ -9969,7 +10193,7 @@
       <c r="H604" s="27"/>
       <c r="I604" s="27"/>
       <c r="J604" s="45"/>
-      <c r="K604" s="54"/>
+      <c r="K604" s="53"/>
     </row>
     <row r="605" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A605" s="17"/>
@@ -9982,7 +10206,7 @@
       <c r="H605" s="27"/>
       <c r="I605" s="27"/>
       <c r="J605" s="45"/>
-      <c r="K605" s="54"/>
+      <c r="K605" s="53"/>
     </row>
     <row r="606" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A606" s="17"/>
@@ -9995,7 +10219,7 @@
       <c r="H606" s="27"/>
       <c r="I606" s="27"/>
       <c r="J606" s="45"/>
-      <c r="K606" s="54"/>
+      <c r="K606" s="53"/>
     </row>
     <row r="607" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A607" s="17"/>
@@ -10008,7 +10232,7 @@
       <c r="H607" s="27"/>
       <c r="I607" s="27"/>
       <c r="J607" s="45"/>
-      <c r="K607" s="54"/>
+      <c r="K607" s="53"/>
     </row>
     <row r="608" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A608" s="17"/>
@@ -10021,7 +10245,7 @@
       <c r="H608" s="27"/>
       <c r="I608" s="27"/>
       <c r="J608" s="45"/>
-      <c r="K608" s="54"/>
+      <c r="K608" s="53"/>
     </row>
     <row r="609" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A609" s="17"/>
@@ -10034,7 +10258,7 @@
       <c r="H609" s="27"/>
       <c r="I609" s="27"/>
       <c r="J609" s="45"/>
-      <c r="K609" s="54"/>
+      <c r="K609" s="53"/>
     </row>
     <row r="610" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A610" s="17"/>
@@ -10047,7 +10271,7 @@
       <c r="H610" s="27"/>
       <c r="I610" s="27"/>
       <c r="J610" s="45"/>
-      <c r="K610" s="54"/>
+      <c r="K610" s="53"/>
     </row>
     <row r="611" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A611" s="17"/>
@@ -10060,7 +10284,7 @@
       <c r="H611" s="27"/>
       <c r="I611" s="27"/>
       <c r="J611" s="45"/>
-      <c r="K611" s="54"/>
+      <c r="K611" s="53"/>
     </row>
     <row r="612" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A612" s="17"/>
@@ -10073,7 +10297,7 @@
       <c r="H612" s="27"/>
       <c r="I612" s="27"/>
       <c r="J612" s="45"/>
-      <c r="K612" s="54"/>
+      <c r="K612" s="53"/>
     </row>
     <row r="613" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A613" s="17"/>
@@ -10086,7 +10310,7 @@
       <c r="H613" s="27"/>
       <c r="I613" s="27"/>
       <c r="J613" s="45"/>
-      <c r="K613" s="54"/>
+      <c r="K613" s="53"/>
     </row>
     <row r="614" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A614" s="17"/>
@@ -10099,7 +10323,7 @@
       <c r="H614" s="27"/>
       <c r="I614" s="27"/>
       <c r="J614" s="45"/>
-      <c r="K614" s="54"/>
+      <c r="K614" s="53"/>
     </row>
     <row r="615" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A615" s="17"/>
@@ -10112,7 +10336,7 @@
       <c r="H615" s="27"/>
       <c r="I615" s="27"/>
       <c r="J615" s="45"/>
-      <c r="K615" s="54"/>
+      <c r="K615" s="53"/>
     </row>
     <row r="616" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A616" s="17"/>
@@ -10125,7 +10349,7 @@
       <c r="H616" s="27"/>
       <c r="I616" s="27"/>
       <c r="J616" s="45"/>
-      <c r="K616" s="54"/>
+      <c r="K616" s="53"/>
     </row>
     <row r="617" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A617" s="17"/>
@@ -10138,7 +10362,7 @@
       <c r="H617" s="27"/>
       <c r="I617" s="27"/>
       <c r="J617" s="45"/>
-      <c r="K617" s="54"/>
+      <c r="K617" s="53"/>
     </row>
     <row r="618" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A618" s="17"/>
@@ -10151,7 +10375,7 @@
       <c r="H618" s="27"/>
       <c r="I618" s="27"/>
       <c r="J618" s="45"/>
-      <c r="K618" s="54"/>
+      <c r="K618" s="53"/>
     </row>
     <row r="619" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A619" s="17"/>
@@ -10164,7 +10388,7 @@
       <c r="H619" s="27"/>
       <c r="I619" s="27"/>
       <c r="J619" s="45"/>
-      <c r="K619" s="54"/>
+      <c r="K619" s="53"/>
     </row>
     <row r="620" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A620" s="17"/>
@@ -10177,7 +10401,7 @@
       <c r="H620" s="27"/>
       <c r="I620" s="27"/>
       <c r="J620" s="45"/>
-      <c r="K620" s="54"/>
+      <c r="K620" s="53"/>
     </row>
     <row r="621" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A621" s="17"/>
@@ -10190,7 +10414,7 @@
       <c r="H621" s="27"/>
       <c r="I621" s="27"/>
       <c r="J621" s="45"/>
-      <c r="K621" s="54"/>
+      <c r="K621" s="53"/>
     </row>
     <row r="622" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A622" s="17"/>
@@ -10203,7 +10427,7 @@
       <c r="H622" s="27"/>
       <c r="I622" s="27"/>
       <c r="J622" s="45"/>
-      <c r="K622" s="54"/>
+      <c r="K622" s="53"/>
     </row>
     <row r="623" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A623" s="17"/>
@@ -10216,7 +10440,7 @@
       <c r="H623" s="27"/>
       <c r="I623" s="27"/>
       <c r="J623" s="45"/>
-      <c r="K623" s="54"/>
+      <c r="K623" s="53"/>
     </row>
     <row r="624" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A624" s="17"/>
@@ -10229,7 +10453,7 @@
       <c r="H624" s="27"/>
       <c r="I624" s="27"/>
       <c r="J624" s="45"/>
-      <c r="K624" s="54"/>
+      <c r="K624" s="53"/>
     </row>
     <row r="625" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A625" s="17"/>
@@ -10242,7 +10466,7 @@
       <c r="H625" s="27"/>
       <c r="I625" s="27"/>
       <c r="J625" s="45"/>
-      <c r="K625" s="54"/>
+      <c r="K625" s="53"/>
     </row>
     <row r="626" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A626" s="17"/>
@@ -10255,7 +10479,7 @@
       <c r="H626" s="27"/>
       <c r="I626" s="27"/>
       <c r="J626" s="45"/>
-      <c r="K626" s="54"/>
+      <c r="K626" s="53"/>
     </row>
     <row r="627" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A627" s="17"/>
@@ -10268,7 +10492,7 @@
       <c r="H627" s="27"/>
       <c r="I627" s="27"/>
       <c r="J627" s="45"/>
-      <c r="K627" s="54"/>
+      <c r="K627" s="53"/>
     </row>
     <row r="628" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A628" s="17"/>
@@ -10281,7 +10505,7 @@
       <c r="H628" s="27"/>
       <c r="I628" s="27"/>
       <c r="J628" s="45"/>
-      <c r="K628" s="54"/>
+      <c r="K628" s="53"/>
     </row>
     <row r="629" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A629" s="17"/>
@@ -10294,7 +10518,7 @@
       <c r="H629" s="27"/>
       <c r="I629" s="27"/>
       <c r="J629" s="45"/>
-      <c r="K629" s="54"/>
+      <c r="K629" s="53"/>
     </row>
     <row r="630" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A630" s="17"/>
@@ -10307,7 +10531,7 @@
       <c r="H630" s="27"/>
       <c r="I630" s="27"/>
       <c r="J630" s="45"/>
-      <c r="K630" s="54"/>
+      <c r="K630" s="53"/>
     </row>
     <row r="631" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A631" s="17"/>
@@ -10320,7 +10544,7 @@
       <c r="H631" s="27"/>
       <c r="I631" s="27"/>
       <c r="J631" s="45"/>
-      <c r="K631" s="54"/>
+      <c r="K631" s="53"/>
     </row>
     <row r="632" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A632" s="17"/>
@@ -10333,7 +10557,7 @@
       <c r="H632" s="27"/>
       <c r="I632" s="27"/>
       <c r="J632" s="45"/>
-      <c r="K632" s="54"/>
+      <c r="K632" s="53"/>
     </row>
     <row r="633" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A633" s="17"/>
@@ -10346,7 +10570,7 @@
       <c r="H633" s="27"/>
       <c r="I633" s="27"/>
       <c r="J633" s="45"/>
-      <c r="K633" s="54"/>
+      <c r="K633" s="53"/>
     </row>
     <row r="634" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A634" s="17"/>
@@ -10359,7 +10583,7 @@
       <c r="H634" s="27"/>
       <c r="I634" s="27"/>
       <c r="J634" s="45"/>
-      <c r="K634" s="54"/>
+      <c r="K634" s="53"/>
     </row>
     <row r="635" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A635" s="17"/>
@@ -10372,7 +10596,7 @@
       <c r="H635" s="27"/>
       <c r="I635" s="27"/>
       <c r="J635" s="45"/>
-      <c r="K635" s="54"/>
+      <c r="K635" s="53"/>
     </row>
     <row r="636" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A636" s="17"/>
@@ -10385,7 +10609,7 @@
       <c r="H636" s="27"/>
       <c r="I636" s="27"/>
       <c r="J636" s="45"/>
-      <c r="K636" s="54"/>
+      <c r="K636" s="53"/>
     </row>
     <row r="637" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A637" s="17"/>
@@ -10398,7 +10622,7 @@
       <c r="H637" s="27"/>
       <c r="I637" s="27"/>
       <c r="J637" s="45"/>
-      <c r="K637" s="54"/>
+      <c r="K637" s="53"/>
     </row>
     <row r="638" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A638" s="17"/>
@@ -10411,7 +10635,7 @@
       <c r="H638" s="27"/>
       <c r="I638" s="27"/>
       <c r="J638" s="45"/>
-      <c r="K638" s="54"/>
+      <c r="K638" s="53"/>
     </row>
     <row r="639" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A639" s="17"/>
@@ -10424,7 +10648,7 @@
       <c r="H639" s="27"/>
       <c r="I639" s="27"/>
       <c r="J639" s="45"/>
-      <c r="K639" s="54"/>
+      <c r="K639" s="53"/>
     </row>
     <row r="640" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A640" s="17"/>
@@ -10437,7 +10661,7 @@
       <c r="H640" s="27"/>
       <c r="I640" s="27"/>
       <c r="J640" s="45"/>
-      <c r="K640" s="54"/>
+      <c r="K640" s="53"/>
     </row>
     <row r="641" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A641" s="17"/>
@@ -10450,7 +10674,7 @@
       <c r="H641" s="27"/>
       <c r="I641" s="27"/>
       <c r="J641" s="45"/>
-      <c r="K641" s="54"/>
+      <c r="K641" s="53"/>
     </row>
     <row r="642" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A642" s="17"/>
@@ -10463,7 +10687,7 @@
       <c r="H642" s="27"/>
       <c r="I642" s="27"/>
       <c r="J642" s="45"/>
-      <c r="K642" s="54"/>
+      <c r="K642" s="53"/>
     </row>
     <row r="643" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A643" s="17"/>
@@ -10476,7 +10700,7 @@
       <c r="H643" s="27"/>
       <c r="I643" s="27"/>
       <c r="J643" s="45"/>
-      <c r="K643" s="54"/>
+      <c r="K643" s="53"/>
     </row>
     <row r="644" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A644" s="17"/>
@@ -10489,7 +10713,7 @@
       <c r="H644" s="27"/>
       <c r="I644" s="27"/>
       <c r="J644" s="45"/>
-      <c r="K644" s="54"/>
+      <c r="K644" s="53"/>
     </row>
     <row r="645" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A645" s="17"/>
@@ -10502,7 +10726,7 @@
       <c r="H645" s="27"/>
       <c r="I645" s="27"/>
       <c r="J645" s="45"/>
-      <c r="K645" s="54"/>
+      <c r="K645" s="53"/>
     </row>
     <row r="646" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A646" s="17"/>
@@ -10515,7 +10739,7 @@
       <c r="H646" s="27"/>
       <c r="I646" s="27"/>
       <c r="J646" s="45"/>
-      <c r="K646" s="54"/>
+      <c r="K646" s="53"/>
     </row>
     <row r="647" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A647" s="17"/>
@@ -10528,7 +10752,7 @@
       <c r="H647" s="27"/>
       <c r="I647" s="27"/>
       <c r="J647" s="45"/>
-      <c r="K647" s="54"/>
+      <c r="K647" s="53"/>
     </row>
     <row r="648" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A648" s="17"/>
@@ -10541,7 +10765,7 @@
       <c r="H648" s="27"/>
       <c r="I648" s="27"/>
       <c r="J648" s="45"/>
-      <c r="K648" s="54"/>
+      <c r="K648" s="53"/>
     </row>
     <row r="649" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A649" s="17"/>
@@ -10554,7 +10778,7 @@
       <c r="H649" s="27"/>
       <c r="I649" s="27"/>
       <c r="J649" s="45"/>
-      <c r="K649" s="54"/>
+      <c r="K649" s="53"/>
     </row>
     <row r="650" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A650" s="17"/>
@@ -10567,7 +10791,7 @@
       <c r="H650" s="27"/>
       <c r="I650" s="27"/>
       <c r="J650" s="45"/>
-      <c r="K650" s="54"/>
+      <c r="K650" s="53"/>
     </row>
     <row r="651" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A651" s="17"/>
@@ -10580,7 +10804,7 @@
       <c r="H651" s="27"/>
       <c r="I651" s="27"/>
       <c r="J651" s="45"/>
-      <c r="K651" s="54"/>
+      <c r="K651" s="53"/>
     </row>
     <row r="652" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A652" s="17"/>
@@ -10593,7 +10817,7 @@
       <c r="H652" s="27"/>
       <c r="I652" s="27"/>
       <c r="J652" s="45"/>
-      <c r="K652" s="54"/>
+      <c r="K652" s="53"/>
     </row>
     <row r="653" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A653" s="17"/>
@@ -10606,7 +10830,7 @@
       <c r="H653" s="27"/>
       <c r="I653" s="27"/>
       <c r="J653" s="45"/>
-      <c r="K653" s="54"/>
+      <c r="K653" s="53"/>
     </row>
     <row r="654" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A654" s="17"/>
@@ -10619,7 +10843,7 @@
       <c r="H654" s="27"/>
       <c r="I654" s="27"/>
       <c r="J654" s="45"/>
-      <c r="K654" s="54"/>
+      <c r="K654" s="53"/>
     </row>
     <row r="655" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A655" s="17"/>
@@ -10632,7 +10856,7 @@
       <c r="H655" s="27"/>
       <c r="I655" s="27"/>
       <c r="J655" s="45"/>
-      <c r="K655" s="54"/>
+      <c r="K655" s="53"/>
     </row>
     <row r="656" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A656" s="17"/>
@@ -10645,7 +10869,7 @@
       <c r="H656" s="27"/>
       <c r="I656" s="27"/>
       <c r="J656" s="45"/>
-      <c r="K656" s="54"/>
+      <c r="K656" s="53"/>
     </row>
     <row r="657" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A657" s="17"/>
@@ -10658,7 +10882,7 @@
       <c r="H657" s="27"/>
       <c r="I657" s="27"/>
       <c r="J657" s="45"/>
-      <c r="K657" s="54"/>
+      <c r="K657" s="53"/>
     </row>
     <row r="658" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A658" s="17"/>
@@ -10671,7 +10895,7 @@
       <c r="H658" s="27"/>
       <c r="I658" s="27"/>
       <c r="J658" s="45"/>
-      <c r="K658" s="54"/>
+      <c r="K658" s="53"/>
     </row>
     <row r="659" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A659" s="17"/>
@@ -10684,7 +10908,7 @@
       <c r="H659" s="27"/>
       <c r="I659" s="27"/>
       <c r="J659" s="45"/>
-      <c r="K659" s="54"/>
+      <c r="K659" s="53"/>
     </row>
     <row r="660" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A660" s="17"/>
@@ -10697,7 +10921,7 @@
       <c r="H660" s="27"/>
       <c r="I660" s="27"/>
       <c r="J660" s="45"/>
-      <c r="K660" s="54"/>
+      <c r="K660" s="53"/>
     </row>
     <row r="661" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A661" s="17"/>
@@ -10710,7 +10934,7 @@
       <c r="H661" s="27"/>
       <c r="I661" s="27"/>
       <c r="J661" s="45"/>
-      <c r="K661" s="54"/>
+      <c r="K661" s="53"/>
     </row>
     <row r="662" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A662" s="17"/>
@@ -10723,7 +10947,7 @@
       <c r="H662" s="27"/>
       <c r="I662" s="27"/>
       <c r="J662" s="45"/>
-      <c r="K662" s="54"/>
+      <c r="K662" s="53"/>
     </row>
     <row r="663" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A663" s="17"/>
@@ -10736,7 +10960,7 @@
       <c r="H663" s="27"/>
       <c r="I663" s="27"/>
       <c r="J663" s="45"/>
-      <c r="K663" s="54"/>
+      <c r="K663" s="53"/>
     </row>
     <row r="664" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A664" s="17"/>
@@ -10749,7 +10973,7 @@
       <c r="H664" s="27"/>
       <c r="I664" s="27"/>
       <c r="J664" s="45"/>
-      <c r="K664" s="54"/>
+      <c r="K664" s="53"/>
     </row>
     <row r="665" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A665" s="17"/>
@@ -10762,7 +10986,7 @@
       <c r="H665" s="27"/>
       <c r="I665" s="27"/>
       <c r="J665" s="45"/>
-      <c r="K665" s="54"/>
+      <c r="K665" s="53"/>
     </row>
     <row r="666" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A666" s="17"/>
@@ -10775,7 +10999,7 @@
       <c r="H666" s="27"/>
       <c r="I666" s="27"/>
       <c r="J666" s="45"/>
-      <c r="K666" s="54"/>
+      <c r="K666" s="53"/>
     </row>
     <row r="667" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A667" s="17"/>
@@ -10788,7 +11012,7 @@
       <c r="H667" s="27"/>
       <c r="I667" s="27"/>
       <c r="J667" s="45"/>
-      <c r="K667" s="54"/>
+      <c r="K667" s="53"/>
     </row>
     <row r="668" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A668" s="17"/>
@@ -10801,7 +11025,7 @@
       <c r="H668" s="27"/>
       <c r="I668" s="27"/>
       <c r="J668" s="45"/>
-      <c r="K668" s="54"/>
+      <c r="K668" s="53"/>
     </row>
     <row r="669" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A669" s="17"/>
@@ -10814,7 +11038,7 @@
       <c r="H669" s="27"/>
       <c r="I669" s="27"/>
       <c r="J669" s="45"/>
-      <c r="K669" s="54"/>
+      <c r="K669" s="53"/>
     </row>
     <row r="670" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A670" s="17"/>
@@ -10827,7 +11051,7 @@
       <c r="H670" s="27"/>
       <c r="I670" s="27"/>
       <c r="J670" s="45"/>
-      <c r="K670" s="54"/>
+      <c r="K670" s="53"/>
     </row>
     <row r="671" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A671" s="17"/>
@@ -10840,7 +11064,7 @@
       <c r="H671" s="27"/>
       <c r="I671" s="27"/>
       <c r="J671" s="45"/>
-      <c r="K671" s="54"/>
+      <c r="K671" s="53"/>
     </row>
     <row r="672" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A672" s="17"/>
@@ -10853,7 +11077,7 @@
       <c r="H672" s="27"/>
       <c r="I672" s="27"/>
       <c r="J672" s="45"/>
-      <c r="K672" s="54"/>
+      <c r="K672" s="53"/>
     </row>
     <row r="673" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A673" s="17"/>
@@ -10866,7 +11090,7 @@
       <c r="H673" s="27"/>
       <c r="I673" s="27"/>
       <c r="J673" s="45"/>
-      <c r="K673" s="54"/>
+      <c r="K673" s="53"/>
     </row>
     <row r="674" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A674" s="17"/>
@@ -10879,7 +11103,7 @@
       <c r="H674" s="27"/>
       <c r="I674" s="27"/>
       <c r="J674" s="45"/>
-      <c r="K674" s="54"/>
+      <c r="K674" s="53"/>
     </row>
     <row r="675" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A675" s="17"/>
@@ -10892,7 +11116,7 @@
       <c r="H675" s="27"/>
       <c r="I675" s="27"/>
       <c r="J675" s="45"/>
-      <c r="K675" s="54"/>
+      <c r="K675" s="53"/>
     </row>
     <row r="676" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A676" s="17"/>
@@ -10905,7 +11129,7 @@
       <c r="H676" s="27"/>
       <c r="I676" s="27"/>
       <c r="J676" s="45"/>
-      <c r="K676" s="54"/>
+      <c r="K676" s="53"/>
     </row>
     <row r="677" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A677" s="17"/>
@@ -10918,7 +11142,7 @@
       <c r="H677" s="27"/>
       <c r="I677" s="27"/>
       <c r="J677" s="45"/>
-      <c r="K677" s="54"/>
+      <c r="K677" s="53"/>
     </row>
     <row r="678" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A678" s="17"/>
@@ -10931,7 +11155,7 @@
       <c r="H678" s="27"/>
       <c r="I678" s="27"/>
       <c r="J678" s="45"/>
-      <c r="K678" s="54"/>
+      <c r="K678" s="53"/>
     </row>
     <row r="679" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A679" s="17"/>
@@ -10944,7 +11168,7 @@
       <c r="H679" s="27"/>
       <c r="I679" s="27"/>
       <c r="J679" s="45"/>
-      <c r="K679" s="54"/>
+      <c r="K679" s="53"/>
     </row>
     <row r="680" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A680" s="17"/>
@@ -10957,7 +11181,7 @@
       <c r="H680" s="27"/>
       <c r="I680" s="27"/>
       <c r="J680" s="45"/>
-      <c r="K680" s="54"/>
+      <c r="K680" s="53"/>
     </row>
     <row r="681" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A681" s="17"/>
@@ -10970,7 +11194,7 @@
       <c r="H681" s="27"/>
       <c r="I681" s="27"/>
       <c r="J681" s="45"/>
-      <c r="K681" s="54"/>
+      <c r="K681" s="53"/>
     </row>
     <row r="682" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A682" s="17"/>
@@ -10983,7 +11207,7 @@
       <c r="H682" s="27"/>
       <c r="I682" s="27"/>
       <c r="J682" s="45"/>
-      <c r="K682" s="54"/>
+      <c r="K682" s="53"/>
     </row>
     <row r="683" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A683" s="17"/>
@@ -10996,7 +11220,7 @@
       <c r="H683" s="27"/>
       <c r="I683" s="27"/>
       <c r="J683" s="45"/>
-      <c r="K683" s="54"/>
+      <c r="K683" s="53"/>
     </row>
     <row r="684" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A684" s="17"/>
@@ -11009,7 +11233,7 @@
       <c r="H684" s="27"/>
       <c r="I684" s="27"/>
       <c r="J684" s="45"/>
-      <c r="K684" s="54"/>
+      <c r="K684" s="53"/>
     </row>
     <row r="685" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A685" s="17"/>
@@ -11022,7 +11246,7 @@
       <c r="H685" s="27"/>
       <c r="I685" s="27"/>
       <c r="J685" s="45"/>
-      <c r="K685" s="54"/>
+      <c r="K685" s="53"/>
     </row>
     <row r="686" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A686" s="17"/>
@@ -11035,7 +11259,7 @@
       <c r="H686" s="27"/>
       <c r="I686" s="27"/>
       <c r="J686" s="45"/>
-      <c r="K686" s="54"/>
+      <c r="K686" s="53"/>
     </row>
     <row r="687" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A687" s="17"/>
@@ -11048,7 +11272,7 @@
       <c r="H687" s="27"/>
       <c r="I687" s="27"/>
       <c r="J687" s="45"/>
-      <c r="K687" s="54"/>
+      <c r="K687" s="53"/>
     </row>
     <row r="688" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A688" s="17"/>
@@ -11061,7 +11285,7 @@
       <c r="H688" s="27"/>
       <c r="I688" s="27"/>
       <c r="J688" s="45"/>
-      <c r="K688" s="54"/>
+      <c r="K688" s="53"/>
     </row>
     <row r="689" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A689" s="17"/>
@@ -11074,7 +11298,7 @@
       <c r="H689" s="27"/>
       <c r="I689" s="27"/>
       <c r="J689" s="45"/>
-      <c r="K689" s="54"/>
+      <c r="K689" s="53"/>
     </row>
     <row r="690" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A690" s="17"/>
@@ -11087,7 +11311,7 @@
       <c r="H690" s="27"/>
       <c r="I690" s="27"/>
       <c r="J690" s="45"/>
-      <c r="K690" s="54"/>
+      <c r="K690" s="53"/>
     </row>
     <row r="691" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A691" s="17"/>
@@ -11100,7 +11324,7 @@
       <c r="H691" s="27"/>
       <c r="I691" s="27"/>
       <c r="J691" s="45"/>
-      <c r="K691" s="54"/>
+      <c r="K691" s="53"/>
     </row>
     <row r="692" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A692" s="17"/>
@@ -11113,7 +11337,7 @@
       <c r="H692" s="27"/>
       <c r="I692" s="27"/>
       <c r="J692" s="45"/>
-      <c r="K692" s="54"/>
+      <c r="K692" s="53"/>
     </row>
     <row r="693" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A693" s="17"/>
@@ -11126,7 +11350,7 @@
       <c r="H693" s="27"/>
       <c r="I693" s="27"/>
       <c r="J693" s="45"/>
-      <c r="K693" s="54"/>
+      <c r="K693" s="53"/>
     </row>
     <row r="694" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A694" s="17"/>
@@ -11139,7 +11363,7 @@
       <c r="H694" s="27"/>
       <c r="I694" s="27"/>
       <c r="J694" s="45"/>
-      <c r="K694" s="54"/>
+      <c r="K694" s="53"/>
     </row>
     <row r="695" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A695" s="17"/>
@@ -11152,7 +11376,7 @@
       <c r="H695" s="27"/>
       <c r="I695" s="27"/>
       <c r="J695" s="45"/>
-      <c r="K695" s="54"/>
+      <c r="K695" s="53"/>
     </row>
     <row r="696" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A696" s="17"/>
@@ -11165,7 +11389,7 @@
       <c r="H696" s="27"/>
       <c r="I696" s="27"/>
       <c r="J696" s="45"/>
-      <c r="K696" s="54"/>
+      <c r="K696" s="53"/>
     </row>
     <row r="697" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A697" s="17"/>
@@ -11178,7 +11402,7 @@
       <c r="H697" s="27"/>
       <c r="I697" s="27"/>
       <c r="J697" s="45"/>
-      <c r="K697" s="54"/>
+      <c r="K697" s="53"/>
     </row>
     <row r="698" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A698" s="17"/>
@@ -11191,7 +11415,7 @@
       <c r="H698" s="27"/>
       <c r="I698" s="27"/>
       <c r="J698" s="45"/>
-      <c r="K698" s="54"/>
+      <c r="K698" s="53"/>
     </row>
     <row r="699" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A699" s="17"/>
@@ -11204,7 +11428,7 @@
       <c r="H699" s="27"/>
       <c r="I699" s="27"/>
       <c r="J699" s="45"/>
-      <c r="K699" s="54"/>
+      <c r="K699" s="53"/>
     </row>
     <row r="700" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A700" s="17"/>
@@ -11217,7 +11441,7 @@
       <c r="H700" s="27"/>
       <c r="I700" s="27"/>
       <c r="J700" s="45"/>
-      <c r="K700" s="54"/>
+      <c r="K700" s="53"/>
     </row>
     <row r="701" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A701" s="17"/>
@@ -11230,7 +11454,7 @@
       <c r="H701" s="27"/>
       <c r="I701" s="27"/>
       <c r="J701" s="45"/>
-      <c r="K701" s="54"/>
+      <c r="K701" s="53"/>
     </row>
     <row r="702" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A702" s="17"/>
@@ -11243,7 +11467,7 @@
       <c r="H702" s="27"/>
       <c r="I702" s="27"/>
       <c r="J702" s="45"/>
-      <c r="K702" s="54"/>
+      <c r="K702" s="53"/>
     </row>
     <row r="703" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A703" s="17"/>
@@ -11256,7 +11480,7 @@
       <c r="H703" s="27"/>
       <c r="I703" s="27"/>
       <c r="J703" s="45"/>
-      <c r="K703" s="54"/>
+      <c r="K703" s="53"/>
     </row>
     <row r="704" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A704" s="17"/>
@@ -11269,7 +11493,7 @@
       <c r="H704" s="27"/>
       <c r="I704" s="27"/>
       <c r="J704" s="45"/>
-      <c r="K704" s="54"/>
+      <c r="K704" s="53"/>
     </row>
     <row r="705" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A705" s="17"/>
@@ -11282,7 +11506,7 @@
       <c r="H705" s="27"/>
       <c r="I705" s="27"/>
       <c r="J705" s="45"/>
-      <c r="K705" s="54"/>
+      <c r="K705" s="53"/>
     </row>
     <row r="706" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A706" s="17"/>
@@ -11295,7 +11519,7 @@
       <c r="H706" s="27"/>
       <c r="I706" s="27"/>
       <c r="J706" s="45"/>
-      <c r="K706" s="54"/>
+      <c r="K706" s="53"/>
     </row>
     <row r="707" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A707" s="17"/>
@@ -11308,7 +11532,7 @@
       <c r="H707" s="27"/>
       <c r="I707" s="27"/>
       <c r="J707" s="45"/>
-      <c r="K707" s="54"/>
+      <c r="K707" s="53"/>
     </row>
     <row r="708" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A708" s="17"/>
@@ -11321,7 +11545,7 @@
       <c r="H708" s="27"/>
       <c r="I708" s="27"/>
       <c r="J708" s="45"/>
-      <c r="K708" s="54"/>
+      <c r="K708" s="53"/>
     </row>
     <row r="709" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A709" s="17"/>
@@ -11334,7 +11558,7 @@
       <c r="H709" s="27"/>
       <c r="I709" s="27"/>
       <c r="J709" s="45"/>
-      <c r="K709" s="54"/>
+      <c r="K709" s="53"/>
     </row>
     <row r="710" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A710" s="17"/>
@@ -11347,7 +11571,7 @@
       <c r="H710" s="27"/>
       <c r="I710" s="27"/>
       <c r="J710" s="45"/>
-      <c r="K710" s="54"/>
+      <c r="K710" s="53"/>
     </row>
     <row r="711" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A711" s="17"/>
@@ -11360,7 +11584,7 @@
       <c r="H711" s="27"/>
       <c r="I711" s="27"/>
       <c r="J711" s="45"/>
-      <c r="K711" s="54"/>
+      <c r="K711" s="53"/>
     </row>
     <row r="712" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A712" s="17"/>
@@ -11373,7 +11597,7 @@
       <c r="H712" s="27"/>
       <c r="I712" s="27"/>
       <c r="J712" s="45"/>
-      <c r="K712" s="54"/>
+      <c r="K712" s="53"/>
     </row>
     <row r="713" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A713" s="17"/>
@@ -11386,7 +11610,7 @@
       <c r="H713" s="27"/>
       <c r="I713" s="27"/>
       <c r="J713" s="45"/>
-      <c r="K713" s="54"/>
+      <c r="K713" s="53"/>
     </row>
     <row r="714" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A714" s="17"/>
@@ -11399,7 +11623,7 @@
       <c r="H714" s="27"/>
       <c r="I714" s="27"/>
       <c r="J714" s="45"/>
-      <c r="K714" s="54"/>
+      <c r="K714" s="53"/>
     </row>
     <row r="715" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A715" s="17"/>
@@ -11412,7 +11636,7 @@
       <c r="H715" s="27"/>
       <c r="I715" s="27"/>
       <c r="J715" s="45"/>
-      <c r="K715" s="54"/>
+      <c r="K715" s="53"/>
     </row>
     <row r="716" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A716" s="17"/>
@@ -11425,7 +11649,7 @@
       <c r="H716" s="27"/>
       <c r="I716" s="27"/>
       <c r="J716" s="45"/>
-      <c r="K716" s="54"/>
+      <c r="K716" s="53"/>
     </row>
     <row r="717" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A717" s="17"/>
@@ -11438,7 +11662,7 @@
       <c r="H717" s="27"/>
       <c r="I717" s="27"/>
       <c r="J717" s="45"/>
-      <c r="K717" s="54"/>
+      <c r="K717" s="53"/>
     </row>
     <row r="718" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A718" s="17"/>
@@ -11451,7 +11675,7 @@
       <c r="H718" s="27"/>
       <c r="I718" s="27"/>
       <c r="J718" s="45"/>
-      <c r="K718" s="54"/>
+      <c r="K718" s="53"/>
     </row>
     <row r="719" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A719" s="17"/>
@@ -11464,7 +11688,7 @@
       <c r="H719" s="27"/>
       <c r="I719" s="27"/>
       <c r="J719" s="45"/>
-      <c r="K719" s="54"/>
+      <c r="K719" s="53"/>
     </row>
     <row r="720" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A720" s="17"/>
@@ -11477,7 +11701,7 @@
       <c r="H720" s="27"/>
       <c r="I720" s="27"/>
       <c r="J720" s="45"/>
-      <c r="K720" s="54"/>
+      <c r="K720" s="53"/>
     </row>
     <row r="721" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A721" s="17"/>
@@ -11490,7 +11714,7 @@
       <c r="H721" s="27"/>
       <c r="I721" s="27"/>
       <c r="J721" s="45"/>
-      <c r="K721" s="54"/>
+      <c r="K721" s="53"/>
     </row>
     <row r="722" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A722" s="17"/>
@@ -11503,7 +11727,7 @@
       <c r="H722" s="27"/>
       <c r="I722" s="27"/>
       <c r="J722" s="45"/>
-      <c r="K722" s="54"/>
+      <c r="K722" s="53"/>
     </row>
     <row r="723" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A723" s="17"/>
@@ -11516,7 +11740,7 @@
       <c r="H723" s="27"/>
       <c r="I723" s="27"/>
       <c r="J723" s="45"/>
-      <c r="K723" s="54"/>
+      <c r="K723" s="53"/>
     </row>
     <row r="724" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A724" s="17"/>
@@ -11529,7 +11753,7 @@
       <c r="H724" s="27"/>
       <c r="I724" s="27"/>
       <c r="J724" s="45"/>
-      <c r="K724" s="54"/>
+      <c r="K724" s="53"/>
     </row>
     <row r="725" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A725" s="17"/>
@@ -11542,7 +11766,7 @@
       <c r="H725" s="27"/>
       <c r="I725" s="27"/>
       <c r="J725" s="45"/>
-      <c r="K725" s="54"/>
+      <c r="K725" s="53"/>
     </row>
     <row r="726" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A726" s="17"/>
@@ -11555,7 +11779,7 @@
       <c r="H726" s="27"/>
       <c r="I726" s="27"/>
       <c r="J726" s="45"/>
-      <c r="K726" s="54"/>
+      <c r="K726" s="53"/>
     </row>
     <row r="727" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A727" s="17"/>
@@ -11568,7 +11792,7 @@
       <c r="H727" s="27"/>
       <c r="I727" s="27"/>
       <c r="J727" s="45"/>
-      <c r="K727" s="54"/>
+      <c r="K727" s="53"/>
     </row>
     <row r="728" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A728" s="17"/>
@@ -11581,7 +11805,7 @@
       <c r="H728" s="27"/>
       <c r="I728" s="27"/>
       <c r="J728" s="45"/>
-      <c r="K728" s="54"/>
+      <c r="K728" s="53"/>
     </row>
     <row r="729" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A729" s="17"/>
@@ -11594,7 +11818,7 @@
       <c r="H729" s="27"/>
       <c r="I729" s="27"/>
       <c r="J729" s="45"/>
-      <c r="K729" s="54"/>
+      <c r="K729" s="53"/>
     </row>
     <row r="730" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A730" s="17"/>
@@ -11607,7 +11831,7 @@
       <c r="H730" s="27"/>
       <c r="I730" s="27"/>
       <c r="J730" s="45"/>
-      <c r="K730" s="54"/>
+      <c r="K730" s="53"/>
     </row>
     <row r="731" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A731" s="17"/>
@@ -11620,7 +11844,7 @@
       <c r="H731" s="27"/>
       <c r="I731" s="27"/>
       <c r="J731" s="45"/>
-      <c r="K731" s="54"/>
+      <c r="K731" s="53"/>
     </row>
     <row r="732" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A732" s="17"/>
@@ -11633,7 +11857,7 @@
       <c r="H732" s="27"/>
       <c r="I732" s="27"/>
       <c r="J732" s="45"/>
-      <c r="K732" s="54"/>
+      <c r="K732" s="53"/>
     </row>
     <row r="733" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A733" s="17"/>
@@ -11646,7 +11870,7 @@
       <c r="H733" s="27"/>
       <c r="I733" s="27"/>
       <c r="J733" s="45"/>
-      <c r="K733" s="54"/>
+      <c r="K733" s="53"/>
     </row>
     <row r="734" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A734" s="17"/>
@@ -11659,7 +11883,7 @@
       <c r="H734" s="27"/>
       <c r="I734" s="27"/>
       <c r="J734" s="45"/>
-      <c r="K734" s="54"/>
+      <c r="K734" s="53"/>
     </row>
     <row r="735" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A735" s="17"/>
@@ -11672,7 +11896,7 @@
       <c r="H735" s="27"/>
       <c r="I735" s="27"/>
       <c r="J735" s="45"/>
-      <c r="K735" s="54"/>
+      <c r="K735" s="53"/>
     </row>
     <row r="736" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A736" s="17"/>
@@ -11685,7 +11909,7 @@
       <c r="H736" s="27"/>
       <c r="I736" s="27"/>
       <c r="J736" s="45"/>
-      <c r="K736" s="54"/>
+      <c r="K736" s="53"/>
     </row>
     <row r="737" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A737" s="17"/>
@@ -11698,7 +11922,7 @@
       <c r="H737" s="27"/>
       <c r="I737" s="27"/>
       <c r="J737" s="45"/>
-      <c r="K737" s="54"/>
+      <c r="K737" s="53"/>
     </row>
     <row r="738" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A738" s="17"/>
@@ -11711,7 +11935,7 @@
       <c r="H738" s="27"/>
       <c r="I738" s="27"/>
       <c r="J738" s="45"/>
-      <c r="K738" s="54"/>
+      <c r="K738" s="53"/>
     </row>
     <row r="739" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A739" s="17"/>
@@ -11724,7 +11948,7 @@
       <c r="H739" s="27"/>
       <c r="I739" s="27"/>
       <c r="J739" s="45"/>
-      <c r="K739" s="54"/>
+      <c r="K739" s="53"/>
     </row>
     <row r="740" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A740" s="17"/>
@@ -11737,7 +11961,7 @@
       <c r="H740" s="27"/>
       <c r="I740" s="27"/>
       <c r="J740" s="45"/>
-      <c r="K740" s="54"/>
+      <c r="K740" s="53"/>
     </row>
     <row r="741" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A741" s="17"/>
@@ -11750,7 +11974,7 @@
       <c r="H741" s="27"/>
       <c r="I741" s="27"/>
       <c r="J741" s="45"/>
-      <c r="K741" s="54"/>
+      <c r="K741" s="53"/>
     </row>
     <row r="742" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A742" s="17"/>
@@ -11763,7 +11987,7 @@
       <c r="H742" s="27"/>
       <c r="I742" s="27"/>
       <c r="J742" s="45"/>
-      <c r="K742" s="54"/>
+      <c r="K742" s="53"/>
     </row>
     <row r="743" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A743" s="17"/>
@@ -11776,7 +12000,7 @@
       <c r="H743" s="27"/>
       <c r="I743" s="27"/>
       <c r="J743" s="45"/>
-      <c r="K743" s="54"/>
+      <c r="K743" s="53"/>
     </row>
     <row r="744" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A744" s="17"/>
@@ -11789,7 +12013,7 @@
       <c r="H744" s="27"/>
       <c r="I744" s="27"/>
       <c r="J744" s="45"/>
-      <c r="K744" s="54"/>
+      <c r="K744" s="53"/>
     </row>
     <row r="745" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A745" s="17"/>
@@ -11802,7 +12026,7 @@
       <c r="H745" s="27"/>
       <c r="I745" s="27"/>
       <c r="J745" s="45"/>
-      <c r="K745" s="54"/>
+      <c r="K745" s="53"/>
     </row>
     <row r="746" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A746" s="17"/>
@@ -11815,7 +12039,7 @@
       <c r="H746" s="27"/>
       <c r="I746" s="27"/>
       <c r="J746" s="45"/>
-      <c r="K746" s="54"/>
+      <c r="K746" s="53"/>
     </row>
     <row r="747" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A747" s="17"/>
@@ -11828,7 +12052,7 @@
       <c r="H747" s="27"/>
       <c r="I747" s="27"/>
       <c r="J747" s="45"/>
-      <c r="K747" s="54"/>
+      <c r="K747" s="53"/>
     </row>
     <row r="748" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A748" s="17"/>
@@ -11841,7 +12065,7 @@
       <c r="H748" s="27"/>
       <c r="I748" s="27"/>
       <c r="J748" s="45"/>
-      <c r="K748" s="54"/>
+      <c r="K748" s="53"/>
     </row>
     <row r="749" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A749" s="17"/>
@@ -11854,7 +12078,7 @@
       <c r="H749" s="27"/>
       <c r="I749" s="27"/>
       <c r="J749" s="45"/>
-      <c r="K749" s="54"/>
+      <c r="K749" s="53"/>
     </row>
     <row r="750" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A750" s="17"/>
@@ -11867,7 +12091,7 @@
       <c r="H750" s="27"/>
       <c r="I750" s="27"/>
       <c r="J750" s="45"/>
-      <c r="K750" s="54"/>
+      <c r="K750" s="53"/>
     </row>
     <row r="751" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A751" s="17"/>
@@ -11880,7 +12104,7 @@
       <c r="H751" s="27"/>
       <c r="I751" s="27"/>
       <c r="J751" s="45"/>
-      <c r="K751" s="54"/>
+      <c r="K751" s="53"/>
     </row>
     <row r="752" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A752" s="17"/>
@@ -11893,7 +12117,7 @@
       <c r="H752" s="27"/>
       <c r="I752" s="27"/>
       <c r="J752" s="45"/>
-      <c r="K752" s="54"/>
+      <c r="K752" s="53"/>
     </row>
     <row r="753" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A753" s="17"/>
@@ -11906,7 +12130,7 @@
       <c r="H753" s="27"/>
       <c r="I753" s="27"/>
       <c r="J753" s="45"/>
-      <c r="K753" s="54"/>
+      <c r="K753" s="53"/>
     </row>
     <row r="754" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A754" s="17"/>
@@ -11919,7 +12143,7 @@
       <c r="H754" s="27"/>
       <c r="I754" s="27"/>
       <c r="J754" s="45"/>
-      <c r="K754" s="54"/>
+      <c r="K754" s="53"/>
     </row>
     <row r="755" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A755" s="17"/>
@@ -11932,7 +12156,7 @@
       <c r="H755" s="27"/>
       <c r="I755" s="27"/>
       <c r="J755" s="45"/>
-      <c r="K755" s="54"/>
+      <c r="K755" s="53"/>
     </row>
     <row r="756" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A756" s="17"/>
@@ -11945,7 +12169,7 @@
       <c r="H756" s="27"/>
       <c r="I756" s="27"/>
       <c r="J756" s="45"/>
-      <c r="K756" s="54"/>
+      <c r="K756" s="53"/>
     </row>
     <row r="757" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A757" s="17"/>
@@ -11958,7 +12182,7 @@
       <c r="H757" s="27"/>
       <c r="I757" s="27"/>
       <c r="J757" s="45"/>
-      <c r="K757" s="54"/>
+      <c r="K757" s="53"/>
     </row>
     <row r="758" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A758" s="17"/>
@@ -11971,7 +12195,7 @@
       <c r="H758" s="27"/>
       <c r="I758" s="27"/>
       <c r="J758" s="45"/>
-      <c r="K758" s="54"/>
+      <c r="K758" s="53"/>
     </row>
     <row r="759" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A759" s="17"/>
@@ -11984,7 +12208,7 @@
       <c r="H759" s="27"/>
       <c r="I759" s="27"/>
       <c r="J759" s="45"/>
-      <c r="K759" s="54"/>
+      <c r="K759" s="53"/>
     </row>
     <row r="760" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A760" s="17"/>
@@ -11997,7 +12221,7 @@
       <c r="H760" s="27"/>
       <c r="I760" s="27"/>
       <c r="J760" s="45"/>
-      <c r="K760" s="54"/>
+      <c r="K760" s="53"/>
     </row>
     <row r="761" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A761" s="17"/>
@@ -12010,7 +12234,7 @@
       <c r="H761" s="27"/>
       <c r="I761" s="27"/>
       <c r="J761" s="45"/>
-      <c r="K761" s="54"/>
+      <c r="K761" s="53"/>
     </row>
     <row r="762" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A762" s="17"/>
@@ -12023,7 +12247,7 @@
       <c r="H762" s="27"/>
       <c r="I762" s="27"/>
       <c r="J762" s="45"/>
-      <c r="K762" s="54"/>
+      <c r="K762" s="53"/>
     </row>
     <row r="763" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A763" s="17"/>
@@ -12036,7 +12260,7 @@
       <c r="H763" s="27"/>
       <c r="I763" s="27"/>
       <c r="J763" s="45"/>
-      <c r="K763" s="54"/>
+      <c r="K763" s="53"/>
     </row>
     <row r="764" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A764" s="17"/>
@@ -12049,7 +12273,7 @@
       <c r="H764" s="27"/>
       <c r="I764" s="27"/>
       <c r="J764" s="45"/>
-      <c r="K764" s="54"/>
+      <c r="K764" s="53"/>
     </row>
     <row r="765" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A765" s="17"/>
@@ -12062,7 +12286,7 @@
       <c r="H765" s="27"/>
       <c r="I765" s="27"/>
       <c r="J765" s="45"/>
-      <c r="K765" s="54"/>
+      <c r="K765" s="53"/>
     </row>
     <row r="766" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A766" s="17"/>
@@ -12075,7 +12299,7 @@
       <c r="H766" s="27"/>
       <c r="I766" s="27"/>
       <c r="J766" s="45"/>
-      <c r="K766" s="54"/>
+      <c r="K766" s="53"/>
     </row>
     <row r="767" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A767" s="17"/>
@@ -12088,7 +12312,7 @@
       <c r="H767" s="27"/>
       <c r="I767" s="27"/>
       <c r="J767" s="45"/>
-      <c r="K767" s="54"/>
+      <c r="K767" s="53"/>
     </row>
     <row r="768" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A768" s="17"/>
@@ -12101,7 +12325,7 @@
       <c r="H768" s="27"/>
       <c r="I768" s="27"/>
       <c r="J768" s="45"/>
-      <c r="K768" s="54"/>
+      <c r="K768" s="53"/>
     </row>
     <row r="769" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A769" s="17"/>
@@ -12114,7 +12338,7 @@
       <c r="H769" s="27"/>
       <c r="I769" s="27"/>
       <c r="J769" s="45"/>
-      <c r="K769" s="54"/>
+      <c r="K769" s="53"/>
     </row>
     <row r="770" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A770" s="17"/>
@@ -12127,7 +12351,7 @@
       <c r="H770" s="27"/>
       <c r="I770" s="27"/>
       <c r="J770" s="45"/>
-      <c r="K770" s="54"/>
+      <c r="K770" s="53"/>
     </row>
     <row r="771" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A771" s="17"/>
@@ -12140,7 +12364,7 @@
       <c r="H771" s="27"/>
       <c r="I771" s="27"/>
       <c r="J771" s="45"/>
-      <c r="K771" s="54"/>
+      <c r="K771" s="53"/>
     </row>
     <row r="772" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A772" s="17"/>
@@ -12153,7 +12377,7 @@
       <c r="H772" s="27"/>
       <c r="I772" s="27"/>
       <c r="J772" s="45"/>
-      <c r="K772" s="54"/>
+      <c r="K772" s="53"/>
     </row>
     <row r="773" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A773" s="17"/>
@@ -12166,7 +12390,7 @@
       <c r="H773" s="27"/>
       <c r="I773" s="27"/>
       <c r="J773" s="45"/>
-      <c r="K773" s="54"/>
+      <c r="K773" s="53"/>
     </row>
     <row r="774" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A774" s="17"/>
@@ -12179,7 +12403,7 @@
       <c r="H774" s="27"/>
       <c r="I774" s="27"/>
       <c r="J774" s="45"/>
-      <c r="K774" s="54"/>
+      <c r="K774" s="53"/>
     </row>
     <row r="775" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A775" s="17"/>
@@ -12192,7 +12416,7 @@
       <c r="H775" s="27"/>
       <c r="I775" s="27"/>
       <c r="J775" s="45"/>
-      <c r="K775" s="54"/>
+      <c r="K775" s="53"/>
     </row>
     <row r="776" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A776" s="17"/>
@@ -12205,7 +12429,7 @@
       <c r="H776" s="27"/>
       <c r="I776" s="27"/>
       <c r="J776" s="45"/>
-      <c r="K776" s="54"/>
+      <c r="K776" s="53"/>
     </row>
     <row r="777" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A777" s="17"/>
@@ -12218,7 +12442,7 @@
       <c r="H777" s="27"/>
       <c r="I777" s="27"/>
       <c r="J777" s="45"/>
-      <c r="K777" s="54"/>
+      <c r="K777" s="53"/>
     </row>
     <row r="778" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A778" s="17"/>
@@ -12231,7 +12455,7 @@
       <c r="H778" s="27"/>
       <c r="I778" s="27"/>
       <c r="J778" s="45"/>
-      <c r="K778" s="54"/>
+      <c r="K778" s="53"/>
     </row>
     <row r="779" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A779" s="17"/>
@@ -12244,7 +12468,7 @@
       <c r="H779" s="27"/>
       <c r="I779" s="27"/>
       <c r="J779" s="45"/>
-      <c r="K779" s="54"/>
+      <c r="K779" s="53"/>
     </row>
     <row r="780" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A780" s="17"/>
@@ -12257,7 +12481,7 @@
       <c r="H780" s="27"/>
       <c r="I780" s="27"/>
       <c r="J780" s="45"/>
-      <c r="K780" s="54"/>
+      <c r="K780" s="53"/>
     </row>
     <row r="781" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A781" s="17"/>
@@ -12270,7 +12494,7 @@
       <c r="H781" s="27"/>
       <c r="I781" s="27"/>
       <c r="J781" s="45"/>
-      <c r="K781" s="54"/>
+      <c r="K781" s="53"/>
     </row>
     <row r="782" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A782" s="17"/>
@@ -12283,7 +12507,7 @@
       <c r="H782" s="27"/>
       <c r="I782" s="27"/>
       <c r="J782" s="45"/>
-      <c r="K782" s="54"/>
+      <c r="K782" s="53"/>
     </row>
     <row r="783" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A783" s="17"/>
@@ -12296,7 +12520,7 @@
       <c r="H783" s="27"/>
       <c r="I783" s="27"/>
       <c r="J783" s="45"/>
-      <c r="K783" s="54"/>
+      <c r="K783" s="53"/>
     </row>
     <row r="784" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A784" s="17"/>
@@ -12309,7 +12533,7 @@
       <c r="H784" s="27"/>
       <c r="I784" s="27"/>
       <c r="J784" s="45"/>
-      <c r="K784" s="54"/>
+      <c r="K784" s="53"/>
     </row>
     <row r="785" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A785" s="17"/>
@@ -12322,7 +12546,7 @@
       <c r="H785" s="27"/>
       <c r="I785" s="27"/>
       <c r="J785" s="45"/>
-      <c r="K785" s="54"/>
+      <c r="K785" s="53"/>
     </row>
     <row r="786" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A786" s="17"/>
@@ -12335,7 +12559,7 @@
       <c r="H786" s="27"/>
       <c r="I786" s="27"/>
       <c r="J786" s="45"/>
-      <c r="K786" s="54"/>
+      <c r="K786" s="53"/>
     </row>
     <row r="787" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A787" s="17"/>
@@ -12348,7 +12572,7 @@
       <c r="H787" s="27"/>
       <c r="I787" s="27"/>
       <c r="J787" s="45"/>
-      <c r="K787" s="54"/>
+      <c r="K787" s="53"/>
     </row>
     <row r="788" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A788" s="17"/>
@@ -12361,7 +12585,7 @@
       <c r="H788" s="27"/>
       <c r="I788" s="27"/>
       <c r="J788" s="45"/>
-      <c r="K788" s="54"/>
+      <c r="K788" s="53"/>
     </row>
     <row r="789" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A789" s="17"/>
@@ -12374,7 +12598,7 @@
       <c r="H789" s="27"/>
       <c r="I789" s="27"/>
       <c r="J789" s="45"/>
-      <c r="K789" s="54"/>
+      <c r="K789" s="53"/>
     </row>
     <row r="790" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A790" s="17"/>
@@ -12387,7 +12611,7 @@
       <c r="H790" s="27"/>
       <c r="I790" s="27"/>
       <c r="J790" s="45"/>
-      <c r="K790" s="54"/>
+      <c r="K790" s="53"/>
     </row>
     <row r="791" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A791" s="17"/>
@@ -12400,7 +12624,7 @@
       <c r="H791" s="27"/>
       <c r="I791" s="27"/>
       <c r="J791" s="45"/>
-      <c r="K791" s="54"/>
+      <c r="K791" s="53"/>
     </row>
     <row r="792" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A792" s="17"/>
@@ -12413,7 +12637,7 @@
       <c r="H792" s="27"/>
       <c r="I792" s="27"/>
       <c r="J792" s="45"/>
-      <c r="K792" s="54"/>
+      <c r="K792" s="53"/>
     </row>
     <row r="793" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A793" s="17"/>
@@ -12426,7 +12650,7 @@
       <c r="H793" s="27"/>
       <c r="I793" s="27"/>
       <c r="J793" s="45"/>
-      <c r="K793" s="54"/>
+      <c r="K793" s="53"/>
     </row>
     <row r="794" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A794" s="17"/>
@@ -12439,7 +12663,7 @@
       <c r="H794" s="27"/>
       <c r="I794" s="27"/>
       <c r="J794" s="45"/>
-      <c r="K794" s="54"/>
+      <c r="K794" s="53"/>
     </row>
     <row r="795" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A795" s="17"/>
@@ -12452,7 +12676,7 @@
       <c r="H795" s="27"/>
       <c r="I795" s="27"/>
       <c r="J795" s="45"/>
-      <c r="K795" s="54"/>
+      <c r="K795" s="53"/>
     </row>
     <row r="796" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A796" s="17"/>
@@ -12465,7 +12689,7 @@
       <c r="H796" s="27"/>
       <c r="I796" s="27"/>
       <c r="J796" s="45"/>
-      <c r="K796" s="54"/>
+      <c r="K796" s="53"/>
     </row>
     <row r="797" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A797" s="17"/>
@@ -12478,7 +12702,7 @@
       <c r="H797" s="27"/>
       <c r="I797" s="27"/>
       <c r="J797" s="45"/>
-      <c r="K797" s="54"/>
+      <c r="K797" s="53"/>
     </row>
     <row r="798" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A798" s="17"/>
@@ -12491,7 +12715,7 @@
       <c r="H798" s="27"/>
       <c r="I798" s="27"/>
       <c r="J798" s="45"/>
-      <c r="K798" s="54"/>
+      <c r="K798" s="53"/>
     </row>
     <row r="799" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A799" s="17"/>
@@ -12504,7 +12728,7 @@
       <c r="H799" s="27"/>
       <c r="I799" s="27"/>
       <c r="J799" s="45"/>
-      <c r="K799" s="54"/>
+      <c r="K799" s="53"/>
     </row>
     <row r="800" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A800" s="17"/>
@@ -12517,7 +12741,7 @@
       <c r="H800" s="27"/>
       <c r="I800" s="27"/>
       <c r="J800" s="45"/>
-      <c r="K800" s="54"/>
+      <c r="K800" s="53"/>
     </row>
     <row r="801" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A801" s="17"/>
@@ -12530,7 +12754,7 @@
       <c r="H801" s="27"/>
       <c r="I801" s="27"/>
       <c r="J801" s="45"/>
-      <c r="K801" s="54"/>
+      <c r="K801" s="53"/>
     </row>
     <row r="802" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A802" s="17"/>
@@ -12543,7 +12767,7 @@
       <c r="H802" s="27"/>
       <c r="I802" s="27"/>
       <c r="J802" s="45"/>
-      <c r="K802" s="54"/>
+      <c r="K802" s="53"/>
     </row>
     <row r="803" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A803" s="17"/>
@@ -12556,7 +12780,7 @@
       <c r="H803" s="27"/>
       <c r="I803" s="27"/>
       <c r="J803" s="45"/>
-      <c r="K803" s="54"/>
+      <c r="K803" s="53"/>
     </row>
     <row r="804" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A804" s="17"/>
@@ -12569,7 +12793,7 @@
       <c r="H804" s="27"/>
       <c r="I804" s="27"/>
       <c r="J804" s="45"/>
-      <c r="K804" s="54"/>
+      <c r="K804" s="53"/>
     </row>
     <row r="805" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A805" s="17"/>
@@ -12582,7 +12806,7 @@
       <c r="H805" s="27"/>
       <c r="I805" s="27"/>
       <c r="J805" s="45"/>
-      <c r="K805" s="54"/>
+      <c r="K805" s="53"/>
     </row>
     <row r="806" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A806" s="17"/>
@@ -12595,7 +12819,7 @@
       <c r="H806" s="27"/>
       <c r="I806" s="27"/>
       <c r="J806" s="45"/>
-      <c r="K806" s="54"/>
+      <c r="K806" s="53"/>
     </row>
     <row r="807" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A807" s="17"/>
@@ -12608,7 +12832,7 @@
       <c r="H807" s="27"/>
       <c r="I807" s="27"/>
       <c r="J807" s="45"/>
-      <c r="K807" s="54"/>
+      <c r="K807" s="53"/>
     </row>
     <row r="808" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A808" s="17"/>
@@ -12621,7 +12845,7 @@
       <c r="H808" s="27"/>
       <c r="I808" s="27"/>
       <c r="J808" s="45"/>
-      <c r="K808" s="54"/>
+      <c r="K808" s="53"/>
     </row>
     <row r="809" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A809" s="17"/>
@@ -12634,7 +12858,7 @@
       <c r="H809" s="27"/>
       <c r="I809" s="27"/>
       <c r="J809" s="45"/>
-      <c r="K809" s="54"/>
+      <c r="K809" s="53"/>
     </row>
     <row r="810" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A810" s="17"/>
@@ -12647,7 +12871,7 @@
       <c r="H810" s="27"/>
       <c r="I810" s="27"/>
       <c r="J810" s="45"/>
-      <c r="K810" s="54"/>
+      <c r="K810" s="53"/>
     </row>
     <row r="811" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A811" s="17"/>
@@ -12660,7 +12884,7 @@
       <c r="H811" s="27"/>
       <c r="I811" s="27"/>
       <c r="J811" s="45"/>
-      <c r="K811" s="54"/>
+      <c r="K811" s="53"/>
     </row>
     <row r="812" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A812" s="17"/>
@@ -12673,7 +12897,7 @@
       <c r="H812" s="27"/>
       <c r="I812" s="27"/>
       <c r="J812" s="45"/>
-      <c r="K812" s="54"/>
+      <c r="K812" s="53"/>
     </row>
     <row r="813" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A813" s="17"/>
@@ -12686,7 +12910,7 @@
       <c r="H813" s="27"/>
       <c r="I813" s="27"/>
       <c r="J813" s="45"/>
-      <c r="K813" s="54"/>
+      <c r="K813" s="53"/>
     </row>
     <row r="814" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A814" s="17"/>
@@ -12699,7 +12923,7 @@
       <c r="H814" s="27"/>
       <c r="I814" s="27"/>
       <c r="J814" s="45"/>
-      <c r="K814" s="54"/>
+      <c r="K814" s="53"/>
     </row>
     <row r="815" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A815" s="17"/>
@@ -12712,7 +12936,7 @@
       <c r="H815" s="27"/>
       <c r="I815" s="27"/>
       <c r="J815" s="45"/>
-      <c r="K815" s="54"/>
+      <c r="K815" s="53"/>
     </row>
     <row r="816" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A816" s="17"/>
@@ -12725,7 +12949,7 @@
       <c r="H816" s="27"/>
       <c r="I816" s="27"/>
       <c r="J816" s="45"/>
-      <c r="K816" s="54"/>
+      <c r="K816" s="53"/>
     </row>
     <row r="817" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A817" s="17"/>
@@ -12738,7 +12962,7 @@
       <c r="H817" s="27"/>
       <c r="I817" s="27"/>
       <c r="J817" s="45"/>
-      <c r="K817" s="54"/>
+      <c r="K817" s="53"/>
     </row>
     <row r="818" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A818" s="17"/>
@@ -12751,7 +12975,7 @@
       <c r="H818" s="27"/>
       <c r="I818" s="27"/>
       <c r="J818" s="45"/>
-      <c r="K818" s="54"/>
+      <c r="K818" s="53"/>
     </row>
     <row r="819" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A819" s="17"/>
@@ -12764,7 +12988,7 @@
       <c r="H819" s="27"/>
       <c r="I819" s="27"/>
       <c r="J819" s="45"/>
-      <c r="K819" s="54"/>
+      <c r="K819" s="53"/>
     </row>
     <row r="820" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A820" s="17"/>
@@ -12777,7 +13001,7 @@
       <c r="H820" s="27"/>
       <c r="I820" s="27"/>
       <c r="J820" s="45"/>
-      <c r="K820" s="54"/>
+      <c r="K820" s="53"/>
     </row>
     <row r="821" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A821" s="17"/>
@@ -12790,7 +13014,7 @@
       <c r="H821" s="27"/>
       <c r="I821" s="27"/>
       <c r="J821" s="45"/>
-      <c r="K821" s="54"/>
+      <c r="K821" s="53"/>
     </row>
     <row r="822" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A822" s="17"/>
@@ -12803,7 +13027,7 @@
       <c r="H822" s="27"/>
       <c r="I822" s="27"/>
       <c r="J822" s="45"/>
-      <c r="K822" s="54"/>
+      <c r="K822" s="53"/>
     </row>
     <row r="823" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A823" s="17"/>
@@ -12816,7 +13040,7 @@
       <c r="H823" s="27"/>
       <c r="I823" s="27"/>
       <c r="J823" s="45"/>
-      <c r="K823" s="54"/>
+      <c r="K823" s="53"/>
     </row>
     <row r="824" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A824" s="17"/>
@@ -12829,7 +13053,7 @@
       <c r="H824" s="27"/>
       <c r="I824" s="27"/>
       <c r="J824" s="45"/>
-      <c r="K824" s="54"/>
+      <c r="K824" s="53"/>
     </row>
     <row r="825" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A825" s="17"/>
@@ -12842,7 +13066,7 @@
       <c r="H825" s="27"/>
       <c r="I825" s="27"/>
       <c r="J825" s="45"/>
-      <c r="K825" s="54"/>
+      <c r="K825" s="53"/>
     </row>
     <row r="826" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A826" s="17"/>
@@ -12855,7 +13079,7 @@
       <c r="H826" s="27"/>
       <c r="I826" s="27"/>
       <c r="J826" s="45"/>
-      <c r="K826" s="54"/>
+      <c r="K826" s="53"/>
     </row>
     <row r="827" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A827" s="17"/>
@@ -12868,7 +13092,7 @@
       <c r="H827" s="27"/>
       <c r="I827" s="27"/>
       <c r="J827" s="45"/>
-      <c r="K827" s="54"/>
+      <c r="K827" s="53"/>
     </row>
     <row r="828" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A828" s="17"/>
@@ -12881,7 +13105,7 @@
       <c r="H828" s="27"/>
       <c r="I828" s="27"/>
       <c r="J828" s="45"/>
-      <c r="K828" s="54"/>
+      <c r="K828" s="53"/>
     </row>
     <row r="829" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A829" s="17"/>
@@ -12894,7 +13118,7 @@
       <c r="H829" s="27"/>
       <c r="I829" s="27"/>
       <c r="J829" s="45"/>
-      <c r="K829" s="54"/>
+      <c r="K829" s="53"/>
     </row>
     <row r="830" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A830" s="17"/>
@@ -12907,7 +13131,7 @@
       <c r="H830" s="27"/>
       <c r="I830" s="27"/>
       <c r="J830" s="45"/>
-      <c r="K830" s="54"/>
+      <c r="K830" s="53"/>
     </row>
     <row r="831" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A831" s="17"/>
@@ -12920,7 +13144,7 @@
       <c r="H831" s="27"/>
       <c r="I831" s="27"/>
       <c r="J831" s="45"/>
-      <c r="K831" s="54"/>
+      <c r="K831" s="53"/>
     </row>
     <row r="832" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A832" s="17"/>
@@ -12933,7 +13157,7 @@
       <c r="H832" s="27"/>
       <c r="I832" s="27"/>
       <c r="J832" s="45"/>
-      <c r="K832" s="54"/>
+      <c r="K832" s="53"/>
     </row>
     <row r="833" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A833" s="17"/>
@@ -12946,7 +13170,7 @@
       <c r="H833" s="27"/>
       <c r="I833" s="27"/>
       <c r="J833" s="45"/>
-      <c r="K833" s="54"/>
+      <c r="K833" s="53"/>
     </row>
     <row r="834" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A834" s="17"/>
@@ -12959,7 +13183,7 @@
       <c r="H834" s="27"/>
       <c r="I834" s="27"/>
       <c r="J834" s="45"/>
-      <c r="K834" s="54"/>
+      <c r="K834" s="53"/>
     </row>
     <row r="835" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A835" s="17"/>
@@ -12972,7 +13196,7 @@
       <c r="H835" s="27"/>
       <c r="I835" s="27"/>
       <c r="J835" s="45"/>
-      <c r="K835" s="54"/>
+      <c r="K835" s="53"/>
     </row>
     <row r="836" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A836" s="17"/>
@@ -12985,7 +13209,7 @@
       <c r="H836" s="27"/>
       <c r="I836" s="27"/>
       <c r="J836" s="45"/>
-      <c r="K836" s="54"/>
+      <c r="K836" s="53"/>
     </row>
     <row r="837" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A837" s="17"/>
@@ -12998,7 +13222,7 @@
       <c r="H837" s="27"/>
       <c r="I837" s="27"/>
       <c r="J837" s="45"/>
-      <c r="K837" s="54"/>
+      <c r="K837" s="53"/>
     </row>
     <row r="838" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A838" s="17"/>
@@ -13011,7 +13235,7 @@
       <c r="H838" s="27"/>
       <c r="I838" s="27"/>
       <c r="J838" s="45"/>
-      <c r="K838" s="54"/>
+      <c r="K838" s="53"/>
     </row>
     <row r="839" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A839" s="17"/>
@@ -13024,7 +13248,7 @@
       <c r="H839" s="27"/>
       <c r="I839" s="27"/>
       <c r="J839" s="45"/>
-      <c r="K839" s="54"/>
+      <c r="K839" s="53"/>
     </row>
     <row r="840" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A840" s="17"/>
@@ -13037,7 +13261,7 @@
       <c r="H840" s="27"/>
       <c r="I840" s="27"/>
       <c r="J840" s="45"/>
-      <c r="K840" s="54"/>
+      <c r="K840" s="53"/>
     </row>
     <row r="841" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A841" s="17"/>
@@ -13050,7 +13274,7 @@
       <c r="H841" s="27"/>
       <c r="I841" s="27"/>
       <c r="J841" s="45"/>
-      <c r="K841" s="54"/>
+      <c r="K841" s="53"/>
     </row>
     <row r="842" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A842" s="17"/>
@@ -13063,7 +13287,7 @@
       <c r="H842" s="27"/>
       <c r="I842" s="27"/>
       <c r="J842" s="45"/>
-      <c r="K842" s="54"/>
+      <c r="K842" s="53"/>
     </row>
     <row r="843" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A843" s="17"/>
@@ -13076,7 +13300,7 @@
       <c r="H843" s="27"/>
       <c r="I843" s="27"/>
       <c r="J843" s="45"/>
-      <c r="K843" s="54"/>
+      <c r="K843" s="53"/>
     </row>
     <row r="844" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A844" s="17"/>
@@ -13089,7 +13313,7 @@
       <c r="H844" s="27"/>
       <c r="I844" s="27"/>
       <c r="J844" s="45"/>
-      <c r="K844" s="54"/>
+      <c r="K844" s="53"/>
     </row>
     <row r="845" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A845" s="17"/>
@@ -13102,7 +13326,7 @@
       <c r="H845" s="27"/>
       <c r="I845" s="27"/>
       <c r="J845" s="45"/>
-      <c r="K845" s="54"/>
+      <c r="K845" s="53"/>
     </row>
     <row r="846" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A846" s="17"/>
@@ -13115,7 +13339,7 @@
       <c r="H846" s="27"/>
       <c r="I846" s="27"/>
       <c r="J846" s="45"/>
-      <c r="K846" s="54"/>
+      <c r="K846" s="53"/>
     </row>
     <row r="847" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A847" s="17"/>
@@ -13128,7 +13352,7 @@
       <c r="H847" s="27"/>
       <c r="I847" s="27"/>
       <c r="J847" s="45"/>
-      <c r="K847" s="54"/>
+      <c r="K847" s="53"/>
     </row>
     <row r="848" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A848" s="17"/>
@@ -13141,7 +13365,7 @@
       <c r="H848" s="27"/>
       <c r="I848" s="27"/>
       <c r="J848" s="45"/>
-      <c r="K848" s="54"/>
+      <c r="K848" s="53"/>
     </row>
     <row r="849" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A849" s="17"/>
@@ -13154,7 +13378,7 @@
       <c r="H849" s="27"/>
       <c r="I849" s="27"/>
       <c r="J849" s="45"/>
-      <c r="K849" s="54"/>
+      <c r="K849" s="53"/>
     </row>
     <row r="850" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A850" s="17"/>
@@ -13167,7 +13391,7 @@
       <c r="H850" s="27"/>
       <c r="I850" s="27"/>
       <c r="J850" s="45"/>
-      <c r="K850" s="54"/>
+      <c r="K850" s="53"/>
     </row>
     <row r="851" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A851" s="17"/>
@@ -13180,7 +13404,7 @@
       <c r="H851" s="27"/>
       <c r="I851" s="27"/>
       <c r="J851" s="45"/>
-      <c r="K851" s="54"/>
+      <c r="K851" s="53"/>
     </row>
     <row r="852" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A852" s="17"/>
@@ -13193,7 +13417,7 @@
       <c r="H852" s="27"/>
       <c r="I852" s="27"/>
       <c r="J852" s="45"/>
-      <c r="K852" s="54"/>
+      <c r="K852" s="53"/>
     </row>
     <row r="853" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A853" s="17"/>
@@ -13206,7 +13430,7 @@
       <c r="H853" s="27"/>
       <c r="I853" s="27"/>
       <c r="J853" s="45"/>
-      <c r="K853" s="54"/>
+      <c r="K853" s="53"/>
     </row>
     <row r="854" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A854" s="17"/>
@@ -13219,7 +13443,7 @@
       <c r="H854" s="27"/>
       <c r="I854" s="27"/>
       <c r="J854" s="45"/>
-      <c r="K854" s="54"/>
+      <c r="K854" s="53"/>
     </row>
     <row r="855" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A855" s="17"/>
@@ -13232,7 +13456,7 @@
       <c r="H855" s="27"/>
       <c r="I855" s="27"/>
       <c r="J855" s="45"/>
-      <c r="K855" s="54"/>
+      <c r="K855" s="53"/>
     </row>
     <row r="856" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A856" s="17"/>
@@ -13245,7 +13469,7 @@
       <c r="H856" s="27"/>
       <c r="I856" s="27"/>
       <c r="J856" s="45"/>
-      <c r="K856" s="54"/>
+      <c r="K856" s="53"/>
     </row>
     <row r="857" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A857" s="17"/>
@@ -13258,7 +13482,7 @@
       <c r="H857" s="27"/>
       <c r="I857" s="27"/>
       <c r="J857" s="45"/>
-      <c r="K857" s="54"/>
+      <c r="K857" s="53"/>
     </row>
     <row r="858" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A858" s="17"/>
@@ -13271,7 +13495,7 @@
       <c r="H858" s="27"/>
       <c r="I858" s="27"/>
       <c r="J858" s="45"/>
-      <c r="K858" s="54"/>
+      <c r="K858" s="53"/>
     </row>
     <row r="859" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A859" s="17"/>
@@ -13284,7 +13508,7 @@
       <c r="H859" s="27"/>
       <c r="I859" s="27"/>
       <c r="J859" s="45"/>
-      <c r="K859" s="54"/>
+      <c r="K859" s="53"/>
     </row>
     <row r="860" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A860" s="17"/>
@@ -13297,7 +13521,7 @@
       <c r="H860" s="27"/>
       <c r="I860" s="27"/>
       <c r="J860" s="45"/>
-      <c r="K860" s="54"/>
+      <c r="K860" s="53"/>
     </row>
     <row r="861" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A861" s="17"/>
@@ -13310,7 +13534,7 @@
       <c r="H861" s="27"/>
       <c r="I861" s="27"/>
       <c r="J861" s="45"/>
-      <c r="K861" s="54"/>
+      <c r="K861" s="53"/>
     </row>
     <row r="862" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A862" s="17"/>
@@ -13323,7 +13547,7 @@
       <c r="H862" s="27"/>
       <c r="I862" s="27"/>
       <c r="J862" s="45"/>
-      <c r="K862" s="54"/>
+      <c r="K862" s="53"/>
     </row>
     <row r="863" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A863" s="17"/>
@@ -13336,7 +13560,7 @@
       <c r="H863" s="27"/>
       <c r="I863" s="27"/>
       <c r="J863" s="45"/>
-      <c r="K863" s="54"/>
+      <c r="K863" s="53"/>
     </row>
     <row r="864" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A864" s="17"/>
@@ -13349,7 +13573,7 @@
       <c r="H864" s="27"/>
       <c r="I864" s="27"/>
       <c r="J864" s="45"/>
-      <c r="K864" s="54"/>
+      <c r="K864" s="53"/>
     </row>
     <row r="865" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A865" s="17"/>
@@ -13362,7 +13586,7 @@
       <c r="H865" s="27"/>
       <c r="I865" s="27"/>
       <c r="J865" s="45"/>
-      <c r="K865" s="54"/>
+      <c r="K865" s="53"/>
     </row>
     <row r="866" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A866" s="17"/>
@@ -13375,7 +13599,7 @@
       <c r="H866" s="27"/>
       <c r="I866" s="27"/>
       <c r="J866" s="45"/>
-      <c r="K866" s="54"/>
+      <c r="K866" s="53"/>
     </row>
     <row r="867" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A867" s="17"/>
@@ -13388,7 +13612,7 @@
       <c r="H867" s="27"/>
       <c r="I867" s="27"/>
       <c r="J867" s="45"/>
-      <c r="K867" s="54"/>
+      <c r="K867" s="53"/>
     </row>
     <row r="868" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A868" s="17"/>
@@ -13401,7 +13625,7 @@
       <c r="H868" s="27"/>
       <c r="I868" s="27"/>
       <c r="J868" s="45"/>
-      <c r="K868" s="54"/>
+      <c r="K868" s="53"/>
     </row>
     <row r="869" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A869" s="17"/>
@@ -13414,7 +13638,7 @@
       <c r="H869" s="27"/>
       <c r="I869" s="27"/>
       <c r="J869" s="45"/>
-      <c r="K869" s="54"/>
+      <c r="K869" s="53"/>
     </row>
     <row r="870" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A870" s="17"/>
@@ -13427,7 +13651,7 @@
       <c r="H870" s="27"/>
       <c r="I870" s="27"/>
       <c r="J870" s="45"/>
-      <c r="K870" s="54"/>
+      <c r="K870" s="53"/>
     </row>
     <row r="871" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A871" s="17"/>
@@ -13440,7 +13664,7 @@
       <c r="H871" s="27"/>
       <c r="I871" s="27"/>
       <c r="J871" s="45"/>
-      <c r="K871" s="54"/>
+      <c r="K871" s="53"/>
     </row>
     <row r="872" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A872" s="17"/>
@@ -13453,7 +13677,7 @@
       <c r="H872" s="27"/>
       <c r="I872" s="27"/>
       <c r="J872" s="45"/>
-      <c r="K872" s="54"/>
+      <c r="K872" s="53"/>
     </row>
     <row r="873" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A873" s="17"/>
@@ -13466,7 +13690,7 @@
       <c r="H873" s="27"/>
       <c r="I873" s="27"/>
       <c r="J873" s="45"/>
-      <c r="K873" s="54"/>
+      <c r="K873" s="53"/>
     </row>
     <row r="874" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A874" s="17"/>
@@ -13479,7 +13703,7 @@
       <c r="H874" s="27"/>
       <c r="I874" s="27"/>
       <c r="J874" s="45"/>
-      <c r="K874" s="54"/>
+      <c r="K874" s="53"/>
     </row>
     <row r="875" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A875" s="17"/>
@@ -13492,7 +13716,7 @@
       <c r="H875" s="27"/>
       <c r="I875" s="27"/>
       <c r="J875" s="45"/>
-      <c r="K875" s="54"/>
+      <c r="K875" s="53"/>
     </row>
     <row r="876" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A876" s="17"/>
@@ -13505,7 +13729,7 @@
       <c r="H876" s="27"/>
       <c r="I876" s="27"/>
       <c r="J876" s="45"/>
-      <c r="K876" s="54"/>
+      <c r="K876" s="53"/>
     </row>
     <row r="877" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A877" s="17"/>
@@ -13518,7 +13742,7 @@
       <c r="H877" s="27"/>
       <c r="I877" s="27"/>
       <c r="J877" s="45"/>
-      <c r="K877" s="54"/>
+      <c r="K877" s="53"/>
     </row>
     <row r="878" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A878" s="17"/>
@@ -13531,7 +13755,7 @@
       <c r="H878" s="27"/>
       <c r="I878" s="27"/>
       <c r="J878" s="45"/>
-      <c r="K878" s="54"/>
+      <c r="K878" s="53"/>
     </row>
     <row r="879" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A879" s="17"/>
@@ -13544,7 +13768,7 @@
       <c r="H879" s="27"/>
       <c r="I879" s="27"/>
       <c r="J879" s="45"/>
-      <c r="K879" s="54"/>
+      <c r="K879" s="53"/>
     </row>
     <row r="880" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A880" s="17"/>
@@ -13557,7 +13781,7 @@
       <c r="H880" s="27"/>
       <c r="I880" s="27"/>
       <c r="J880" s="45"/>
-      <c r="K880" s="54"/>
+      <c r="K880" s="53"/>
     </row>
     <row r="881" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A881" s="17"/>
@@ -13570,7 +13794,7 @@
       <c r="H881" s="27"/>
       <c r="I881" s="27"/>
       <c r="J881" s="45"/>
-      <c r="K881" s="54"/>
+      <c r="K881" s="53"/>
     </row>
     <row r="882" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A882" s="17"/>
@@ -13583,7 +13807,7 @@
       <c r="H882" s="27"/>
       <c r="I882" s="27"/>
       <c r="J882" s="45"/>
-      <c r="K882" s="54"/>
+      <c r="K882" s="53"/>
     </row>
     <row r="883" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A883" s="17"/>
@@ -13596,7 +13820,7 @@
       <c r="H883" s="27"/>
       <c r="I883" s="27"/>
       <c r="J883" s="45"/>
-      <c r="K883" s="54"/>
+      <c r="K883" s="53"/>
     </row>
     <row r="884" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A884" s="17"/>
@@ -13609,7 +13833,7 @@
       <c r="H884" s="27"/>
       <c r="I884" s="27"/>
       <c r="J884" s="45"/>
-      <c r="K884" s="54"/>
+      <c r="K884" s="53"/>
     </row>
     <row r="885" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A885" s="17"/>
@@ -13622,7 +13846,7 @@
       <c r="H885" s="27"/>
       <c r="I885" s="27"/>
       <c r="J885" s="45"/>
-      <c r="K885" s="54"/>
+      <c r="K885" s="53"/>
     </row>
     <row r="886" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A886" s="17"/>
@@ -13635,7 +13859,7 @@
       <c r="H886" s="27"/>
       <c r="I886" s="27"/>
       <c r="J886" s="45"/>
-      <c r="K886" s="54"/>
+      <c r="K886" s="53"/>
     </row>
     <row r="887" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A887" s="17"/>
@@ -13648,7 +13872,7 @@
       <c r="H887" s="27"/>
       <c r="I887" s="27"/>
       <c r="J887" s="45"/>
-      <c r="K887" s="54"/>
+      <c r="K887" s="53"/>
     </row>
     <row r="888" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A888" s="17"/>
@@ -13661,7 +13885,7 @@
       <c r="H888" s="27"/>
       <c r="I888" s="27"/>
       <c r="J888" s="45"/>
-      <c r="K888" s="54"/>
+      <c r="K888" s="53"/>
     </row>
     <row r="889" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A889" s="17"/>
@@ -13674,7 +13898,7 @@
       <c r="H889" s="27"/>
       <c r="I889" s="27"/>
       <c r="J889" s="45"/>
-      <c r="K889" s="54"/>
+      <c r="K889" s="53"/>
     </row>
     <row r="890" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A890" s="17"/>
@@ -13687,7 +13911,7 @@
       <c r="H890" s="27"/>
       <c r="I890" s="27"/>
       <c r="J890" s="45"/>
-      <c r="K890" s="54"/>
+      <c r="K890" s="53"/>
     </row>
     <row r="891" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A891" s="17"/>
@@ -13700,7 +13924,7 @@
       <c r="H891" s="27"/>
       <c r="I891" s="27"/>
       <c r="J891" s="45"/>
-      <c r="K891" s="54"/>
+      <c r="K891" s="53"/>
     </row>
     <row r="892" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A892" s="17"/>
@@ -13713,7 +13937,7 @@
       <c r="H892" s="27"/>
       <c r="I892" s="27"/>
       <c r="J892" s="45"/>
-      <c r="K892" s="54"/>
+      <c r="K892" s="53"/>
     </row>
     <row r="893" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A893" s="17"/>
@@ -13726,7 +13950,7 @@
       <c r="H893" s="27"/>
       <c r="I893" s="27"/>
       <c r="J893" s="45"/>
-      <c r="K893" s="54"/>
+      <c r="K893" s="53"/>
     </row>
     <row r="894" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A894" s="17"/>
@@ -13739,7 +13963,7 @@
       <c r="H894" s="27"/>
       <c r="I894" s="27"/>
       <c r="J894" s="45"/>
-      <c r="K894" s="54"/>
+      <c r="K894" s="53"/>
     </row>
     <row r="895" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A895" s="17"/>
@@ -13752,7 +13976,7 @@
       <c r="H895" s="27"/>
       <c r="I895" s="27"/>
       <c r="J895" s="45"/>
-      <c r="K895" s="54"/>
+      <c r="K895" s="53"/>
     </row>
     <row r="896" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A896" s="17"/>
@@ -13765,7 +13989,7 @@
       <c r="H896" s="27"/>
       <c r="I896" s="27"/>
       <c r="J896" s="45"/>
-      <c r="K896" s="54"/>
+      <c r="K896" s="53"/>
     </row>
     <row r="897" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A897" s="17"/>
@@ -13778,7 +14002,7 @@
       <c r="H897" s="27"/>
       <c r="I897" s="27"/>
       <c r="J897" s="45"/>
-      <c r="K897" s="54"/>
+      <c r="K897" s="53"/>
     </row>
     <row r="898" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A898" s="17"/>
@@ -13791,7 +14015,7 @@
       <c r="H898" s="27"/>
       <c r="I898" s="27"/>
       <c r="J898" s="45"/>
-      <c r="K898" s="54"/>
+      <c r="K898" s="53"/>
     </row>
     <row r="899" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A899" s="17"/>
@@ -13804,7 +14028,7 @@
       <c r="H899" s="27"/>
       <c r="I899" s="27"/>
       <c r="J899" s="45"/>
-      <c r="K899" s="54"/>
+      <c r="K899" s="53"/>
     </row>
     <row r="900" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A900" s="17"/>
@@ -13817,7 +14041,7 @@
       <c r="H900" s="27"/>
       <c r="I900" s="27"/>
       <c r="J900" s="45"/>
-      <c r="K900" s="54"/>
+      <c r="K900" s="53"/>
     </row>
     <row r="901" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A901" s="17"/>
@@ -13830,7 +14054,7 @@
       <c r="H901" s="27"/>
       <c r="I901" s="27"/>
       <c r="J901" s="45"/>
-      <c r="K901" s="54"/>
+      <c r="K901" s="53"/>
     </row>
     <row r="902" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A902" s="17"/>
@@ -13843,7 +14067,7 @@
       <c r="H902" s="27"/>
       <c r="I902" s="27"/>
       <c r="J902" s="45"/>
-      <c r="K902" s="54"/>
+      <c r="K902" s="53"/>
     </row>
     <row r="903" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A903" s="17"/>
@@ -13856,7 +14080,7 @@
       <c r="H903" s="27"/>
       <c r="I903" s="27"/>
       <c r="J903" s="45"/>
-      <c r="K903" s="54"/>
+      <c r="K903" s="53"/>
     </row>
     <row r="904" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A904" s="17"/>
@@ -13869,7 +14093,7 @@
       <c r="H904" s="27"/>
       <c r="I904" s="27"/>
       <c r="J904" s="45"/>
-      <c r="K904" s="54"/>
+      <c r="K904" s="53"/>
     </row>
     <row r="905" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A905" s="17"/>
@@ -13882,7 +14106,7 @@
       <c r="H905" s="27"/>
       <c r="I905" s="27"/>
       <c r="J905" s="45"/>
-      <c r="K905" s="54"/>
+      <c r="K905" s="53"/>
     </row>
     <row r="906" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A906" s="17"/>
@@ -13895,7 +14119,7 @@
       <c r="H906" s="27"/>
       <c r="I906" s="27"/>
       <c r="J906" s="45"/>
-      <c r="K906" s="54"/>
+      <c r="K906" s="53"/>
     </row>
     <row r="907" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A907" s="17"/>
@@ -13908,7 +14132,7 @@
       <c r="H907" s="27"/>
       <c r="I907" s="27"/>
       <c r="J907" s="45"/>
-      <c r="K907" s="54"/>
+      <c r="K907" s="53"/>
     </row>
     <row r="908" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A908" s="17"/>
@@ -13921,7 +14145,7 @@
       <c r="H908" s="27"/>
       <c r="I908" s="27"/>
       <c r="J908" s="45"/>
-      <c r="K908" s="54"/>
+      <c r="K908" s="53"/>
     </row>
     <row r="909" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A909" s="17"/>
@@ -13934,7 +14158,7 @@
       <c r="H909" s="27"/>
       <c r="I909" s="27"/>
       <c r="J909" s="45"/>
-      <c r="K909" s="54"/>
+      <c r="K909" s="53"/>
     </row>
     <row r="910" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A910" s="17"/>
@@ -13947,7 +14171,7 @@
       <c r="H910" s="27"/>
       <c r="I910" s="27"/>
       <c r="J910" s="45"/>
-      <c r="K910" s="54"/>
+      <c r="K910" s="53"/>
     </row>
     <row r="911" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A911" s="17"/>
@@ -13960,7 +14184,7 @@
       <c r="H911" s="27"/>
       <c r="I911" s="27"/>
       <c r="J911" s="45"/>
-      <c r="K911" s="54"/>
+      <c r="K911" s="53"/>
     </row>
     <row r="912" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A912" s="17"/>
@@ -13973,7 +14197,7 @@
       <c r="H912" s="27"/>
       <c r="I912" s="27"/>
       <c r="J912" s="45"/>
-      <c r="K912" s="54"/>
+      <c r="K912" s="53"/>
     </row>
     <row r="913" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A913" s="17"/>
@@ -13986,7 +14210,7 @@
       <c r="H913" s="27"/>
       <c r="I913" s="27"/>
       <c r="J913" s="45"/>
-      <c r="K913" s="54"/>
+      <c r="K913" s="53"/>
     </row>
     <row r="914" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A914" s="17"/>
@@ -13999,7 +14223,7 @@
       <c r="H914" s="27"/>
       <c r="I914" s="27"/>
       <c r="J914" s="45"/>
-      <c r="K914" s="54"/>
+      <c r="K914" s="53"/>
     </row>
     <row r="915" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A915" s="17"/>
@@ -14012,7 +14236,7 @@
       <c r="H915" s="27"/>
       <c r="I915" s="27"/>
       <c r="J915" s="45"/>
-      <c r="K915" s="54"/>
+      <c r="K915" s="53"/>
     </row>
     <row r="916" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A916" s="17"/>
@@ -14025,7 +14249,7 @@
       <c r="H916" s="27"/>
       <c r="I916" s="27"/>
       <c r="J916" s="45"/>
-      <c r="K916" s="54"/>
+      <c r="K916" s="53"/>
     </row>
     <row r="917" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A917" s="17"/>
@@ -14038,7 +14262,7 @@
       <c r="H917" s="27"/>
       <c r="I917" s="27"/>
       <c r="J917" s="45"/>
-      <c r="K917" s="54"/>
+      <c r="K917" s="53"/>
     </row>
     <row r="918" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A918" s="17"/>
@@ -14051,7 +14275,7 @@
       <c r="H918" s="27"/>
       <c r="I918" s="27"/>
       <c r="J918" s="45"/>
-      <c r="K918" s="54"/>
+      <c r="K918" s="53"/>
     </row>
     <row r="919" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A919" s="17"/>
@@ -14064,7 +14288,7 @@
       <c r="H919" s="27"/>
       <c r="I919" s="27"/>
       <c r="J919" s="45"/>
-      <c r="K919" s="54"/>
+      <c r="K919" s="53"/>
     </row>
     <row r="920" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A920" s="17"/>
@@ -14077,7 +14301,7 @@
       <c r="H920" s="27"/>
       <c r="I920" s="27"/>
       <c r="J920" s="45"/>
-      <c r="K920" s="54"/>
+      <c r="K920" s="53"/>
     </row>
     <row r="921" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A921" s="17"/>
@@ -14090,7 +14314,7 @@
       <c r="H921" s="27"/>
       <c r="I921" s="27"/>
       <c r="J921" s="45"/>
-      <c r="K921" s="54"/>
+      <c r="K921" s="53"/>
     </row>
     <row r="922" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A922" s="17"/>
@@ -14103,7 +14327,7 @@
       <c r="H922" s="27"/>
       <c r="I922" s="27"/>
       <c r="J922" s="45"/>
-      <c r="K922" s="54"/>
+      <c r="K922" s="53"/>
     </row>
     <row r="923" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A923" s="17"/>
@@ -14116,7 +14340,7 @@
       <c r="H923" s="27"/>
       <c r="I923" s="27"/>
       <c r="J923" s="45"/>
-      <c r="K923" s="54"/>
+      <c r="K923" s="53"/>
     </row>
     <row r="924" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A924" s="17"/>
@@ -14129,7 +14353,7 @@
       <c r="H924" s="27"/>
       <c r="I924" s="27"/>
       <c r="J924" s="45"/>
-      <c r="K924" s="54"/>
+      <c r="K924" s="53"/>
     </row>
     <row r="925" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A925" s="17"/>
@@ -14142,7 +14366,7 @@
       <c r="H925" s="27"/>
       <c r="I925" s="27"/>
       <c r="J925" s="45"/>
-      <c r="K925" s="54"/>
+      <c r="K925" s="53"/>
     </row>
     <row r="926" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A926" s="17"/>
@@ -14155,7 +14379,7 @@
       <c r="H926" s="27"/>
       <c r="I926" s="27"/>
       <c r="J926" s="45"/>
-      <c r="K926" s="54"/>
+      <c r="K926" s="53"/>
     </row>
     <row r="927" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A927" s="17"/>
@@ -14168,7 +14392,7 @@
       <c r="H927" s="27"/>
       <c r="I927" s="27"/>
       <c r="J927" s="45"/>
-      <c r="K927" s="54"/>
+      <c r="K927" s="53"/>
     </row>
     <row r="928" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A928" s="17"/>
@@ -14181,7 +14405,7 @@
       <c r="H928" s="27"/>
       <c r="I928" s="27"/>
       <c r="J928" s="45"/>
-      <c r="K928" s="54"/>
+      <c r="K928" s="53"/>
     </row>
     <row r="929" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A929" s="17"/>
@@ -14194,7 +14418,7 @@
       <c r="H929" s="27"/>
       <c r="I929" s="27"/>
       <c r="J929" s="45"/>
-      <c r="K929" s="54"/>
+      <c r="K929" s="53"/>
     </row>
     <row r="930" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A930" s="17"/>
@@ -14207,7 +14431,7 @@
       <c r="H930" s="27"/>
       <c r="I930" s="27"/>
       <c r="J930" s="45"/>
-      <c r="K930" s="54"/>
+      <c r="K930" s="53"/>
     </row>
     <row r="931" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A931" s="17"/>
@@ -14220,7 +14444,7 @@
       <c r="H931" s="27"/>
       <c r="I931" s="27"/>
       <c r="J931" s="45"/>
-      <c r="K931" s="54"/>
+      <c r="K931" s="53"/>
     </row>
     <row r="932" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A932" s="17"/>
@@ -14233,7 +14457,7 @@
       <c r="H932" s="27"/>
       <c r="I932" s="27"/>
       <c r="J932" s="45"/>
-      <c r="K932" s="54"/>
+      <c r="K932" s="53"/>
     </row>
     <row r="933" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A933" s="17"/>
@@ -14246,7 +14470,7 @@
       <c r="H933" s="27"/>
       <c r="I933" s="27"/>
       <c r="J933" s="45"/>
-      <c r="K933" s="54"/>
+      <c r="K933" s="53"/>
     </row>
     <row r="934" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A934" s="17"/>
@@ -14259,7 +14483,7 @@
       <c r="H934" s="27"/>
       <c r="I934" s="27"/>
       <c r="J934" s="45"/>
-      <c r="K934" s="54"/>
+      <c r="K934" s="53"/>
     </row>
     <row r="935" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A935" s="17"/>
@@ -14272,7 +14496,7 @@
       <c r="H935" s="27"/>
       <c r="I935" s="27"/>
       <c r="J935" s="45"/>
-      <c r="K935" s="54"/>
+      <c r="K935" s="53"/>
     </row>
     <row r="936" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A936" s="17"/>
@@ -14285,7 +14509,7 @@
       <c r="H936" s="27"/>
       <c r="I936" s="27"/>
       <c r="J936" s="45"/>
-      <c r="K936" s="54"/>
+      <c r="K936" s="53"/>
     </row>
     <row r="937" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A937" s="17"/>
@@ -14298,7 +14522,7 @@
       <c r="H937" s="27"/>
       <c r="I937" s="27"/>
       <c r="J937" s="45"/>
-      <c r="K937" s="54"/>
+      <c r="K937" s="53"/>
     </row>
     <row r="938" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A938" s="17"/>
@@ -14311,7 +14535,7 @@
       <c r="H938" s="27"/>
       <c r="I938" s="27"/>
       <c r="J938" s="45"/>
-      <c r="K938" s="54"/>
+      <c r="K938" s="53"/>
     </row>
     <row r="939" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A939" s="17"/>
@@ -20725,10 +20949,10 @@
   </sheetData>
   <autoFilter ref="A4:K1431"/>
   <customSheetViews>
-    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1">
-      <selection activeCell="E5" sqref="E5"/>
+    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A52">
+      <selection activeCell="G48" sqref="G48"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup scale="56" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+      <pageSetup scale="69" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
       <autoFilter ref="A4:L1431"/>
     </customSheetView>
     <customSheetView guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1">
@@ -20737,10 +20961,10 @@
       <pageSetup scale="68" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId2"/>
       <autoFilter ref="A4:L1431"/>
     </customSheetView>
-    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1" topLeftCell="A52">
-      <selection activeCell="G48" sqref="G48"/>
+    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" showAutoFilter="1">
+      <selection activeCell="E5" sqref="E5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup scale="69" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId3"/>
+      <pageSetup scale="56" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId3"/>
       <autoFilter ref="A4:L1431"/>
     </customSheetView>
   </customSheetViews>
@@ -20832,7 +21056,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -20915,16 +21139,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}">
-      <selection activeCell="C30" sqref="C30"/>
+    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" state="hidden">
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{D409EBB3-6F22-4F49-A99E-35207EBD39D2}" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F3147CEA-0FF6-4397-A363-CA252CC9CAEF}" state="hidden">
-      <selection activeCell="C5" sqref="C5"/>
+    <customSheetView guid="{081DD1DB-57D4-47C3-998C-B6F5AF8B591A}">
+      <selection activeCell="C30" sqref="C30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
